--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3702C751-B401-4FB7-A278-2442FF5155A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A6BFE-74C5-4080-9A6F-2B3B71F0D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="24330" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="0" windowWidth="17415" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Image</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Possum</t>
+  </si>
+  <si>
+    <t>250313_KEN1_0</t>
+  </si>
+  <si>
+    <t>250314_KEN1_0</t>
+  </si>
+  <si>
+    <t>250317_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250317_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250317_BSHNL_2</t>
+  </si>
+  <si>
+    <t>250318_BOB_0</t>
+  </si>
+  <si>
+    <t>250318_BOB_1</t>
+  </si>
+  <si>
+    <t>250319_KEN1_0</t>
   </si>
 </sst>
 </file>
@@ -312,15 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,52 +651,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -699,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f>SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(E2:F2)</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
@@ -750,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f>SUM(E3:F3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H3" s="1">
@@ -801,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>SUM(E4:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
@@ -852,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>SUM(E5:F5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -903,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>SUM(E6:F6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="1">
@@ -954,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <f>SUM(E7:F7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="1">
@@ -1005,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f>SUM(E8:F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -1056,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(E9:F9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="1">
@@ -1107,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f>SUM(E10:F10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="1">
@@ -1158,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM(E11:F11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H11" s="1">
@@ -1209,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f>SUM(E12:F12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="1">
@@ -1262,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM(E13:F13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="1">
@@ -1313,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>SUM(E14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
@@ -1364,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <f>SUM(E15:F15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H15" s="1">
@@ -1415,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1">
-        <f>SUM(E16:F16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H16" s="1">
@@ -1466,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f>SUM(E17:F17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="1">
@@ -1517,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f>SUM(E18:F18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H18" s="1">
@@ -1568,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>SUM(E19:F19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="1">
@@ -1619,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>SUM(E20:F20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
@@ -1670,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM(E21:F21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
@@ -1721,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <f>SUM(E22:F22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H22" s="1">
@@ -1772,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>SUM(E23:F23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="1">
@@ -1823,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <f>SUM(E24:F24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H24" s="1">
@@ -1874,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <f>SUM(E25:F25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H25" s="1">
@@ -1925,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <f>SUM(E26:F26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H26" s="1">
@@ -1976,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f>SUM(E27:F27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H27" s="1">
@@ -2027,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <f>SUM(E28:F28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
@@ -2078,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="1">
-        <f>SUM(E29:F29)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H29" s="1">
@@ -2129,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="1">
-        <f>SUM(E30:F30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H30" s="1">
@@ -2180,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f>SUM(E31:F31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" s="1">
@@ -2231,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f>SUM(E32:F32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
@@ -2282,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f>SUM(E33:F33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="1">
@@ -2333,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f>SUM(E34:F34)</f>
+        <f t="shared" ref="G34:G86" si="1">SUM(E34:F34)</f>
         <v>0</v>
       </c>
       <c r="H34" s="1">
@@ -2384,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f>SUM(E35:F35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H35" s="1">
@@ -2435,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f>SUM(E36:F36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
@@ -2486,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f>SUM(E37:F37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H37" s="1">
@@ -2537,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f>SUM(E38:F38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
@@ -2588,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <f>SUM(E39:F39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H39" s="1">
@@ -2639,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f>SUM(E40:F40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
@@ -2690,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <f>SUM(E41:F41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="1">
@@ -2741,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f>SUM(E42:F42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
@@ -2792,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f>SUM(E43:F43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
@@ -2843,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f>SUM(E44:F44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
@@ -2894,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f>SUM(E45:F45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
@@ -2945,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="1">
-        <f>SUM(E46:F46)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H46" s="1">
@@ -2996,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f>SUM(E47:F47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
@@ -3047,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f>SUM(E48:F48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
@@ -3098,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f>SUM(E49:F49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H49" s="1">
@@ -3149,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <f>SUM(E50:F50)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H50" s="1">
@@ -3180,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -3200,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f>SUM(E51:F51)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H51" s="1">
@@ -3231,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f>SUM(E52:F52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H52" s="1">
@@ -3282,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3302,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <f>SUM(E53:F53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H53" s="1">
@@ -3333,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3353,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f>SUM(E54:F54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
@@ -3384,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f>SUM(E55:F55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
@@ -3435,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
@@ -3455,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <f>SUM(E56:F56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
@@ -3486,109 +3507,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>2025</v>
       </c>
-      <c r="C57" s="2">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
         <v>7</v>
       </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>SUM(E57:F57)</f>
-        <v>2</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>2025</v>
       </c>
-      <c r="C58" s="2">
-        <v>3</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
         <v>7</v>
       </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f>SUM(E58:F58)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
         <v>8</v>
       </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f>SUM(E59:F59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
@@ -3639,156 +3660,566 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>2025</v>
       </c>
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
         <v>8</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f>SUM(E60:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>2</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>1</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>2025</v>
       </c>
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2">
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
         <v>10</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f>SUM(E61:F61)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>2</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>2025</v>
       </c>
-      <c r="C62" s="2">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
         <v>10</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f>SUM(E62:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
         <v>6</v>
       </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>15</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>25</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>9</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>17</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>7</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A6BFE-74C5-4080-9A6F-2B3B71F0D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2344B6B-AB90-4973-8F5C-3478325AD4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="0" windowWidth="17415" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="75" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Image</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>250319_KEN1_0</t>
+  </si>
+  <si>
+    <t>250324_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250324_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250324_BSHNL_2</t>
+  </si>
+  <si>
+    <t>241122_TRLCAM_0</t>
+  </si>
+  <si>
+    <t>Eagle</t>
   </si>
 </sst>
 </file>
@@ -624,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +714,9 @@
       <c r="P1" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -720,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G33" si="0">SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G34" si="0">SUM(E2:F2)</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
@@ -748,6 +766,9 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -801,6 +822,9 @@
       <c r="P3" s="1">
         <v>0</v>
       </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -852,6 +876,9 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -903,6 +930,9 @@
       <c r="P5" s="1">
         <v>0</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -954,6 +984,9 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1005,6 +1038,9 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1056,6 +1092,9 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1107,29 +1146,32 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1147,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1157,11 +1199,14 @@
       </c>
       <c r="P10" s="1">
         <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>2025</v>
@@ -1173,14 +1218,14 @@
         <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1207,12 +1252,15 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>2025</v>
@@ -1221,17 +1269,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1260,12 +1308,13 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>2025</v>
@@ -1313,10 +1362,14 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>2025</v>
@@ -1328,14 +1381,14 @@
         <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1350,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1362,12 +1415,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>2025</v>
@@ -1376,17 +1432,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1401,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1413,12 +1469,15 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>2025</v>
@@ -1427,68 +1486,71 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>13</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1517,10 +1579,13 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>2025</v>
@@ -1529,17 +1594,17 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1568,10 +1633,13 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>2025</v>
@@ -1580,17 +1648,17 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1602,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1619,10 +1687,13 @@
       <c r="P19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>2025</v>
@@ -1631,29 +1702,29 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1670,10 +1741,13 @@
       <c r="P20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>2025</v>
@@ -1682,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1695,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1721,10 +1795,13 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>2025</v>
@@ -1733,20 +1810,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1772,10 +1849,13 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>2025</v>
@@ -1784,13 +1864,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
@@ -1803,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1823,10 +1903,13 @@
       <c r="P23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>2025</v>
@@ -1838,14 +1921,14 @@
         <v>14</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1854,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1874,10 +1957,13 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>2025</v>
@@ -1886,13 +1972,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
@@ -1905,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1925,10 +2011,13 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>2025</v>
@@ -1937,17 +2026,17 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1956,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1976,10 +2065,13 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>2025</v>
@@ -1988,17 +2080,17 @@
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2027,10 +2119,13 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2025</v>
@@ -2042,14 +2137,14 @@
         <v>18</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2078,10 +2173,13 @@
       <c r="P28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>2025</v>
@@ -2090,68 +2188,71 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>13</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2180,10 +2281,13 @@
       <c r="P30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>2025</v>
@@ -2195,14 +2299,14 @@
         <v>22</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2231,29 +2335,32 @@
       <c r="P31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
         <v>22</v>
       </c>
-      <c r="B32" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>24</v>
-      </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2265,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>0</v>
@@ -2282,10 +2389,13 @@
       <c r="P32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <v>2025</v>
@@ -2313,81 +2423,87 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
         <v>6</v>
       </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>25</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G86" si="1">SUM(E34:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>11</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2025</v>
@@ -2399,14 +2515,14 @@
         <v>25</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="G35:G72" si="1">SUM(E35:F35)</f>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2415,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2435,10 +2551,13 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>2025</v>
@@ -2450,14 +2569,14 @@
         <v>25</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2469,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -2486,10 +2605,13 @@
       <c r="P36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
         <v>2025</v>
@@ -2498,17 +2620,17 @@
         <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2520,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -2537,29 +2659,32 @@
       <c r="P37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>2025</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2571,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -2588,10 +2713,13 @@
       <c r="P38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <v>2025</v>
@@ -2603,14 +2731,14 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2619,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2639,10 +2767,13 @@
       <c r="P39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1">
         <v>2025</v>
@@ -2654,14 +2785,14 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2670,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -2690,10 +2821,13 @@
       <c r="P40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>2025</v>
@@ -2702,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2721,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -2741,10 +2875,13 @@
       <c r="P41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>2025</v>
@@ -2772,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K42" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -2792,10 +2929,13 @@
       <c r="P42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>2025</v>
@@ -2823,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -2843,10 +2983,13 @@
       <c r="P43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1">
         <v>2025</v>
@@ -2874,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2894,10 +3037,13 @@
       <c r="P44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>2025</v>
@@ -2906,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2925,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K45" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -2945,10 +3091,13 @@
       <c r="P45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>2025</v>
@@ -2960,14 +3109,14 @@
         <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2979,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -2996,10 +3145,13 @@
       <c r="P46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1">
         <v>2025</v>
@@ -3011,14 +3163,14 @@
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3039,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" s="1">
         <v>0</v>
@@ -3047,10 +3199,13 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>2025</v>
@@ -3098,10 +3253,13 @@
       <c r="P48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>2025</v>
@@ -3113,14 +3271,14 @@
         <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -3141,18 +3299,21 @@
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>2025</v>
@@ -3161,17 +3322,17 @@
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -3195,15 +3356,18 @@
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
         <v>2025</v>
@@ -3212,13 +3376,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
@@ -3234,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
@@ -3251,10 +3415,13 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
         <v>2025</v>
@@ -3266,14 +3433,14 @@
         <v>5</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -3285,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -3302,10 +3469,13 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>2025</v>
@@ -3314,13 +3484,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="1"/>
@@ -3330,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -3353,10 +3523,13 @@
       <c r="P53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>2025</v>
@@ -3371,20 +3544,20 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -3404,10 +3577,13 @@
       <c r="P54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>2025</v>
@@ -3435,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -3455,10 +3631,13 @@
       <c r="P55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>2025</v>
@@ -3489,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -3504,12 +3683,15 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1">
         <v>2025</v>
@@ -3518,17 +3700,17 @@
         <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -3555,12 +3737,15 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>2025</v>
@@ -3572,14 +3757,14 @@
         <v>7</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3591,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
         <v>0</v>
@@ -3608,10 +3793,13 @@
       <c r="P58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>2025</v>
@@ -3642,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
@@ -3659,10 +3847,13 @@
       <c r="P59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1">
         <v>2025</v>
@@ -3671,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3690,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
@@ -3702,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -3710,10 +3901,13 @@
       <c r="P60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>2025</v>
@@ -3722,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3741,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -3753,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -3761,10 +3955,13 @@
       <c r="P61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>2025</v>
@@ -3792,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -3812,10 +4009,13 @@
       <c r="P62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>2025</v>
@@ -3824,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -3843,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K63" s="1">
         <v>0</v>
@@ -3863,10 +4063,13 @@
       <c r="P63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1">
         <v>2025</v>
@@ -3875,17 +4078,17 @@
         <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3894,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
         <v>0</v>
@@ -3912,12 +4115,15 @@
         <v>0</v>
       </c>
       <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1">
         <v>2025</v>
@@ -3926,17 +4132,17 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3945,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -3963,12 +4169,15 @@
         <v>0</v>
       </c>
       <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1">
         <v>2025</v>
@@ -3996,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K66" s="1">
         <v>0</v>
@@ -4016,11 +4225,13 @@
       <c r="P66" s="1">
         <v>0</v>
       </c>
-      <c r="Q66" s="1"/>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1">
         <v>2025</v>
@@ -4048,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -4066,12 +4277,15 @@
         <v>0</v>
       </c>
       <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1">
         <v>2025</v>
@@ -4080,17 +4294,17 @@
         <v>3</v>
       </c>
       <c r="D68" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -4099,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
@@ -4119,11 +4333,13 @@
       <c r="P68" s="1">
         <v>0</v>
       </c>
-      <c r="Q68" s="1"/>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1">
         <v>2025</v>
@@ -4138,11 +4354,11 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -4151,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -4169,12 +4385,15 @@
         <v>0</v>
       </c>
       <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1">
         <v>2025</v>
@@ -4183,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -4202,30 +4421,249 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
+        <v>17</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
         <v>7</v>
       </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-      <c r="O70" s="1">
-        <v>0</v>
-      </c>
-      <c r="P70" s="1">
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" ref="G73:G74" si="2">SUM(E73:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>24</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P63">
-    <sortCondition ref="A2:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P64">
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2344B6B-AB90-4973-8F5C-3478325AD4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C646AC1-0FC6-4247-AF44-75E968DC2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28815" yWindow="75" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Image</t>
   </si>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>Eagle</t>
+  </si>
+  <si>
+    <t>250314_ROAD_0</t>
+  </si>
+  <si>
+    <t>250312_ROAD_0</t>
+  </si>
+  <si>
+    <t>241120_TRLCAM_0</t>
+  </si>
+  <si>
+    <t>241120_TRLCAM_1</t>
+  </si>
+  <si>
+    <t>241120_TRLCAM_2</t>
   </si>
 </sst>
 </file>
@@ -639,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -738,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G34" si="0">SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G37" si="0">SUM(E2:F2)</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
@@ -772,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -826,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -880,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -934,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1204,31 +1219,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1258,28 +1273,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1312,31 +1327,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1365,11 +1380,10 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>2025</v>
@@ -1378,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1421,9 +1435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>2025</v>
@@ -1432,17 +1446,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1457,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1475,9 +1489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>2025</v>
@@ -1486,17 +1500,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1528,10 +1542,11 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>2025</v>
@@ -1540,17 +1555,17 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1583,28 +1598,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>2025</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1619,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -1637,28 +1652,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>2025</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1691,28 +1706,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>2025</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1724,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1745,9 +1760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>2025</v>
@@ -1756,23 +1771,23 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1799,9 +1814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>2025</v>
@@ -1810,20 +1825,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1853,9 +1868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>2025</v>
@@ -1864,17 +1879,17 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1886,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
@@ -1907,9 +1922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>2025</v>
@@ -1918,26 +1933,26 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1961,9 +1976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>2025</v>
@@ -1972,20 +1987,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -2015,9 +2030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
         <v>2025</v>
@@ -2026,17 +2041,17 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2045,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -2069,9 +2084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <v>2025</v>
@@ -2080,13 +2095,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
@@ -2099,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -2123,9 +2138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <v>2025</v>
@@ -2134,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
@@ -2177,9 +2192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>2025</v>
@@ -2188,17 +2203,17 @@
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2207,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2231,9 +2246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>2025</v>
@@ -2242,17 +2257,17 @@
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2285,9 +2300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>2025</v>
@@ -2296,17 +2311,17 @@
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2339,9 +2354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>2025</v>
@@ -2350,17 +2365,17 @@
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2393,9 +2408,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1">
         <v>2025</v>
@@ -2404,17 +2419,17 @@
         <v>2</v>
       </c>
       <c r="D33" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2426,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
@@ -2447,9 +2462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>2025</v>
@@ -2458,17 +2473,17 @@
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2477,268 +2492,268 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
         <v>6</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="B38" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
         <v>25</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ref="G35:G72" si="1">SUM(E35:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38:G69" si="1">SUM(E38:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <v>11</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
         <v>25</v>
       </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>25</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>12</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2750,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2771,28 +2786,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>2025</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2801,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
@@ -2825,28 +2840,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <v>2025</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2858,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
@@ -2879,9 +2894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <v>2025</v>
@@ -2890,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2909,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -2933,9 +2948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>2025</v>
@@ -2944,17 +2959,17 @@
         <v>3</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2963,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -2987,9 +3002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>2025</v>
@@ -2998,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3017,11 +3032,11 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
         <v>5</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
       <c r="L44" s="1">
         <v>0</v>
       </c>
@@ -3041,9 +3056,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1">
         <v>2025</v>
@@ -3071,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -3095,9 +3110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>2025</v>
@@ -3106,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3128,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -3149,9 +3164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1">
         <v>2025</v>
@@ -3160,17 +3175,17 @@
         <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -3179,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -3203,9 +3218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>2025</v>
@@ -3214,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -3233,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -3245,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
@@ -3257,9 +3272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1">
         <v>2025</v>
@@ -3290,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
@@ -3299,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -3311,9 +3326,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1">
         <v>2025</v>
@@ -3328,11 +3343,11 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -3356,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1">
         <v>0</v>
@@ -3365,9 +3380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1">
         <v>2025</v>
@@ -3376,17 +3391,17 @@
         <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -3407,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" s="1">
         <v>0</v>
@@ -3419,9 +3434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1">
         <v>2025</v>
@@ -3430,17 +3445,17 @@
         <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -3452,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -3461,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" s="1">
         <v>0</v>
@@ -3473,9 +3488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>2025</v>
@@ -3484,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -3518,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="1">
         <v>0</v>
@@ -3527,9 +3542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>2025</v>
@@ -3538,23 +3553,23 @@
         <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -3581,9 +3596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>2025</v>
@@ -3592,17 +3607,17 @@
         <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -3611,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -3635,9 +3650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <v>2025</v>
@@ -3646,17 +3661,17 @@
         <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -3668,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L56" s="1">
         <v>0</v>
@@ -3689,9 +3704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>2025</v>
@@ -3706,17 +3721,17 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
@@ -3737,15 +3752,15 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>2025</v>
@@ -3754,17 +3769,17 @@
         <v>3</v>
       </c>
       <c r="D58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3773,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -3797,9 +3812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>2025</v>
@@ -3808,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -3830,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L59" s="1">
         <v>0</v>
@@ -3851,9 +3866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1">
         <v>2025</v>
@@ -3862,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3884,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
@@ -3899,15 +3914,15 @@
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1">
         <v>2025</v>
@@ -3916,17 +3931,17 @@
         <v>3</v>
       </c>
       <c r="D61" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -3935,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -3947,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="1">
         <v>0</v>
@@ -3961,7 +3976,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1">
         <v>2025</v>
@@ -3970,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -3992,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -4015,7 +4030,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1">
         <v>2025</v>
@@ -4024,7 +4039,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -4043,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -4069,7 +4084,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1">
         <v>2025</v>
@@ -4078,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -4109,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="1">
         <v>0</v>
@@ -4123,7 +4138,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>2025</v>
@@ -4132,17 +4147,17 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -4151,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -4177,7 +4192,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
         <v>2025</v>
@@ -4186,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -4205,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K66" s="1">
         <v>0</v>
@@ -4231,7 +4246,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1">
         <v>2025</v>
@@ -4240,7 +4255,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -4259,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -4285,7 +4300,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1">
         <v>2025</v>
@@ -4294,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -4313,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K68" s="1">
         <v>0</v>
@@ -4339,7 +4354,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
         <v>2025</v>
@@ -4348,17 +4363,17 @@
         <v>3</v>
       </c>
       <c r="D69" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -4370,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -4393,7 +4408,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1">
         <v>2025</v>
@@ -4402,17 +4417,17 @@
         <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G70:G77" si="2">SUM(E70:F70)</f>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -4421,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K70" s="1">
         <v>0</v>
@@ -4447,7 +4462,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1">
         <v>2025</v>
@@ -4456,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -4465,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H71" s="1">
@@ -4475,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K71" s="1">
         <v>0</v>
@@ -4501,7 +4516,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1">
         <v>2025</v>
@@ -4510,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -4519,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
@@ -4529,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
@@ -4555,7 +4570,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1">
         <v>2025</v>
@@ -4564,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -4573,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" ref="G73:G74" si="2">SUM(E73:F73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H73" s="1">
@@ -4583,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
@@ -4609,7 +4624,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1">
         <v>2025</v>
@@ -4618,17 +4633,17 @@
         <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -4640,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
@@ -4661,9 +4676,279 @@
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>17</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>19</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>7</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>24</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" ref="G78:G79" si="3">SUM(E78:F78)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>24</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P64">
-    <sortCondition ref="A2:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P68">
+    <sortCondition ref="A2:A68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C646AC1-0FC6-4247-AF44-75E968DC2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16CF46-034D-478E-A5E6-A89032BCC823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="75" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="2385" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Image</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>241120_TRLCAM_2</t>
+  </si>
+  <si>
+    <t>250324_BSHNL_3</t>
+  </si>
+  <si>
+    <t>250324_BSHNL_4</t>
+  </si>
+  <si>
+    <t>250324_KEN1_0</t>
+  </si>
+  <si>
+    <t>250324_KEN1_1</t>
+  </si>
+  <si>
+    <t>250329_KEN1_0</t>
+  </si>
+  <si>
+    <t>250329_KEN1_1</t>
+  </si>
+  <si>
+    <t>250329_BSHNL_0</t>
   </si>
 </sst>
 </file>
@@ -654,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +701,7 @@
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,7 +754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -787,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -841,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -895,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1219,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1327,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1435,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,9 +1563,8 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1706,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1922,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2246,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2354,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -2516,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2732,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -2786,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -3002,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -3110,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3164,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3218,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -3434,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -3542,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -3596,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3704,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -3758,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -3812,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -3866,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -3920,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
@@ -3974,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
@@ -4028,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>51</v>
       </c>
@@ -4082,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -4190,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -4244,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -4298,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -4352,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -4460,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -4514,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -4568,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -4622,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -4676,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -4730,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -4945,6 +4965,6229 @@
       <c r="Q79" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>24</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" ref="G80" si="4">SUM(E80:F80)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>8</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>24</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" ref="G81:G86" si="5">SUM(E81:F81)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>7</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>24</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>29</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1">
+        <v>29</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>4</v>
+      </c>
+      <c r="K85" s="1">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>29</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>3</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="195" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+    </row>
+    <row r="196" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+    </row>
+    <row r="197" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+    </row>
+    <row r="198" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+    </row>
+    <row r="199" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+    </row>
+    <row r="200" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+    </row>
+    <row r="201" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+    </row>
+    <row r="202" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+    </row>
+    <row r="203" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+    </row>
+    <row r="204" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+    </row>
+    <row r="205" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+    </row>
+    <row r="206" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+    </row>
+    <row r="207" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+    </row>
+    <row r="208" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+    </row>
+    <row r="209" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+    </row>
+    <row r="210" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+    </row>
+    <row r="211" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+    </row>
+    <row r="212" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+    </row>
+    <row r="218" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+    </row>
+    <row r="219" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+    </row>
+    <row r="220" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+    </row>
+    <row r="221" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+    </row>
+    <row r="222" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+    </row>
+    <row r="223" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+    </row>
+    <row r="224" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+    </row>
+    <row r="225" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+    </row>
+    <row r="226" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+    </row>
+    <row r="227" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+    </row>
+    <row r="228" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+    </row>
+    <row r="229" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+    </row>
+    <row r="230" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+    </row>
+    <row r="231" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+    </row>
+    <row r="232" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+    </row>
+    <row r="233" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+    </row>
+    <row r="234" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+    </row>
+    <row r="235" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+    </row>
+    <row r="236" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+    </row>
+    <row r="237" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+    </row>
+    <row r="238" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+    </row>
+    <row r="239" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+    </row>
+    <row r="240" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+    </row>
+    <row r="241" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+    </row>
+    <row r="242" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+    </row>
+    <row r="243" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+    </row>
+    <row r="245" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+    </row>
+    <row r="246" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+    </row>
+    <row r="247" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+    </row>
+    <row r="248" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+    </row>
+    <row r="249" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+    </row>
+    <row r="250" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+    </row>
+    <row r="251" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+    </row>
+    <row r="252" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+    </row>
+    <row r="253" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+    </row>
+    <row r="255" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+    </row>
+    <row r="256" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+    </row>
+    <row r="257" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+    </row>
+    <row r="258" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+    </row>
+    <row r="259" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+    </row>
+    <row r="260" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+    </row>
+    <row r="261" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+    </row>
+    <row r="262" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+    </row>
+    <row r="263" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+    </row>
+    <row r="264" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+    </row>
+    <row r="265" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+    </row>
+    <row r="266" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+    </row>
+    <row r="267" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+    </row>
+    <row r="268" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+    </row>
+    <row r="269" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+    </row>
+    <row r="270" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+    </row>
+    <row r="271" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+    </row>
+    <row r="272" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+    </row>
+    <row r="274" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+    </row>
+    <row r="275" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
+    </row>
+    <row r="276" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
+    </row>
+    <row r="277" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="1"/>
+    </row>
+    <row r="278" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+    </row>
+    <row r="279" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+    </row>
+    <row r="280" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+    </row>
+    <row r="281" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+    </row>
+    <row r="282" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+    </row>
+    <row r="284" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+    </row>
+    <row r="285" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+    </row>
+    <row r="286" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+    </row>
+    <row r="287" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+    </row>
+    <row r="288" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+    </row>
+    <row r="289" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+    </row>
+    <row r="290" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+    </row>
+    <row r="291" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+    </row>
+    <row r="292" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+    </row>
+    <row r="293" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+    </row>
+    <row r="294" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+    </row>
+    <row r="295" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+    </row>
+    <row r="296" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+    </row>
+    <row r="297" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+    </row>
+    <row r="298" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+    </row>
+    <row r="299" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+    </row>
+    <row r="300" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+    </row>
+    <row r="301" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+    </row>
+    <row r="302" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
+    </row>
+    <row r="303" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+    </row>
+    <row r="304" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
+    </row>
+    <row r="305" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+    </row>
+    <row r="306" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
+    </row>
+    <row r="307" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+    </row>
+    <row r="308" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+    </row>
+    <row r="309" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
+    </row>
+    <row r="310" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M310" s="1"/>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+    </row>
+    <row r="311" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M311" s="1"/>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+    </row>
+    <row r="312" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
+    </row>
+    <row r="313" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+    </row>
+    <row r="314" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+      <c r="P314" s="1"/>
+      <c r="Q314" s="1"/>
+    </row>
+    <row r="315" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
+    </row>
+    <row r="316" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M316" s="1"/>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+      <c r="P316" s="1"/>
+      <c r="Q316" s="1"/>
+    </row>
+    <row r="317" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M317" s="1"/>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+      <c r="P317" s="1"/>
+      <c r="Q317" s="1"/>
+    </row>
+    <row r="318" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+      <c r="P318" s="1"/>
+      <c r="Q318" s="1"/>
+    </row>
+    <row r="319" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M319" s="1"/>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+      <c r="P319" s="1"/>
+      <c r="Q319" s="1"/>
+    </row>
+    <row r="320" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M320" s="1"/>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+      <c r="P320" s="1"/>
+      <c r="Q320" s="1"/>
+    </row>
+    <row r="321" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M321" s="1"/>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="1"/>
+      <c r="Q321" s="1"/>
+    </row>
+    <row r="322" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+      <c r="P322" s="1"/>
+      <c r="Q322" s="1"/>
+    </row>
+    <row r="323" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+      <c r="P323" s="1"/>
+      <c r="Q323" s="1"/>
+    </row>
+    <row r="324" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M324" s="1"/>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+      <c r="P324" s="1"/>
+      <c r="Q324" s="1"/>
+    </row>
+    <row r="325" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
+    </row>
+    <row r="326" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+      <c r="P326" s="1"/>
+      <c r="Q326" s="1"/>
+    </row>
+    <row r="327" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M327" s="1"/>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+      <c r="P327" s="1"/>
+      <c r="Q327" s="1"/>
+    </row>
+    <row r="328" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M328" s="1"/>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+      <c r="P328" s="1"/>
+      <c r="Q328" s="1"/>
+    </row>
+    <row r="329" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M329" s="1"/>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+      <c r="P329" s="1"/>
+      <c r="Q329" s="1"/>
+    </row>
+    <row r="330" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M330" s="1"/>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+      <c r="P330" s="1"/>
+      <c r="Q330" s="1"/>
+    </row>
+    <row r="331" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M331" s="1"/>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+      <c r="P331" s="1"/>
+      <c r="Q331" s="1"/>
+    </row>
+    <row r="332" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M332" s="1"/>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+      <c r="P332" s="1"/>
+      <c r="Q332" s="1"/>
+    </row>
+    <row r="333" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+      <c r="P333" s="1"/>
+      <c r="Q333" s="1"/>
+    </row>
+    <row r="334" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+      <c r="P334" s="1"/>
+      <c r="Q334" s="1"/>
+    </row>
+    <row r="335" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+      <c r="P335" s="1"/>
+      <c r="Q335" s="1"/>
+    </row>
+    <row r="336" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+      <c r="P336" s="1"/>
+      <c r="Q336" s="1"/>
+    </row>
+    <row r="337" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+      <c r="P337" s="1"/>
+      <c r="Q337" s="1"/>
+    </row>
+    <row r="338" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M338" s="1"/>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+      <c r="P338" s="1"/>
+      <c r="Q338" s="1"/>
+    </row>
+    <row r="339" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+      <c r="P339" s="1"/>
+      <c r="Q339" s="1"/>
+    </row>
+    <row r="340" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+      <c r="P340" s="1"/>
+      <c r="Q340" s="1"/>
+    </row>
+    <row r="341" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M341" s="1"/>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="1"/>
+      <c r="Q341" s="1"/>
+    </row>
+    <row r="342" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M342" s="1"/>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+      <c r="P342" s="1"/>
+      <c r="Q342" s="1"/>
+    </row>
+    <row r="343" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M343" s="1"/>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+      <c r="P343" s="1"/>
+      <c r="Q343" s="1"/>
+    </row>
+    <row r="344" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M344" s="1"/>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+      <c r="P344" s="1"/>
+      <c r="Q344" s="1"/>
+    </row>
+    <row r="345" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="1"/>
+      <c r="Q345" s="1"/>
+    </row>
+    <row r="346" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M346" s="1"/>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+      <c r="P346" s="1"/>
+      <c r="Q346" s="1"/>
+    </row>
+    <row r="347" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M347" s="1"/>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+      <c r="P347" s="1"/>
+      <c r="Q347" s="1"/>
+    </row>
+    <row r="348" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M348" s="1"/>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+      <c r="P348" s="1"/>
+      <c r="Q348" s="1"/>
+    </row>
+    <row r="349" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M349" s="1"/>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="1"/>
+      <c r="Q349" s="1"/>
+    </row>
+    <row r="350" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M350" s="1"/>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+      <c r="P350" s="1"/>
+      <c r="Q350" s="1"/>
+    </row>
+    <row r="351" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
+    </row>
+    <row r="352" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+      <c r="P352" s="1"/>
+      <c r="Q352" s="1"/>
+    </row>
+    <row r="353" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M353" s="1"/>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="1"/>
+      <c r="Q353" s="1"/>
+    </row>
+    <row r="354" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+    </row>
+    <row r="355" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M355" s="1"/>
+      <c r="N355" s="1"/>
+      <c r="O355" s="1"/>
+      <c r="P355" s="1"/>
+      <c r="Q355" s="1"/>
+    </row>
+    <row r="356" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M356" s="1"/>
+      <c r="N356" s="1"/>
+      <c r="O356" s="1"/>
+      <c r="P356" s="1"/>
+      <c r="Q356" s="1"/>
+    </row>
+    <row r="357" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+    </row>
+    <row r="358" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M358" s="1"/>
+      <c r="N358" s="1"/>
+      <c r="O358" s="1"/>
+      <c r="P358" s="1"/>
+      <c r="Q358" s="1"/>
+    </row>
+    <row r="359" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M359" s="1"/>
+      <c r="N359" s="1"/>
+      <c r="O359" s="1"/>
+      <c r="P359" s="1"/>
+      <c r="Q359" s="1"/>
+    </row>
+    <row r="360" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+      <c r="P360" s="1"/>
+      <c r="Q360" s="1"/>
+    </row>
+    <row r="361" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+      <c r="P361" s="1"/>
+      <c r="Q361" s="1"/>
+    </row>
+    <row r="362" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+      <c r="P362" s="1"/>
+      <c r="Q362" s="1"/>
+    </row>
+    <row r="363" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+      <c r="P363" s="1"/>
+      <c r="Q363" s="1"/>
+    </row>
+    <row r="364" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+      <c r="P364" s="1"/>
+      <c r="Q364" s="1"/>
+    </row>
+    <row r="365" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M365" s="1"/>
+      <c r="N365" s="1"/>
+      <c r="O365" s="1"/>
+      <c r="P365" s="1"/>
+      <c r="Q365" s="1"/>
+    </row>
+    <row r="366" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M366" s="1"/>
+      <c r="N366" s="1"/>
+      <c r="O366" s="1"/>
+      <c r="P366" s="1"/>
+      <c r="Q366" s="1"/>
+    </row>
+    <row r="367" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M367" s="1"/>
+      <c r="N367" s="1"/>
+      <c r="O367" s="1"/>
+      <c r="P367" s="1"/>
+      <c r="Q367" s="1"/>
+    </row>
+    <row r="368" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M368" s="1"/>
+      <c r="N368" s="1"/>
+      <c r="O368" s="1"/>
+      <c r="P368" s="1"/>
+      <c r="Q368" s="1"/>
+    </row>
+    <row r="369" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M369" s="1"/>
+      <c r="N369" s="1"/>
+      <c r="O369" s="1"/>
+      <c r="P369" s="1"/>
+      <c r="Q369" s="1"/>
+    </row>
+    <row r="370" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M370" s="1"/>
+      <c r="N370" s="1"/>
+      <c r="O370" s="1"/>
+      <c r="P370" s="1"/>
+      <c r="Q370" s="1"/>
+    </row>
+    <row r="371" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M371" s="1"/>
+      <c r="N371" s="1"/>
+      <c r="O371" s="1"/>
+      <c r="P371" s="1"/>
+      <c r="Q371" s="1"/>
+    </row>
+    <row r="372" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
+    </row>
+    <row r="373" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
+    </row>
+    <row r="374" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="P374" s="1"/>
+      <c r="Q374" s="1"/>
+    </row>
+    <row r="375" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="P375" s="1"/>
+      <c r="Q375" s="1"/>
+    </row>
+    <row r="376" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="P376" s="1"/>
+      <c r="Q376" s="1"/>
+    </row>
+    <row r="377" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="1"/>
+      <c r="Q377" s="1"/>
+    </row>
+    <row r="378" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+    </row>
+    <row r="379" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="P379" s="1"/>
+      <c r="Q379" s="1"/>
+    </row>
+    <row r="380" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+    </row>
+    <row r="381" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M381" s="1"/>
+      <c r="N381" s="1"/>
+      <c r="O381" s="1"/>
+      <c r="P381" s="1"/>
+      <c r="Q381" s="1"/>
+    </row>
+    <row r="382" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M382" s="1"/>
+      <c r="N382" s="1"/>
+      <c r="O382" s="1"/>
+      <c r="P382" s="1"/>
+      <c r="Q382" s="1"/>
+    </row>
+    <row r="383" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+    </row>
+    <row r="384" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M384" s="1"/>
+      <c r="N384" s="1"/>
+      <c r="O384" s="1"/>
+      <c r="P384" s="1"/>
+      <c r="Q384" s="1"/>
+    </row>
+    <row r="385" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+      <c r="P385" s="1"/>
+      <c r="Q385" s="1"/>
+    </row>
+    <row r="386" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
+      <c r="O386" s="1"/>
+      <c r="P386" s="1"/>
+      <c r="Q386" s="1"/>
+    </row>
+    <row r="387" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+      <c r="P387" s="1"/>
+      <c r="Q387" s="1"/>
+    </row>
+    <row r="388" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="P388" s="1"/>
+      <c r="Q388" s="1"/>
+    </row>
+    <row r="389" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M389" s="1"/>
+      <c r="N389" s="1"/>
+      <c r="O389" s="1"/>
+      <c r="P389" s="1"/>
+      <c r="Q389" s="1"/>
+    </row>
+    <row r="390" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M390" s="1"/>
+      <c r="N390" s="1"/>
+      <c r="O390" s="1"/>
+      <c r="P390" s="1"/>
+      <c r="Q390" s="1"/>
+    </row>
+    <row r="391" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+      <c r="P391" s="1"/>
+      <c r="Q391" s="1"/>
+    </row>
+    <row r="392" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+      <c r="P392" s="1"/>
+      <c r="Q392" s="1"/>
+    </row>
+    <row r="393" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+    </row>
+    <row r="394" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M394" s="1"/>
+      <c r="N394" s="1"/>
+      <c r="O394" s="1"/>
+      <c r="P394" s="1"/>
+      <c r="Q394" s="1"/>
+    </row>
+    <row r="395" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M395" s="1"/>
+      <c r="N395" s="1"/>
+      <c r="O395" s="1"/>
+      <c r="P395" s="1"/>
+      <c r="Q395" s="1"/>
+    </row>
+    <row r="396" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M396" s="1"/>
+      <c r="N396" s="1"/>
+      <c r="O396" s="1"/>
+      <c r="P396" s="1"/>
+      <c r="Q396" s="1"/>
+    </row>
+    <row r="397" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M397" s="1"/>
+      <c r="N397" s="1"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="1"/>
+      <c r="Q397" s="1"/>
+    </row>
+    <row r="398" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M398" s="1"/>
+      <c r="N398" s="1"/>
+      <c r="O398" s="1"/>
+      <c r="P398" s="1"/>
+      <c r="Q398" s="1"/>
+    </row>
+    <row r="399" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M399" s="1"/>
+      <c r="N399" s="1"/>
+      <c r="O399" s="1"/>
+      <c r="P399" s="1"/>
+      <c r="Q399" s="1"/>
+    </row>
+    <row r="400" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="P400" s="1"/>
+      <c r="Q400" s="1"/>
+    </row>
+    <row r="401" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="1"/>
+      <c r="Q401" s="1"/>
+    </row>
+    <row r="402" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+      <c r="Q402" s="1"/>
+    </row>
+    <row r="403" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+    </row>
+    <row r="404" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M404" s="1"/>
+      <c r="N404" s="1"/>
+      <c r="O404" s="1"/>
+      <c r="P404" s="1"/>
+      <c r="Q404" s="1"/>
+    </row>
+    <row r="405" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+      <c r="P405" s="1"/>
+      <c r="Q405" s="1"/>
+    </row>
+    <row r="406" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+      <c r="Q406" s="1"/>
+    </row>
+    <row r="407" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+      <c r="Q407" s="1"/>
+    </row>
+    <row r="408" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="P408" s="1"/>
+      <c r="Q408" s="1"/>
+    </row>
+    <row r="409" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+    </row>
+    <row r="410" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="P410" s="1"/>
+      <c r="Q410" s="1"/>
+    </row>
+    <row r="411" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M411" s="1"/>
+      <c r="N411" s="1"/>
+      <c r="O411" s="1"/>
+      <c r="P411" s="1"/>
+      <c r="Q411" s="1"/>
+    </row>
+    <row r="412" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+      <c r="Q412" s="1"/>
+    </row>
+    <row r="413" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M413" s="1"/>
+      <c r="N413" s="1"/>
+      <c r="O413" s="1"/>
+      <c r="P413" s="1"/>
+      <c r="Q413" s="1"/>
+    </row>
+    <row r="414" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M414" s="1"/>
+      <c r="N414" s="1"/>
+      <c r="O414" s="1"/>
+      <c r="P414" s="1"/>
+      <c r="Q414" s="1"/>
+    </row>
+    <row r="415" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="P415" s="1"/>
+      <c r="Q415" s="1"/>
+    </row>
+    <row r="416" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
+      <c r="Q416" s="1"/>
+    </row>
+    <row r="417" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M417" s="1"/>
+      <c r="N417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="P417" s="1"/>
+      <c r="Q417" s="1"/>
+    </row>
+    <row r="418" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+      <c r="Q418" s="1"/>
+    </row>
+    <row r="419" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M419" s="1"/>
+      <c r="N419" s="1"/>
+      <c r="O419" s="1"/>
+      <c r="P419" s="1"/>
+      <c r="Q419" s="1"/>
+    </row>
+    <row r="420" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M420" s="1"/>
+      <c r="N420" s="1"/>
+      <c r="O420" s="1"/>
+      <c r="P420" s="1"/>
+      <c r="Q420" s="1"/>
+    </row>
+    <row r="421" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M421" s="1"/>
+      <c r="N421" s="1"/>
+      <c r="O421" s="1"/>
+      <c r="P421" s="1"/>
+      <c r="Q421" s="1"/>
+    </row>
+    <row r="422" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M422" s="1"/>
+      <c r="N422" s="1"/>
+      <c r="O422" s="1"/>
+      <c r="P422" s="1"/>
+      <c r="Q422" s="1"/>
+    </row>
+    <row r="423" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M423" s="1"/>
+      <c r="N423" s="1"/>
+      <c r="O423" s="1"/>
+      <c r="P423" s="1"/>
+      <c r="Q423" s="1"/>
+    </row>
+    <row r="424" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M424" s="1"/>
+      <c r="N424" s="1"/>
+      <c r="O424" s="1"/>
+      <c r="P424" s="1"/>
+      <c r="Q424" s="1"/>
+    </row>
+    <row r="425" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M425" s="1"/>
+      <c r="N425" s="1"/>
+      <c r="O425" s="1"/>
+      <c r="P425" s="1"/>
+      <c r="Q425" s="1"/>
+    </row>
+    <row r="426" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M426" s="1"/>
+      <c r="N426" s="1"/>
+      <c r="O426" s="1"/>
+      <c r="P426" s="1"/>
+      <c r="Q426" s="1"/>
+    </row>
+    <row r="427" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M427" s="1"/>
+      <c r="N427" s="1"/>
+      <c r="O427" s="1"/>
+      <c r="P427" s="1"/>
+      <c r="Q427" s="1"/>
+    </row>
+    <row r="428" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M428" s="1"/>
+      <c r="N428" s="1"/>
+      <c r="O428" s="1"/>
+      <c r="P428" s="1"/>
+      <c r="Q428" s="1"/>
+    </row>
+    <row r="429" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M429" s="1"/>
+      <c r="N429" s="1"/>
+      <c r="O429" s="1"/>
+      <c r="P429" s="1"/>
+      <c r="Q429" s="1"/>
+    </row>
+    <row r="430" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
+      <c r="O430" s="1"/>
+      <c r="P430" s="1"/>
+      <c r="Q430" s="1"/>
+    </row>
+    <row r="431" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
+      <c r="O431" s="1"/>
+      <c r="P431" s="1"/>
+      <c r="Q431" s="1"/>
+    </row>
+    <row r="432" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M432" s="1"/>
+      <c r="N432" s="1"/>
+      <c r="O432" s="1"/>
+      <c r="P432" s="1"/>
+      <c r="Q432" s="1"/>
+    </row>
+    <row r="433" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M433" s="1"/>
+      <c r="N433" s="1"/>
+      <c r="O433" s="1"/>
+      <c r="P433" s="1"/>
+      <c r="Q433" s="1"/>
+    </row>
+    <row r="434" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M434" s="1"/>
+      <c r="N434" s="1"/>
+      <c r="O434" s="1"/>
+      <c r="P434" s="1"/>
+      <c r="Q434" s="1"/>
+    </row>
+    <row r="435" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M435" s="1"/>
+      <c r="N435" s="1"/>
+      <c r="O435" s="1"/>
+      <c r="P435" s="1"/>
+      <c r="Q435" s="1"/>
+    </row>
+    <row r="436" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M436" s="1"/>
+      <c r="N436" s="1"/>
+      <c r="O436" s="1"/>
+      <c r="P436" s="1"/>
+      <c r="Q436" s="1"/>
+    </row>
+    <row r="437" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M437" s="1"/>
+      <c r="N437" s="1"/>
+      <c r="O437" s="1"/>
+      <c r="P437" s="1"/>
+      <c r="Q437" s="1"/>
+    </row>
+    <row r="438" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M438" s="1"/>
+      <c r="N438" s="1"/>
+      <c r="O438" s="1"/>
+      <c r="P438" s="1"/>
+      <c r="Q438" s="1"/>
+    </row>
+    <row r="439" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M439" s="1"/>
+      <c r="N439" s="1"/>
+      <c r="O439" s="1"/>
+      <c r="P439" s="1"/>
+      <c r="Q439" s="1"/>
+    </row>
+    <row r="440" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
+      <c r="O440" s="1"/>
+      <c r="P440" s="1"/>
+      <c r="Q440" s="1"/>
+    </row>
+    <row r="441" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M441" s="1"/>
+      <c r="N441" s="1"/>
+      <c r="O441" s="1"/>
+      <c r="P441" s="1"/>
+      <c r="Q441" s="1"/>
+    </row>
+    <row r="442" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
+      <c r="O442" s="1"/>
+      <c r="P442" s="1"/>
+      <c r="Q442" s="1"/>
+    </row>
+    <row r="443" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M443" s="1"/>
+      <c r="N443" s="1"/>
+      <c r="O443" s="1"/>
+      <c r="P443" s="1"/>
+      <c r="Q443" s="1"/>
+    </row>
+    <row r="444" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M444" s="1"/>
+      <c r="N444" s="1"/>
+      <c r="O444" s="1"/>
+      <c r="P444" s="1"/>
+      <c r="Q444" s="1"/>
+    </row>
+    <row r="445" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M445" s="1"/>
+      <c r="N445" s="1"/>
+      <c r="O445" s="1"/>
+      <c r="P445" s="1"/>
+      <c r="Q445" s="1"/>
+    </row>
+    <row r="446" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M446" s="1"/>
+      <c r="N446" s="1"/>
+      <c r="O446" s="1"/>
+      <c r="P446" s="1"/>
+      <c r="Q446" s="1"/>
+    </row>
+    <row r="447" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M447" s="1"/>
+      <c r="N447" s="1"/>
+      <c r="O447" s="1"/>
+      <c r="P447" s="1"/>
+      <c r="Q447" s="1"/>
+    </row>
+    <row r="448" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M448" s="1"/>
+      <c r="N448" s="1"/>
+      <c r="O448" s="1"/>
+      <c r="P448" s="1"/>
+      <c r="Q448" s="1"/>
+    </row>
+    <row r="449" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M449" s="1"/>
+      <c r="N449" s="1"/>
+      <c r="O449" s="1"/>
+      <c r="P449" s="1"/>
+      <c r="Q449" s="1"/>
+    </row>
+    <row r="450" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M450" s="1"/>
+      <c r="N450" s="1"/>
+      <c r="O450" s="1"/>
+      <c r="P450" s="1"/>
+      <c r="Q450" s="1"/>
+    </row>
+    <row r="451" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M451" s="1"/>
+      <c r="N451" s="1"/>
+      <c r="O451" s="1"/>
+      <c r="P451" s="1"/>
+      <c r="Q451" s="1"/>
+    </row>
+    <row r="452" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M452" s="1"/>
+      <c r="N452" s="1"/>
+      <c r="O452" s="1"/>
+      <c r="P452" s="1"/>
+      <c r="Q452" s="1"/>
+    </row>
+    <row r="453" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M453" s="1"/>
+      <c r="N453" s="1"/>
+      <c r="O453" s="1"/>
+      <c r="P453" s="1"/>
+      <c r="Q453" s="1"/>
+    </row>
+    <row r="454" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M454" s="1"/>
+      <c r="N454" s="1"/>
+      <c r="O454" s="1"/>
+      <c r="P454" s="1"/>
+      <c r="Q454" s="1"/>
+    </row>
+    <row r="455" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M455" s="1"/>
+      <c r="N455" s="1"/>
+      <c r="O455" s="1"/>
+      <c r="P455" s="1"/>
+      <c r="Q455" s="1"/>
+    </row>
+    <row r="456" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M456" s="1"/>
+      <c r="N456" s="1"/>
+      <c r="O456" s="1"/>
+      <c r="P456" s="1"/>
+      <c r="Q456" s="1"/>
+    </row>
+    <row r="457" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M457" s="1"/>
+      <c r="N457" s="1"/>
+      <c r="O457" s="1"/>
+      <c r="P457" s="1"/>
+      <c r="Q457" s="1"/>
+    </row>
+    <row r="458" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
+      <c r="O458" s="1"/>
+      <c r="P458" s="1"/>
+      <c r="Q458" s="1"/>
+    </row>
+    <row r="459" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M459" s="1"/>
+      <c r="N459" s="1"/>
+      <c r="O459" s="1"/>
+      <c r="P459" s="1"/>
+      <c r="Q459" s="1"/>
+    </row>
+    <row r="460" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M460" s="1"/>
+      <c r="N460" s="1"/>
+      <c r="O460" s="1"/>
+      <c r="P460" s="1"/>
+      <c r="Q460" s="1"/>
+    </row>
+    <row r="461" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M461" s="1"/>
+      <c r="N461" s="1"/>
+      <c r="O461" s="1"/>
+      <c r="P461" s="1"/>
+      <c r="Q461" s="1"/>
+    </row>
+    <row r="462" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M462" s="1"/>
+      <c r="N462" s="1"/>
+      <c r="O462" s="1"/>
+      <c r="P462" s="1"/>
+      <c r="Q462" s="1"/>
+    </row>
+    <row r="463" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M463" s="1"/>
+      <c r="N463" s="1"/>
+      <c r="O463" s="1"/>
+      <c r="P463" s="1"/>
+      <c r="Q463" s="1"/>
+    </row>
+    <row r="464" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M464" s="1"/>
+      <c r="N464" s="1"/>
+      <c r="O464" s="1"/>
+      <c r="P464" s="1"/>
+      <c r="Q464" s="1"/>
+    </row>
+    <row r="465" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M465" s="1"/>
+      <c r="N465" s="1"/>
+      <c r="O465" s="1"/>
+      <c r="P465" s="1"/>
+      <c r="Q465" s="1"/>
+    </row>
+    <row r="466" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M466" s="1"/>
+      <c r="N466" s="1"/>
+      <c r="O466" s="1"/>
+      <c r="P466" s="1"/>
+      <c r="Q466" s="1"/>
+    </row>
+    <row r="467" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M467" s="1"/>
+      <c r="N467" s="1"/>
+      <c r="O467" s="1"/>
+      <c r="P467" s="1"/>
+      <c r="Q467" s="1"/>
+    </row>
+    <row r="468" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M468" s="1"/>
+      <c r="N468" s="1"/>
+      <c r="O468" s="1"/>
+      <c r="P468" s="1"/>
+      <c r="Q468" s="1"/>
+    </row>
+    <row r="469" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M469" s="1"/>
+      <c r="N469" s="1"/>
+      <c r="O469" s="1"/>
+      <c r="P469" s="1"/>
+      <c r="Q469" s="1"/>
+    </row>
+    <row r="470" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M470" s="1"/>
+      <c r="N470" s="1"/>
+      <c r="O470" s="1"/>
+      <c r="P470" s="1"/>
+      <c r="Q470" s="1"/>
+    </row>
+    <row r="471" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M471" s="1"/>
+      <c r="N471" s="1"/>
+      <c r="O471" s="1"/>
+      <c r="P471" s="1"/>
+      <c r="Q471" s="1"/>
+    </row>
+    <row r="472" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M472" s="1"/>
+      <c r="N472" s="1"/>
+      <c r="O472" s="1"/>
+      <c r="P472" s="1"/>
+      <c r="Q472" s="1"/>
+    </row>
+    <row r="473" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M473" s="1"/>
+      <c r="N473" s="1"/>
+      <c r="O473" s="1"/>
+      <c r="P473" s="1"/>
+      <c r="Q473" s="1"/>
+    </row>
+    <row r="474" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
+      <c r="O474" s="1"/>
+      <c r="P474" s="1"/>
+      <c r="Q474" s="1"/>
+    </row>
+    <row r="475" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M475" s="1"/>
+      <c r="N475" s="1"/>
+      <c r="O475" s="1"/>
+      <c r="P475" s="1"/>
+      <c r="Q475" s="1"/>
+    </row>
+    <row r="476" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M476" s="1"/>
+      <c r="N476" s="1"/>
+      <c r="O476" s="1"/>
+      <c r="P476" s="1"/>
+      <c r="Q476" s="1"/>
+    </row>
+    <row r="477" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M477" s="1"/>
+      <c r="N477" s="1"/>
+      <c r="O477" s="1"/>
+      <c r="P477" s="1"/>
+      <c r="Q477" s="1"/>
+    </row>
+    <row r="478" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M478" s="1"/>
+      <c r="N478" s="1"/>
+      <c r="O478" s="1"/>
+      <c r="P478" s="1"/>
+      <c r="Q478" s="1"/>
+    </row>
+    <row r="479" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M479" s="1"/>
+      <c r="N479" s="1"/>
+      <c r="O479" s="1"/>
+      <c r="P479" s="1"/>
+      <c r="Q479" s="1"/>
+    </row>
+    <row r="480" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M480" s="1"/>
+      <c r="N480" s="1"/>
+      <c r="O480" s="1"/>
+      <c r="P480" s="1"/>
+      <c r="Q480" s="1"/>
+    </row>
+    <row r="481" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M481" s="1"/>
+      <c r="N481" s="1"/>
+      <c r="O481" s="1"/>
+      <c r="P481" s="1"/>
+      <c r="Q481" s="1"/>
+    </row>
+    <row r="482" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
+      <c r="O482" s="1"/>
+      <c r="P482" s="1"/>
+      <c r="Q482" s="1"/>
+    </row>
+    <row r="483" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M483" s="1"/>
+      <c r="N483" s="1"/>
+      <c r="O483" s="1"/>
+      <c r="P483" s="1"/>
+      <c r="Q483" s="1"/>
+    </row>
+    <row r="484" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M484" s="1"/>
+      <c r="N484" s="1"/>
+      <c r="O484" s="1"/>
+      <c r="P484" s="1"/>
+      <c r="Q484" s="1"/>
+    </row>
+    <row r="485" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M485" s="1"/>
+      <c r="N485" s="1"/>
+      <c r="O485" s="1"/>
+      <c r="P485" s="1"/>
+      <c r="Q485" s="1"/>
+    </row>
+    <row r="486" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M486" s="1"/>
+      <c r="N486" s="1"/>
+      <c r="O486" s="1"/>
+      <c r="P486" s="1"/>
+      <c r="Q486" s="1"/>
+    </row>
+    <row r="487" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M487" s="1"/>
+      <c r="N487" s="1"/>
+      <c r="O487" s="1"/>
+      <c r="P487" s="1"/>
+      <c r="Q487" s="1"/>
+    </row>
+    <row r="488" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M488" s="1"/>
+      <c r="N488" s="1"/>
+      <c r="O488" s="1"/>
+      <c r="P488" s="1"/>
+      <c r="Q488" s="1"/>
+    </row>
+    <row r="489" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M489" s="1"/>
+      <c r="N489" s="1"/>
+      <c r="O489" s="1"/>
+      <c r="P489" s="1"/>
+      <c r="Q489" s="1"/>
+    </row>
+    <row r="490" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M490" s="1"/>
+      <c r="N490" s="1"/>
+      <c r="O490" s="1"/>
+      <c r="P490" s="1"/>
+      <c r="Q490" s="1"/>
+    </row>
+    <row r="491" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M491" s="1"/>
+      <c r="N491" s="1"/>
+      <c r="O491" s="1"/>
+      <c r="P491" s="1"/>
+      <c r="Q491" s="1"/>
+    </row>
+    <row r="492" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M492" s="1"/>
+      <c r="N492" s="1"/>
+      <c r="O492" s="1"/>
+      <c r="P492" s="1"/>
+      <c r="Q492" s="1"/>
+    </row>
+    <row r="493" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M493" s="1"/>
+      <c r="N493" s="1"/>
+      <c r="O493" s="1"/>
+      <c r="P493" s="1"/>
+      <c r="Q493" s="1"/>
+    </row>
+    <row r="494" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M494" s="1"/>
+      <c r="N494" s="1"/>
+      <c r="O494" s="1"/>
+      <c r="P494" s="1"/>
+      <c r="Q494" s="1"/>
+    </row>
+    <row r="495" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
+      <c r="O495" s="1"/>
+      <c r="P495" s="1"/>
+      <c r="Q495" s="1"/>
+    </row>
+    <row r="496" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M496" s="1"/>
+      <c r="N496" s="1"/>
+      <c r="O496" s="1"/>
+      <c r="P496" s="1"/>
+      <c r="Q496" s="1"/>
+    </row>
+    <row r="497" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M497" s="1"/>
+      <c r="N497" s="1"/>
+      <c r="O497" s="1"/>
+      <c r="P497" s="1"/>
+      <c r="Q497" s="1"/>
+    </row>
+    <row r="498" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="P498" s="1"/>
+      <c r="Q498" s="1"/>
+    </row>
+    <row r="499" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M499" s="1"/>
+      <c r="N499" s="1"/>
+      <c r="O499" s="1"/>
+      <c r="P499" s="1"/>
+      <c r="Q499" s="1"/>
+    </row>
+    <row r="500" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M500" s="1"/>
+      <c r="N500" s="1"/>
+      <c r="O500" s="1"/>
+      <c r="P500" s="1"/>
+      <c r="Q500" s="1"/>
+    </row>
+    <row r="501" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M501" s="1"/>
+      <c r="N501" s="1"/>
+      <c r="O501" s="1"/>
+      <c r="P501" s="1"/>
+      <c r="Q501" s="1"/>
+    </row>
+    <row r="502" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M502" s="1"/>
+      <c r="N502" s="1"/>
+      <c r="O502" s="1"/>
+      <c r="P502" s="1"/>
+      <c r="Q502" s="1"/>
+    </row>
+    <row r="503" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M503" s="1"/>
+      <c r="N503" s="1"/>
+      <c r="O503" s="1"/>
+      <c r="P503" s="1"/>
+      <c r="Q503" s="1"/>
+    </row>
+    <row r="504" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M504" s="1"/>
+      <c r="N504" s="1"/>
+      <c r="O504" s="1"/>
+      <c r="P504" s="1"/>
+      <c r="Q504" s="1"/>
+    </row>
+    <row r="505" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M505" s="1"/>
+      <c r="N505" s="1"/>
+      <c r="O505" s="1"/>
+      <c r="P505" s="1"/>
+      <c r="Q505" s="1"/>
+    </row>
+    <row r="506" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M506" s="1"/>
+      <c r="N506" s="1"/>
+      <c r="O506" s="1"/>
+      <c r="P506" s="1"/>
+      <c r="Q506" s="1"/>
+    </row>
+    <row r="507" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M507" s="1"/>
+      <c r="N507" s="1"/>
+      <c r="O507" s="1"/>
+      <c r="P507" s="1"/>
+      <c r="Q507" s="1"/>
+    </row>
+    <row r="508" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M508" s="1"/>
+      <c r="N508" s="1"/>
+      <c r="O508" s="1"/>
+      <c r="P508" s="1"/>
+      <c r="Q508" s="1"/>
+    </row>
+    <row r="509" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M509" s="1"/>
+      <c r="N509" s="1"/>
+      <c r="O509" s="1"/>
+      <c r="P509" s="1"/>
+      <c r="Q509" s="1"/>
+    </row>
+    <row r="510" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M510" s="1"/>
+      <c r="N510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="P510" s="1"/>
+      <c r="Q510" s="1"/>
+    </row>
+    <row r="511" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M511" s="1"/>
+      <c r="N511" s="1"/>
+      <c r="O511" s="1"/>
+      <c r="P511" s="1"/>
+      <c r="Q511" s="1"/>
+    </row>
+    <row r="512" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M512" s="1"/>
+      <c r="N512" s="1"/>
+      <c r="O512" s="1"/>
+      <c r="P512" s="1"/>
+      <c r="Q512" s="1"/>
+    </row>
+    <row r="513" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M513" s="1"/>
+      <c r="N513" s="1"/>
+      <c r="O513" s="1"/>
+      <c r="P513" s="1"/>
+      <c r="Q513" s="1"/>
+    </row>
+    <row r="514" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M514" s="1"/>
+      <c r="N514" s="1"/>
+      <c r="O514" s="1"/>
+      <c r="P514" s="1"/>
+      <c r="Q514" s="1"/>
+    </row>
+    <row r="515" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M515" s="1"/>
+      <c r="N515" s="1"/>
+      <c r="O515" s="1"/>
+      <c r="P515" s="1"/>
+      <c r="Q515" s="1"/>
+    </row>
+    <row r="516" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M516" s="1"/>
+      <c r="N516" s="1"/>
+      <c r="O516" s="1"/>
+      <c r="P516" s="1"/>
+      <c r="Q516" s="1"/>
+    </row>
+    <row r="517" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M517" s="1"/>
+      <c r="N517" s="1"/>
+      <c r="O517" s="1"/>
+      <c r="P517" s="1"/>
+      <c r="Q517" s="1"/>
+    </row>
+    <row r="518" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M518" s="1"/>
+      <c r="N518" s="1"/>
+      <c r="O518" s="1"/>
+      <c r="P518" s="1"/>
+      <c r="Q518" s="1"/>
+    </row>
+    <row r="519" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M519" s="1"/>
+      <c r="N519" s="1"/>
+      <c r="O519" s="1"/>
+      <c r="P519" s="1"/>
+      <c r="Q519" s="1"/>
+    </row>
+    <row r="520" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M520" s="1"/>
+      <c r="N520" s="1"/>
+      <c r="O520" s="1"/>
+      <c r="P520" s="1"/>
+      <c r="Q520" s="1"/>
+    </row>
+    <row r="521" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M521" s="1"/>
+      <c r="N521" s="1"/>
+      <c r="O521" s="1"/>
+      <c r="P521" s="1"/>
+      <c r="Q521" s="1"/>
+    </row>
+    <row r="522" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M522" s="1"/>
+      <c r="N522" s="1"/>
+      <c r="O522" s="1"/>
+      <c r="P522" s="1"/>
+      <c r="Q522" s="1"/>
+    </row>
+    <row r="523" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M523" s="1"/>
+      <c r="N523" s="1"/>
+      <c r="O523" s="1"/>
+      <c r="P523" s="1"/>
+      <c r="Q523" s="1"/>
+    </row>
+    <row r="524" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M524" s="1"/>
+      <c r="N524" s="1"/>
+      <c r="O524" s="1"/>
+      <c r="P524" s="1"/>
+      <c r="Q524" s="1"/>
+    </row>
+    <row r="525" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M525" s="1"/>
+      <c r="N525" s="1"/>
+      <c r="O525" s="1"/>
+      <c r="P525" s="1"/>
+      <c r="Q525" s="1"/>
+    </row>
+    <row r="526" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M526" s="1"/>
+      <c r="N526" s="1"/>
+      <c r="O526" s="1"/>
+      <c r="P526" s="1"/>
+      <c r="Q526" s="1"/>
+    </row>
+    <row r="527" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M527" s="1"/>
+      <c r="N527" s="1"/>
+      <c r="O527" s="1"/>
+      <c r="P527" s="1"/>
+      <c r="Q527" s="1"/>
+    </row>
+    <row r="528" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M528" s="1"/>
+      <c r="N528" s="1"/>
+      <c r="O528" s="1"/>
+      <c r="P528" s="1"/>
+      <c r="Q528" s="1"/>
+    </row>
+    <row r="529" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M529" s="1"/>
+      <c r="N529" s="1"/>
+      <c r="O529" s="1"/>
+      <c r="P529" s="1"/>
+      <c r="Q529" s="1"/>
+    </row>
+    <row r="530" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M530" s="1"/>
+      <c r="N530" s="1"/>
+      <c r="O530" s="1"/>
+      <c r="P530" s="1"/>
+      <c r="Q530" s="1"/>
+    </row>
+    <row r="531" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M531" s="1"/>
+      <c r="N531" s="1"/>
+      <c r="O531" s="1"/>
+      <c r="P531" s="1"/>
+      <c r="Q531" s="1"/>
+    </row>
+    <row r="532" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M532" s="1"/>
+      <c r="N532" s="1"/>
+      <c r="O532" s="1"/>
+      <c r="P532" s="1"/>
+      <c r="Q532" s="1"/>
+    </row>
+    <row r="533" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M533" s="1"/>
+      <c r="N533" s="1"/>
+      <c r="O533" s="1"/>
+      <c r="P533" s="1"/>
+      <c r="Q533" s="1"/>
+    </row>
+    <row r="534" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M534" s="1"/>
+      <c r="N534" s="1"/>
+      <c r="O534" s="1"/>
+      <c r="P534" s="1"/>
+      <c r="Q534" s="1"/>
+    </row>
+    <row r="535" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M535" s="1"/>
+      <c r="N535" s="1"/>
+      <c r="O535" s="1"/>
+      <c r="P535" s="1"/>
+      <c r="Q535" s="1"/>
+    </row>
+    <row r="536" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M536" s="1"/>
+      <c r="N536" s="1"/>
+      <c r="O536" s="1"/>
+      <c r="P536" s="1"/>
+      <c r="Q536" s="1"/>
+    </row>
+    <row r="537" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M537" s="1"/>
+      <c r="N537" s="1"/>
+      <c r="O537" s="1"/>
+      <c r="P537" s="1"/>
+      <c r="Q537" s="1"/>
+    </row>
+    <row r="538" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M538" s="1"/>
+      <c r="N538" s="1"/>
+      <c r="O538" s="1"/>
+      <c r="P538" s="1"/>
+      <c r="Q538" s="1"/>
+    </row>
+    <row r="539" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M539" s="1"/>
+      <c r="N539" s="1"/>
+      <c r="O539" s="1"/>
+      <c r="P539" s="1"/>
+      <c r="Q539" s="1"/>
+    </row>
+    <row r="540" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M540" s="1"/>
+      <c r="N540" s="1"/>
+      <c r="O540" s="1"/>
+      <c r="P540" s="1"/>
+      <c r="Q540" s="1"/>
+    </row>
+    <row r="541" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M541" s="1"/>
+      <c r="N541" s="1"/>
+      <c r="O541" s="1"/>
+      <c r="P541" s="1"/>
+      <c r="Q541" s="1"/>
+    </row>
+    <row r="542" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M542" s="1"/>
+      <c r="N542" s="1"/>
+      <c r="O542" s="1"/>
+      <c r="P542" s="1"/>
+      <c r="Q542" s="1"/>
+    </row>
+    <row r="543" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M543" s="1"/>
+      <c r="N543" s="1"/>
+      <c r="O543" s="1"/>
+      <c r="P543" s="1"/>
+      <c r="Q543" s="1"/>
+    </row>
+    <row r="544" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M544" s="1"/>
+      <c r="N544" s="1"/>
+      <c r="O544" s="1"/>
+      <c r="P544" s="1"/>
+      <c r="Q544" s="1"/>
+    </row>
+    <row r="545" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M545" s="1"/>
+      <c r="N545" s="1"/>
+      <c r="O545" s="1"/>
+      <c r="P545" s="1"/>
+      <c r="Q545" s="1"/>
+    </row>
+    <row r="546" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M546" s="1"/>
+      <c r="N546" s="1"/>
+      <c r="O546" s="1"/>
+      <c r="P546" s="1"/>
+      <c r="Q546" s="1"/>
+    </row>
+    <row r="547" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M547" s="1"/>
+      <c r="N547" s="1"/>
+      <c r="O547" s="1"/>
+      <c r="P547" s="1"/>
+      <c r="Q547" s="1"/>
+    </row>
+    <row r="548" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M548" s="1"/>
+      <c r="N548" s="1"/>
+      <c r="O548" s="1"/>
+      <c r="P548" s="1"/>
+      <c r="Q548" s="1"/>
+    </row>
+    <row r="549" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M549" s="1"/>
+      <c r="N549" s="1"/>
+      <c r="O549" s="1"/>
+      <c r="P549" s="1"/>
+      <c r="Q549" s="1"/>
+    </row>
+    <row r="550" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M550" s="1"/>
+      <c r="N550" s="1"/>
+      <c r="O550" s="1"/>
+      <c r="P550" s="1"/>
+      <c r="Q550" s="1"/>
+    </row>
+    <row r="551" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M551" s="1"/>
+      <c r="N551" s="1"/>
+      <c r="O551" s="1"/>
+      <c r="P551" s="1"/>
+      <c r="Q551" s="1"/>
+    </row>
+    <row r="552" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M552" s="1"/>
+      <c r="N552" s="1"/>
+      <c r="O552" s="1"/>
+      <c r="P552" s="1"/>
+      <c r="Q552" s="1"/>
+    </row>
+    <row r="553" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M553" s="1"/>
+      <c r="N553" s="1"/>
+      <c r="O553" s="1"/>
+      <c r="P553" s="1"/>
+      <c r="Q553" s="1"/>
+    </row>
+    <row r="554" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M554" s="1"/>
+      <c r="N554" s="1"/>
+      <c r="O554" s="1"/>
+      <c r="P554" s="1"/>
+      <c r="Q554" s="1"/>
+    </row>
+    <row r="555" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M555" s="1"/>
+      <c r="N555" s="1"/>
+      <c r="O555" s="1"/>
+      <c r="P555" s="1"/>
+      <c r="Q555" s="1"/>
+    </row>
+    <row r="556" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M556" s="1"/>
+      <c r="N556" s="1"/>
+      <c r="O556" s="1"/>
+      <c r="P556" s="1"/>
+      <c r="Q556" s="1"/>
+    </row>
+    <row r="557" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M557" s="1"/>
+      <c r="N557" s="1"/>
+      <c r="O557" s="1"/>
+      <c r="P557" s="1"/>
+      <c r="Q557" s="1"/>
+    </row>
+    <row r="558" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M558" s="1"/>
+      <c r="N558" s="1"/>
+      <c r="O558" s="1"/>
+      <c r="P558" s="1"/>
+      <c r="Q558" s="1"/>
+    </row>
+    <row r="559" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M559" s="1"/>
+      <c r="N559" s="1"/>
+      <c r="O559" s="1"/>
+      <c r="P559" s="1"/>
+      <c r="Q559" s="1"/>
+    </row>
+    <row r="560" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M560" s="1"/>
+      <c r="N560" s="1"/>
+      <c r="O560" s="1"/>
+      <c r="P560" s="1"/>
+      <c r="Q560" s="1"/>
+    </row>
+    <row r="561" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M561" s="1"/>
+      <c r="N561" s="1"/>
+      <c r="O561" s="1"/>
+      <c r="P561" s="1"/>
+      <c r="Q561" s="1"/>
+    </row>
+    <row r="562" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M562" s="1"/>
+      <c r="N562" s="1"/>
+      <c r="O562" s="1"/>
+      <c r="P562" s="1"/>
+      <c r="Q562" s="1"/>
+    </row>
+    <row r="563" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M563" s="1"/>
+      <c r="N563" s="1"/>
+      <c r="O563" s="1"/>
+      <c r="P563" s="1"/>
+      <c r="Q563" s="1"/>
+    </row>
+    <row r="564" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M564" s="1"/>
+      <c r="N564" s="1"/>
+      <c r="O564" s="1"/>
+      <c r="P564" s="1"/>
+      <c r="Q564" s="1"/>
+    </row>
+    <row r="565" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M565" s="1"/>
+      <c r="N565" s="1"/>
+      <c r="O565" s="1"/>
+      <c r="P565" s="1"/>
+      <c r="Q565" s="1"/>
+    </row>
+    <row r="566" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M566" s="1"/>
+      <c r="N566" s="1"/>
+      <c r="O566" s="1"/>
+      <c r="P566" s="1"/>
+      <c r="Q566" s="1"/>
+    </row>
+    <row r="567" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M567" s="1"/>
+      <c r="N567" s="1"/>
+      <c r="O567" s="1"/>
+      <c r="P567" s="1"/>
+      <c r="Q567" s="1"/>
+    </row>
+    <row r="568" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M568" s="1"/>
+      <c r="N568" s="1"/>
+      <c r="O568" s="1"/>
+      <c r="P568" s="1"/>
+      <c r="Q568" s="1"/>
+    </row>
+    <row r="569" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M569" s="1"/>
+      <c r="N569" s="1"/>
+      <c r="O569" s="1"/>
+      <c r="P569" s="1"/>
+      <c r="Q569" s="1"/>
+    </row>
+    <row r="570" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M570" s="1"/>
+      <c r="N570" s="1"/>
+      <c r="O570" s="1"/>
+      <c r="P570" s="1"/>
+      <c r="Q570" s="1"/>
+    </row>
+    <row r="571" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M571" s="1"/>
+      <c r="N571" s="1"/>
+      <c r="O571" s="1"/>
+      <c r="P571" s="1"/>
+      <c r="Q571" s="1"/>
+    </row>
+    <row r="572" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M572" s="1"/>
+      <c r="N572" s="1"/>
+      <c r="O572" s="1"/>
+      <c r="P572" s="1"/>
+      <c r="Q572" s="1"/>
+    </row>
+    <row r="573" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M573" s="1"/>
+      <c r="N573" s="1"/>
+      <c r="O573" s="1"/>
+      <c r="P573" s="1"/>
+      <c r="Q573" s="1"/>
+    </row>
+    <row r="574" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M574" s="1"/>
+      <c r="N574" s="1"/>
+      <c r="O574" s="1"/>
+      <c r="P574" s="1"/>
+      <c r="Q574" s="1"/>
+    </row>
+    <row r="575" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M575" s="1"/>
+      <c r="N575" s="1"/>
+      <c r="O575" s="1"/>
+      <c r="P575" s="1"/>
+      <c r="Q575" s="1"/>
+    </row>
+    <row r="576" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M576" s="1"/>
+      <c r="N576" s="1"/>
+      <c r="O576" s="1"/>
+      <c r="P576" s="1"/>
+      <c r="Q576" s="1"/>
+    </row>
+    <row r="577" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M577" s="1"/>
+      <c r="N577" s="1"/>
+      <c r="O577" s="1"/>
+      <c r="P577" s="1"/>
+      <c r="Q577" s="1"/>
+    </row>
+    <row r="578" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M578" s="1"/>
+      <c r="N578" s="1"/>
+      <c r="O578" s="1"/>
+      <c r="P578" s="1"/>
+      <c r="Q578" s="1"/>
+    </row>
+    <row r="579" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M579" s="1"/>
+      <c r="N579" s="1"/>
+      <c r="O579" s="1"/>
+      <c r="P579" s="1"/>
+      <c r="Q579" s="1"/>
+    </row>
+    <row r="580" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M580" s="1"/>
+      <c r="N580" s="1"/>
+      <c r="O580" s="1"/>
+      <c r="P580" s="1"/>
+      <c r="Q580" s="1"/>
+    </row>
+    <row r="581" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M581" s="1"/>
+      <c r="N581" s="1"/>
+      <c r="O581" s="1"/>
+      <c r="P581" s="1"/>
+      <c r="Q581" s="1"/>
+    </row>
+    <row r="582" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M582" s="1"/>
+      <c r="N582" s="1"/>
+      <c r="O582" s="1"/>
+      <c r="P582" s="1"/>
+      <c r="Q582" s="1"/>
+    </row>
+    <row r="583" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M583" s="1"/>
+      <c r="N583" s="1"/>
+      <c r="O583" s="1"/>
+      <c r="P583" s="1"/>
+      <c r="Q583" s="1"/>
+    </row>
+    <row r="584" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M584" s="1"/>
+      <c r="N584" s="1"/>
+      <c r="O584" s="1"/>
+      <c r="P584" s="1"/>
+      <c r="Q584" s="1"/>
+    </row>
+    <row r="585" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M585" s="1"/>
+      <c r="N585" s="1"/>
+      <c r="O585" s="1"/>
+      <c r="P585" s="1"/>
+      <c r="Q585" s="1"/>
+    </row>
+    <row r="586" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M586" s="1"/>
+      <c r="N586" s="1"/>
+      <c r="O586" s="1"/>
+      <c r="P586" s="1"/>
+      <c r="Q586" s="1"/>
+    </row>
+    <row r="587" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M587" s="1"/>
+      <c r="N587" s="1"/>
+      <c r="O587" s="1"/>
+      <c r="P587" s="1"/>
+      <c r="Q587" s="1"/>
+    </row>
+    <row r="588" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M588" s="1"/>
+      <c r="N588" s="1"/>
+      <c r="O588" s="1"/>
+      <c r="P588" s="1"/>
+      <c r="Q588" s="1"/>
+    </row>
+    <row r="589" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M589" s="1"/>
+      <c r="N589" s="1"/>
+      <c r="O589" s="1"/>
+      <c r="P589" s="1"/>
+      <c r="Q589" s="1"/>
+    </row>
+    <row r="590" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M590" s="1"/>
+      <c r="N590" s="1"/>
+      <c r="O590" s="1"/>
+      <c r="P590" s="1"/>
+      <c r="Q590" s="1"/>
+    </row>
+    <row r="591" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M591" s="1"/>
+      <c r="N591" s="1"/>
+      <c r="O591" s="1"/>
+      <c r="P591" s="1"/>
+      <c r="Q591" s="1"/>
+    </row>
+    <row r="592" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M592" s="1"/>
+      <c r="N592" s="1"/>
+      <c r="O592" s="1"/>
+      <c r="P592" s="1"/>
+      <c r="Q592" s="1"/>
+    </row>
+    <row r="593" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M593" s="1"/>
+      <c r="N593" s="1"/>
+      <c r="O593" s="1"/>
+      <c r="P593" s="1"/>
+      <c r="Q593" s="1"/>
+    </row>
+    <row r="594" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M594" s="1"/>
+      <c r="N594" s="1"/>
+      <c r="O594" s="1"/>
+      <c r="P594" s="1"/>
+      <c r="Q594" s="1"/>
+    </row>
+    <row r="595" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M595" s="1"/>
+      <c r="N595" s="1"/>
+      <c r="O595" s="1"/>
+      <c r="P595" s="1"/>
+      <c r="Q595" s="1"/>
+    </row>
+    <row r="596" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M596" s="1"/>
+      <c r="N596" s="1"/>
+      <c r="O596" s="1"/>
+      <c r="P596" s="1"/>
+      <c r="Q596" s="1"/>
+    </row>
+    <row r="597" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M597" s="1"/>
+      <c r="N597" s="1"/>
+      <c r="O597" s="1"/>
+      <c r="P597" s="1"/>
+      <c r="Q597" s="1"/>
+    </row>
+    <row r="598" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M598" s="1"/>
+      <c r="N598" s="1"/>
+      <c r="O598" s="1"/>
+      <c r="P598" s="1"/>
+      <c r="Q598" s="1"/>
+    </row>
+    <row r="599" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M599" s="1"/>
+      <c r="N599" s="1"/>
+      <c r="O599" s="1"/>
+      <c r="P599" s="1"/>
+      <c r="Q599" s="1"/>
+    </row>
+    <row r="600" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M600" s="1"/>
+      <c r="N600" s="1"/>
+      <c r="O600" s="1"/>
+      <c r="P600" s="1"/>
+      <c r="Q600" s="1"/>
+    </row>
+    <row r="601" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M601" s="1"/>
+      <c r="N601" s="1"/>
+      <c r="O601" s="1"/>
+      <c r="P601" s="1"/>
+      <c r="Q601" s="1"/>
+    </row>
+    <row r="602" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M602" s="1"/>
+      <c r="N602" s="1"/>
+      <c r="O602" s="1"/>
+      <c r="P602" s="1"/>
+      <c r="Q602" s="1"/>
+    </row>
+    <row r="603" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M603" s="1"/>
+      <c r="N603" s="1"/>
+      <c r="O603" s="1"/>
+      <c r="P603" s="1"/>
+      <c r="Q603" s="1"/>
+    </row>
+    <row r="604" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M604" s="1"/>
+      <c r="N604" s="1"/>
+      <c r="O604" s="1"/>
+      <c r="P604" s="1"/>
+      <c r="Q604" s="1"/>
+    </row>
+    <row r="605" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M605" s="1"/>
+      <c r="N605" s="1"/>
+      <c r="O605" s="1"/>
+      <c r="P605" s="1"/>
+      <c r="Q605" s="1"/>
+    </row>
+    <row r="606" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M606" s="1"/>
+      <c r="N606" s="1"/>
+      <c r="O606" s="1"/>
+      <c r="P606" s="1"/>
+      <c r="Q606" s="1"/>
+    </row>
+    <row r="607" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M607" s="1"/>
+      <c r="N607" s="1"/>
+      <c r="O607" s="1"/>
+      <c r="P607" s="1"/>
+      <c r="Q607" s="1"/>
+    </row>
+    <row r="608" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M608" s="1"/>
+      <c r="N608" s="1"/>
+      <c r="O608" s="1"/>
+      <c r="P608" s="1"/>
+      <c r="Q608" s="1"/>
+    </row>
+    <row r="609" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M609" s="1"/>
+      <c r="N609" s="1"/>
+      <c r="O609" s="1"/>
+      <c r="P609" s="1"/>
+      <c r="Q609" s="1"/>
+    </row>
+    <row r="610" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M610" s="1"/>
+      <c r="N610" s="1"/>
+      <c r="O610" s="1"/>
+      <c r="P610" s="1"/>
+      <c r="Q610" s="1"/>
+    </row>
+    <row r="611" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M611" s="1"/>
+      <c r="N611" s="1"/>
+      <c r="O611" s="1"/>
+      <c r="P611" s="1"/>
+      <c r="Q611" s="1"/>
+    </row>
+    <row r="612" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M612" s="1"/>
+      <c r="N612" s="1"/>
+      <c r="O612" s="1"/>
+      <c r="P612" s="1"/>
+      <c r="Q612" s="1"/>
+    </row>
+    <row r="613" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M613" s="1"/>
+      <c r="N613" s="1"/>
+      <c r="O613" s="1"/>
+      <c r="P613" s="1"/>
+      <c r="Q613" s="1"/>
+    </row>
+    <row r="614" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M614" s="1"/>
+      <c r="N614" s="1"/>
+      <c r="O614" s="1"/>
+      <c r="P614" s="1"/>
+      <c r="Q614" s="1"/>
+    </row>
+    <row r="615" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M615" s="1"/>
+      <c r="N615" s="1"/>
+      <c r="O615" s="1"/>
+      <c r="P615" s="1"/>
+      <c r="Q615" s="1"/>
+    </row>
+    <row r="616" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M616" s="1"/>
+      <c r="N616" s="1"/>
+      <c r="O616" s="1"/>
+      <c r="P616" s="1"/>
+      <c r="Q616" s="1"/>
+    </row>
+    <row r="617" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M617" s="1"/>
+      <c r="N617" s="1"/>
+      <c r="O617" s="1"/>
+      <c r="P617" s="1"/>
+      <c r="Q617" s="1"/>
+    </row>
+    <row r="618" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M618" s="1"/>
+      <c r="N618" s="1"/>
+      <c r="O618" s="1"/>
+      <c r="P618" s="1"/>
+      <c r="Q618" s="1"/>
+    </row>
+    <row r="619" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M619" s="1"/>
+      <c r="N619" s="1"/>
+      <c r="O619" s="1"/>
+      <c r="P619" s="1"/>
+      <c r="Q619" s="1"/>
+    </row>
+    <row r="620" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M620" s="1"/>
+      <c r="N620" s="1"/>
+      <c r="O620" s="1"/>
+      <c r="P620" s="1"/>
+      <c r="Q620" s="1"/>
+    </row>
+    <row r="621" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M621" s="1"/>
+      <c r="N621" s="1"/>
+      <c r="O621" s="1"/>
+      <c r="P621" s="1"/>
+      <c r="Q621" s="1"/>
+    </row>
+    <row r="622" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M622" s="1"/>
+      <c r="N622" s="1"/>
+      <c r="O622" s="1"/>
+      <c r="P622" s="1"/>
+      <c r="Q622" s="1"/>
+    </row>
+    <row r="623" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M623" s="1"/>
+      <c r="N623" s="1"/>
+      <c r="O623" s="1"/>
+      <c r="P623" s="1"/>
+      <c r="Q623" s="1"/>
+    </row>
+    <row r="624" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M624" s="1"/>
+      <c r="N624" s="1"/>
+      <c r="O624" s="1"/>
+      <c r="P624" s="1"/>
+      <c r="Q624" s="1"/>
+    </row>
+    <row r="625" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M625" s="1"/>
+      <c r="N625" s="1"/>
+      <c r="O625" s="1"/>
+      <c r="P625" s="1"/>
+      <c r="Q625" s="1"/>
+    </row>
+    <row r="626" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M626" s="1"/>
+      <c r="N626" s="1"/>
+      <c r="O626" s="1"/>
+      <c r="P626" s="1"/>
+      <c r="Q626" s="1"/>
+    </row>
+    <row r="627" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M627" s="1"/>
+      <c r="N627" s="1"/>
+      <c r="O627" s="1"/>
+      <c r="P627" s="1"/>
+      <c r="Q627" s="1"/>
+    </row>
+    <row r="628" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M628" s="1"/>
+      <c r="N628" s="1"/>
+      <c r="O628" s="1"/>
+      <c r="P628" s="1"/>
+      <c r="Q628" s="1"/>
+    </row>
+    <row r="629" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M629" s="1"/>
+      <c r="N629" s="1"/>
+      <c r="O629" s="1"/>
+      <c r="P629" s="1"/>
+      <c r="Q629" s="1"/>
+    </row>
+    <row r="630" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M630" s="1"/>
+      <c r="N630" s="1"/>
+      <c r="O630" s="1"/>
+      <c r="P630" s="1"/>
+      <c r="Q630" s="1"/>
+    </row>
+    <row r="631" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M631" s="1"/>
+      <c r="N631" s="1"/>
+      <c r="O631" s="1"/>
+      <c r="P631" s="1"/>
+      <c r="Q631" s="1"/>
+    </row>
+    <row r="632" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M632" s="1"/>
+      <c r="N632" s="1"/>
+      <c r="O632" s="1"/>
+      <c r="P632" s="1"/>
+      <c r="Q632" s="1"/>
+    </row>
+    <row r="633" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M633" s="1"/>
+      <c r="N633" s="1"/>
+      <c r="O633" s="1"/>
+      <c r="P633" s="1"/>
+      <c r="Q633" s="1"/>
+    </row>
+    <row r="634" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M634" s="1"/>
+      <c r="N634" s="1"/>
+      <c r="O634" s="1"/>
+      <c r="P634" s="1"/>
+      <c r="Q634" s="1"/>
+    </row>
+    <row r="635" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M635" s="1"/>
+      <c r="N635" s="1"/>
+      <c r="O635" s="1"/>
+      <c r="P635" s="1"/>
+      <c r="Q635" s="1"/>
+    </row>
+    <row r="636" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M636" s="1"/>
+      <c r="N636" s="1"/>
+      <c r="O636" s="1"/>
+      <c r="P636" s="1"/>
+      <c r="Q636" s="1"/>
+    </row>
+    <row r="637" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M637" s="1"/>
+      <c r="N637" s="1"/>
+      <c r="O637" s="1"/>
+      <c r="P637" s="1"/>
+      <c r="Q637" s="1"/>
+    </row>
+    <row r="638" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M638" s="1"/>
+      <c r="N638" s="1"/>
+      <c r="O638" s="1"/>
+      <c r="P638" s="1"/>
+      <c r="Q638" s="1"/>
+    </row>
+    <row r="639" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M639" s="1"/>
+      <c r="N639" s="1"/>
+      <c r="O639" s="1"/>
+      <c r="P639" s="1"/>
+      <c r="Q639" s="1"/>
+    </row>
+    <row r="640" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M640" s="1"/>
+      <c r="N640" s="1"/>
+      <c r="O640" s="1"/>
+      <c r="P640" s="1"/>
+      <c r="Q640" s="1"/>
+    </row>
+    <row r="641" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M641" s="1"/>
+      <c r="N641" s="1"/>
+      <c r="O641" s="1"/>
+      <c r="P641" s="1"/>
+      <c r="Q641" s="1"/>
+    </row>
+    <row r="642" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M642" s="1"/>
+      <c r="N642" s="1"/>
+      <c r="O642" s="1"/>
+      <c r="P642" s="1"/>
+      <c r="Q642" s="1"/>
+    </row>
+    <row r="643" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M643" s="1"/>
+      <c r="N643" s="1"/>
+      <c r="O643" s="1"/>
+      <c r="P643" s="1"/>
+      <c r="Q643" s="1"/>
+    </row>
+    <row r="644" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M644" s="1"/>
+      <c r="N644" s="1"/>
+      <c r="O644" s="1"/>
+      <c r="P644" s="1"/>
+      <c r="Q644" s="1"/>
+    </row>
+    <row r="645" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M645" s="1"/>
+      <c r="N645" s="1"/>
+      <c r="O645" s="1"/>
+      <c r="P645" s="1"/>
+      <c r="Q645" s="1"/>
+    </row>
+    <row r="646" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M646" s="1"/>
+      <c r="N646" s="1"/>
+      <c r="O646" s="1"/>
+      <c r="P646" s="1"/>
+      <c r="Q646" s="1"/>
+    </row>
+    <row r="647" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M647" s="1"/>
+      <c r="N647" s="1"/>
+      <c r="O647" s="1"/>
+      <c r="P647" s="1"/>
+      <c r="Q647" s="1"/>
+    </row>
+    <row r="648" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M648" s="1"/>
+      <c r="N648" s="1"/>
+      <c r="O648" s="1"/>
+      <c r="P648" s="1"/>
+      <c r="Q648" s="1"/>
+    </row>
+    <row r="649" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M649" s="1"/>
+      <c r="N649" s="1"/>
+      <c r="O649" s="1"/>
+      <c r="P649" s="1"/>
+      <c r="Q649" s="1"/>
+    </row>
+    <row r="650" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M650" s="1"/>
+      <c r="N650" s="1"/>
+      <c r="O650" s="1"/>
+      <c r="P650" s="1"/>
+      <c r="Q650" s="1"/>
+    </row>
+    <row r="651" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M651" s="1"/>
+      <c r="N651" s="1"/>
+      <c r="O651" s="1"/>
+      <c r="P651" s="1"/>
+      <c r="Q651" s="1"/>
+    </row>
+    <row r="652" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M652" s="1"/>
+      <c r="N652" s="1"/>
+      <c r="O652" s="1"/>
+      <c r="P652" s="1"/>
+      <c r="Q652" s="1"/>
+    </row>
+    <row r="653" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M653" s="1"/>
+      <c r="N653" s="1"/>
+      <c r="O653" s="1"/>
+      <c r="P653" s="1"/>
+      <c r="Q653" s="1"/>
+    </row>
+    <row r="654" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M654" s="1"/>
+      <c r="N654" s="1"/>
+      <c r="O654" s="1"/>
+      <c r="P654" s="1"/>
+      <c r="Q654" s="1"/>
+    </row>
+    <row r="655" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M655" s="1"/>
+      <c r="N655" s="1"/>
+      <c r="O655" s="1"/>
+      <c r="P655" s="1"/>
+      <c r="Q655" s="1"/>
+    </row>
+    <row r="656" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M656" s="1"/>
+      <c r="N656" s="1"/>
+      <c r="O656" s="1"/>
+      <c r="P656" s="1"/>
+      <c r="Q656" s="1"/>
+    </row>
+    <row r="657" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M657" s="1"/>
+      <c r="N657" s="1"/>
+      <c r="O657" s="1"/>
+      <c r="P657" s="1"/>
+      <c r="Q657" s="1"/>
+    </row>
+    <row r="658" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M658" s="1"/>
+      <c r="N658" s="1"/>
+      <c r="O658" s="1"/>
+      <c r="P658" s="1"/>
+      <c r="Q658" s="1"/>
+    </row>
+    <row r="659" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M659" s="1"/>
+      <c r="N659" s="1"/>
+      <c r="O659" s="1"/>
+      <c r="P659" s="1"/>
+      <c r="Q659" s="1"/>
+    </row>
+    <row r="660" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M660" s="1"/>
+      <c r="N660" s="1"/>
+      <c r="O660" s="1"/>
+      <c r="P660" s="1"/>
+      <c r="Q660" s="1"/>
+    </row>
+    <row r="661" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M661" s="1"/>
+      <c r="N661" s="1"/>
+      <c r="O661" s="1"/>
+      <c r="P661" s="1"/>
+      <c r="Q661" s="1"/>
+    </row>
+    <row r="662" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M662" s="1"/>
+      <c r="N662" s="1"/>
+      <c r="O662" s="1"/>
+      <c r="P662" s="1"/>
+      <c r="Q662" s="1"/>
+    </row>
+    <row r="663" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M663" s="1"/>
+      <c r="N663" s="1"/>
+      <c r="O663" s="1"/>
+      <c r="P663" s="1"/>
+      <c r="Q663" s="1"/>
+    </row>
+    <row r="664" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M664" s="1"/>
+      <c r="N664" s="1"/>
+      <c r="O664" s="1"/>
+      <c r="P664" s="1"/>
+      <c r="Q664" s="1"/>
+    </row>
+    <row r="665" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M665" s="1"/>
+      <c r="N665" s="1"/>
+      <c r="O665" s="1"/>
+      <c r="P665" s="1"/>
+      <c r="Q665" s="1"/>
+    </row>
+    <row r="666" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M666" s="1"/>
+      <c r="N666" s="1"/>
+      <c r="O666" s="1"/>
+      <c r="P666" s="1"/>
+      <c r="Q666" s="1"/>
+    </row>
+    <row r="667" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M667" s="1"/>
+      <c r="N667" s="1"/>
+      <c r="O667" s="1"/>
+      <c r="P667" s="1"/>
+      <c r="Q667" s="1"/>
+    </row>
+    <row r="668" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M668" s="1"/>
+      <c r="N668" s="1"/>
+      <c r="O668" s="1"/>
+      <c r="P668" s="1"/>
+      <c r="Q668" s="1"/>
+    </row>
+    <row r="669" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M669" s="1"/>
+      <c r="N669" s="1"/>
+      <c r="O669" s="1"/>
+      <c r="P669" s="1"/>
+      <c r="Q669" s="1"/>
+    </row>
+    <row r="670" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M670" s="1"/>
+      <c r="N670" s="1"/>
+      <c r="O670" s="1"/>
+      <c r="P670" s="1"/>
+      <c r="Q670" s="1"/>
+    </row>
+    <row r="671" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M671" s="1"/>
+      <c r="N671" s="1"/>
+      <c r="O671" s="1"/>
+      <c r="P671" s="1"/>
+      <c r="Q671" s="1"/>
+    </row>
+    <row r="672" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M672" s="1"/>
+      <c r="N672" s="1"/>
+      <c r="O672" s="1"/>
+      <c r="P672" s="1"/>
+      <c r="Q672" s="1"/>
+    </row>
+    <row r="673" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M673" s="1"/>
+      <c r="N673" s="1"/>
+      <c r="O673" s="1"/>
+      <c r="P673" s="1"/>
+      <c r="Q673" s="1"/>
+    </row>
+    <row r="674" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M674" s="1"/>
+      <c r="N674" s="1"/>
+      <c r="O674" s="1"/>
+      <c r="P674" s="1"/>
+      <c r="Q674" s="1"/>
+    </row>
+    <row r="675" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M675" s="1"/>
+      <c r="N675" s="1"/>
+      <c r="O675" s="1"/>
+      <c r="P675" s="1"/>
+      <c r="Q675" s="1"/>
+    </row>
+    <row r="676" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M676" s="1"/>
+      <c r="N676" s="1"/>
+      <c r="O676" s="1"/>
+      <c r="P676" s="1"/>
+      <c r="Q676" s="1"/>
+    </row>
+    <row r="677" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M677" s="1"/>
+      <c r="N677" s="1"/>
+      <c r="O677" s="1"/>
+      <c r="P677" s="1"/>
+      <c r="Q677" s="1"/>
+    </row>
+    <row r="678" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M678" s="1"/>
+      <c r="N678" s="1"/>
+      <c r="O678" s="1"/>
+      <c r="P678" s="1"/>
+      <c r="Q678" s="1"/>
+    </row>
+    <row r="679" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M679" s="1"/>
+      <c r="N679" s="1"/>
+      <c r="O679" s="1"/>
+      <c r="P679" s="1"/>
+      <c r="Q679" s="1"/>
+    </row>
+    <row r="680" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M680" s="1"/>
+      <c r="N680" s="1"/>
+      <c r="O680" s="1"/>
+      <c r="P680" s="1"/>
+      <c r="Q680" s="1"/>
+    </row>
+    <row r="681" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M681" s="1"/>
+      <c r="N681" s="1"/>
+      <c r="O681" s="1"/>
+      <c r="P681" s="1"/>
+      <c r="Q681" s="1"/>
+    </row>
+    <row r="682" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M682" s="1"/>
+      <c r="N682" s="1"/>
+      <c r="O682" s="1"/>
+      <c r="P682" s="1"/>
+      <c r="Q682" s="1"/>
+    </row>
+    <row r="683" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M683" s="1"/>
+      <c r="N683" s="1"/>
+      <c r="O683" s="1"/>
+      <c r="P683" s="1"/>
+      <c r="Q683" s="1"/>
+    </row>
+    <row r="684" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M684" s="1"/>
+      <c r="N684" s="1"/>
+      <c r="O684" s="1"/>
+      <c r="P684" s="1"/>
+      <c r="Q684" s="1"/>
+    </row>
+    <row r="685" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M685" s="1"/>
+      <c r="N685" s="1"/>
+      <c r="O685" s="1"/>
+      <c r="P685" s="1"/>
+      <c r="Q685" s="1"/>
+    </row>
+    <row r="686" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M686" s="1"/>
+      <c r="N686" s="1"/>
+      <c r="O686" s="1"/>
+      <c r="P686" s="1"/>
+      <c r="Q686" s="1"/>
+    </row>
+    <row r="687" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M687" s="1"/>
+      <c r="N687" s="1"/>
+      <c r="O687" s="1"/>
+      <c r="P687" s="1"/>
+      <c r="Q687" s="1"/>
+    </row>
+    <row r="688" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M688" s="1"/>
+      <c r="N688" s="1"/>
+      <c r="O688" s="1"/>
+      <c r="P688" s="1"/>
+      <c r="Q688" s="1"/>
+    </row>
+    <row r="689" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M689" s="1"/>
+      <c r="N689" s="1"/>
+      <c r="O689" s="1"/>
+      <c r="P689" s="1"/>
+      <c r="Q689" s="1"/>
+    </row>
+    <row r="690" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M690" s="1"/>
+      <c r="N690" s="1"/>
+      <c r="O690" s="1"/>
+      <c r="P690" s="1"/>
+      <c r="Q690" s="1"/>
+    </row>
+    <row r="691" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M691" s="1"/>
+      <c r="N691" s="1"/>
+      <c r="O691" s="1"/>
+      <c r="P691" s="1"/>
+      <c r="Q691" s="1"/>
+    </row>
+    <row r="692" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M692" s="1"/>
+      <c r="N692" s="1"/>
+      <c r="O692" s="1"/>
+      <c r="P692" s="1"/>
+      <c r="Q692" s="1"/>
+    </row>
+    <row r="693" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M693" s="1"/>
+      <c r="N693" s="1"/>
+      <c r="O693" s="1"/>
+      <c r="P693" s="1"/>
+      <c r="Q693" s="1"/>
+    </row>
+    <row r="694" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M694" s="1"/>
+      <c r="N694" s="1"/>
+      <c r="O694" s="1"/>
+      <c r="P694" s="1"/>
+      <c r="Q694" s="1"/>
+    </row>
+    <row r="695" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M695" s="1"/>
+      <c r="N695" s="1"/>
+      <c r="O695" s="1"/>
+      <c r="P695" s="1"/>
+      <c r="Q695" s="1"/>
+    </row>
+    <row r="696" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M696" s="1"/>
+      <c r="N696" s="1"/>
+      <c r="O696" s="1"/>
+      <c r="P696" s="1"/>
+      <c r="Q696" s="1"/>
+    </row>
+    <row r="697" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M697" s="1"/>
+      <c r="N697" s="1"/>
+      <c r="O697" s="1"/>
+      <c r="P697" s="1"/>
+      <c r="Q697" s="1"/>
+    </row>
+    <row r="698" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M698" s="1"/>
+      <c r="N698" s="1"/>
+      <c r="O698" s="1"/>
+      <c r="P698" s="1"/>
+      <c r="Q698" s="1"/>
+    </row>
+    <row r="699" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M699" s="1"/>
+      <c r="N699" s="1"/>
+      <c r="O699" s="1"/>
+      <c r="P699" s="1"/>
+      <c r="Q699" s="1"/>
+    </row>
+    <row r="700" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M700" s="1"/>
+      <c r="N700" s="1"/>
+      <c r="O700" s="1"/>
+      <c r="P700" s="1"/>
+      <c r="Q700" s="1"/>
+    </row>
+    <row r="701" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M701" s="1"/>
+      <c r="N701" s="1"/>
+      <c r="O701" s="1"/>
+      <c r="P701" s="1"/>
+      <c r="Q701" s="1"/>
+    </row>
+    <row r="702" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M702" s="1"/>
+      <c r="N702" s="1"/>
+      <c r="O702" s="1"/>
+      <c r="P702" s="1"/>
+      <c r="Q702" s="1"/>
+    </row>
+    <row r="703" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M703" s="1"/>
+      <c r="N703" s="1"/>
+      <c r="O703" s="1"/>
+      <c r="P703" s="1"/>
+      <c r="Q703" s="1"/>
+    </row>
+    <row r="704" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M704" s="1"/>
+      <c r="N704" s="1"/>
+      <c r="O704" s="1"/>
+      <c r="P704" s="1"/>
+      <c r="Q704" s="1"/>
+    </row>
+    <row r="705" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M705" s="1"/>
+      <c r="N705" s="1"/>
+      <c r="O705" s="1"/>
+      <c r="P705" s="1"/>
+      <c r="Q705" s="1"/>
+    </row>
+    <row r="706" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M706" s="1"/>
+      <c r="N706" s="1"/>
+      <c r="O706" s="1"/>
+      <c r="P706" s="1"/>
+      <c r="Q706" s="1"/>
+    </row>
+    <row r="707" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M707" s="1"/>
+      <c r="N707" s="1"/>
+      <c r="O707" s="1"/>
+      <c r="P707" s="1"/>
+      <c r="Q707" s="1"/>
+    </row>
+    <row r="708" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M708" s="1"/>
+      <c r="N708" s="1"/>
+      <c r="O708" s="1"/>
+      <c r="P708" s="1"/>
+      <c r="Q708" s="1"/>
+    </row>
+    <row r="709" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M709" s="1"/>
+      <c r="N709" s="1"/>
+      <c r="O709" s="1"/>
+      <c r="P709" s="1"/>
+      <c r="Q709" s="1"/>
+    </row>
+    <row r="710" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M710" s="1"/>
+      <c r="N710" s="1"/>
+      <c r="O710" s="1"/>
+      <c r="P710" s="1"/>
+      <c r="Q710" s="1"/>
+    </row>
+    <row r="711" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M711" s="1"/>
+      <c r="N711" s="1"/>
+      <c r="O711" s="1"/>
+      <c r="P711" s="1"/>
+      <c r="Q711" s="1"/>
+    </row>
+    <row r="712" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M712" s="1"/>
+      <c r="N712" s="1"/>
+      <c r="O712" s="1"/>
+      <c r="P712" s="1"/>
+      <c r="Q712" s="1"/>
+    </row>
+    <row r="713" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M713" s="1"/>
+      <c r="N713" s="1"/>
+      <c r="O713" s="1"/>
+      <c r="P713" s="1"/>
+      <c r="Q713" s="1"/>
+    </row>
+    <row r="714" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M714" s="1"/>
+      <c r="N714" s="1"/>
+      <c r="O714" s="1"/>
+      <c r="P714" s="1"/>
+      <c r="Q714" s="1"/>
+    </row>
+    <row r="715" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M715" s="1"/>
+      <c r="N715" s="1"/>
+      <c r="O715" s="1"/>
+      <c r="P715" s="1"/>
+      <c r="Q715" s="1"/>
+    </row>
+    <row r="716" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M716" s="1"/>
+      <c r="N716" s="1"/>
+      <c r="O716" s="1"/>
+      <c r="P716" s="1"/>
+      <c r="Q716" s="1"/>
+    </row>
+    <row r="717" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M717" s="1"/>
+      <c r="N717" s="1"/>
+      <c r="O717" s="1"/>
+      <c r="P717" s="1"/>
+      <c r="Q717" s="1"/>
+    </row>
+    <row r="718" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M718" s="1"/>
+      <c r="N718" s="1"/>
+      <c r="O718" s="1"/>
+      <c r="P718" s="1"/>
+      <c r="Q718" s="1"/>
+    </row>
+    <row r="719" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M719" s="1"/>
+      <c r="N719" s="1"/>
+      <c r="O719" s="1"/>
+      <c r="P719" s="1"/>
+      <c r="Q719" s="1"/>
+    </row>
+    <row r="720" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M720" s="1"/>
+      <c r="N720" s="1"/>
+      <c r="O720" s="1"/>
+      <c r="P720" s="1"/>
+      <c r="Q720" s="1"/>
+    </row>
+    <row r="721" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M721" s="1"/>
+      <c r="N721" s="1"/>
+      <c r="O721" s="1"/>
+      <c r="P721" s="1"/>
+      <c r="Q721" s="1"/>
+    </row>
+    <row r="722" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M722" s="1"/>
+      <c r="N722" s="1"/>
+      <c r="O722" s="1"/>
+      <c r="P722" s="1"/>
+      <c r="Q722" s="1"/>
+    </row>
+    <row r="723" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M723" s="1"/>
+      <c r="N723" s="1"/>
+      <c r="O723" s="1"/>
+      <c r="P723" s="1"/>
+      <c r="Q723" s="1"/>
+    </row>
+    <row r="724" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M724" s="1"/>
+      <c r="N724" s="1"/>
+      <c r="O724" s="1"/>
+      <c r="P724" s="1"/>
+      <c r="Q724" s="1"/>
+    </row>
+    <row r="725" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M725" s="1"/>
+      <c r="N725" s="1"/>
+      <c r="O725" s="1"/>
+      <c r="P725" s="1"/>
+      <c r="Q725" s="1"/>
+    </row>
+    <row r="726" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M726" s="1"/>
+      <c r="N726" s="1"/>
+      <c r="O726" s="1"/>
+      <c r="P726" s="1"/>
+      <c r="Q726" s="1"/>
+    </row>
+    <row r="727" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M727" s="1"/>
+      <c r="N727" s="1"/>
+      <c r="O727" s="1"/>
+      <c r="P727" s="1"/>
+      <c r="Q727" s="1"/>
+    </row>
+    <row r="728" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M728" s="1"/>
+      <c r="N728" s="1"/>
+      <c r="O728" s="1"/>
+      <c r="P728" s="1"/>
+      <c r="Q728" s="1"/>
+    </row>
+    <row r="729" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M729" s="1"/>
+      <c r="N729" s="1"/>
+      <c r="O729" s="1"/>
+      <c r="P729" s="1"/>
+      <c r="Q729" s="1"/>
+    </row>
+    <row r="730" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M730" s="1"/>
+      <c r="N730" s="1"/>
+      <c r="O730" s="1"/>
+      <c r="P730" s="1"/>
+      <c r="Q730" s="1"/>
+    </row>
+    <row r="731" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M731" s="1"/>
+      <c r="N731" s="1"/>
+      <c r="O731" s="1"/>
+      <c r="P731" s="1"/>
+      <c r="Q731" s="1"/>
+    </row>
+    <row r="732" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M732" s="1"/>
+      <c r="N732" s="1"/>
+      <c r="O732" s="1"/>
+      <c r="P732" s="1"/>
+      <c r="Q732" s="1"/>
+    </row>
+    <row r="733" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M733" s="1"/>
+      <c r="N733" s="1"/>
+      <c r="O733" s="1"/>
+      <c r="P733" s="1"/>
+      <c r="Q733" s="1"/>
+    </row>
+    <row r="734" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M734" s="1"/>
+      <c r="N734" s="1"/>
+      <c r="O734" s="1"/>
+      <c r="P734" s="1"/>
+      <c r="Q734" s="1"/>
+    </row>
+    <row r="735" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M735" s="1"/>
+      <c r="N735" s="1"/>
+      <c r="O735" s="1"/>
+      <c r="P735" s="1"/>
+      <c r="Q735" s="1"/>
+    </row>
+    <row r="736" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M736" s="1"/>
+      <c r="N736" s="1"/>
+      <c r="O736" s="1"/>
+      <c r="P736" s="1"/>
+      <c r="Q736" s="1"/>
+    </row>
+    <row r="737" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M737" s="1"/>
+      <c r="N737" s="1"/>
+      <c r="O737" s="1"/>
+      <c r="P737" s="1"/>
+      <c r="Q737" s="1"/>
+    </row>
+    <row r="738" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M738" s="1"/>
+      <c r="N738" s="1"/>
+      <c r="O738" s="1"/>
+      <c r="P738" s="1"/>
+      <c r="Q738" s="1"/>
+    </row>
+    <row r="739" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M739" s="1"/>
+      <c r="N739" s="1"/>
+      <c r="O739" s="1"/>
+      <c r="P739" s="1"/>
+      <c r="Q739" s="1"/>
+    </row>
+    <row r="740" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M740" s="1"/>
+      <c r="N740" s="1"/>
+      <c r="O740" s="1"/>
+      <c r="P740" s="1"/>
+      <c r="Q740" s="1"/>
+    </row>
+    <row r="741" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M741" s="1"/>
+      <c r="N741" s="1"/>
+      <c r="O741" s="1"/>
+      <c r="P741" s="1"/>
+      <c r="Q741" s="1"/>
+    </row>
+    <row r="742" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M742" s="1"/>
+      <c r="N742" s="1"/>
+      <c r="O742" s="1"/>
+      <c r="P742" s="1"/>
+      <c r="Q742" s="1"/>
+    </row>
+    <row r="743" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M743" s="1"/>
+      <c r="N743" s="1"/>
+      <c r="O743" s="1"/>
+      <c r="P743" s="1"/>
+      <c r="Q743" s="1"/>
+    </row>
+    <row r="744" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M744" s="1"/>
+      <c r="N744" s="1"/>
+      <c r="O744" s="1"/>
+      <c r="P744" s="1"/>
+      <c r="Q744" s="1"/>
+    </row>
+    <row r="745" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M745" s="1"/>
+      <c r="N745" s="1"/>
+      <c r="O745" s="1"/>
+      <c r="P745" s="1"/>
+      <c r="Q745" s="1"/>
+    </row>
+    <row r="746" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M746" s="1"/>
+      <c r="N746" s="1"/>
+      <c r="O746" s="1"/>
+      <c r="P746" s="1"/>
+      <c r="Q746" s="1"/>
+    </row>
+    <row r="747" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M747" s="1"/>
+      <c r="N747" s="1"/>
+      <c r="O747" s="1"/>
+      <c r="P747" s="1"/>
+      <c r="Q747" s="1"/>
+    </row>
+    <row r="748" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M748" s="1"/>
+      <c r="N748" s="1"/>
+      <c r="O748" s="1"/>
+      <c r="P748" s="1"/>
+      <c r="Q748" s="1"/>
+    </row>
+    <row r="749" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M749" s="1"/>
+      <c r="N749" s="1"/>
+      <c r="O749" s="1"/>
+      <c r="P749" s="1"/>
+      <c r="Q749" s="1"/>
+    </row>
+    <row r="750" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M750" s="1"/>
+      <c r="N750" s="1"/>
+      <c r="O750" s="1"/>
+      <c r="P750" s="1"/>
+      <c r="Q750" s="1"/>
+    </row>
+    <row r="751" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M751" s="1"/>
+      <c r="N751" s="1"/>
+      <c r="O751" s="1"/>
+      <c r="P751" s="1"/>
+      <c r="Q751" s="1"/>
+    </row>
+    <row r="752" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M752" s="1"/>
+      <c r="N752" s="1"/>
+      <c r="O752" s="1"/>
+      <c r="P752" s="1"/>
+      <c r="Q752" s="1"/>
+    </row>
+    <row r="753" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M753" s="1"/>
+      <c r="N753" s="1"/>
+      <c r="O753" s="1"/>
+      <c r="P753" s="1"/>
+      <c r="Q753" s="1"/>
+    </row>
+    <row r="754" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M754" s="1"/>
+      <c r="N754" s="1"/>
+      <c r="O754" s="1"/>
+      <c r="P754" s="1"/>
+      <c r="Q754" s="1"/>
+    </row>
+    <row r="755" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M755" s="1"/>
+      <c r="N755" s="1"/>
+      <c r="O755" s="1"/>
+      <c r="P755" s="1"/>
+      <c r="Q755" s="1"/>
+    </row>
+    <row r="756" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M756" s="1"/>
+      <c r="N756" s="1"/>
+      <c r="O756" s="1"/>
+      <c r="P756" s="1"/>
+      <c r="Q756" s="1"/>
+    </row>
+    <row r="757" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M757" s="1"/>
+      <c r="N757" s="1"/>
+      <c r="O757" s="1"/>
+      <c r="P757" s="1"/>
+      <c r="Q757" s="1"/>
+    </row>
+    <row r="758" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M758" s="1"/>
+      <c r="N758" s="1"/>
+      <c r="O758" s="1"/>
+      <c r="P758" s="1"/>
+      <c r="Q758" s="1"/>
+    </row>
+    <row r="759" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M759" s="1"/>
+      <c r="N759" s="1"/>
+      <c r="O759" s="1"/>
+      <c r="P759" s="1"/>
+      <c r="Q759" s="1"/>
+    </row>
+    <row r="760" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M760" s="1"/>
+      <c r="N760" s="1"/>
+      <c r="O760" s="1"/>
+      <c r="P760" s="1"/>
+      <c r="Q760" s="1"/>
+    </row>
+    <row r="761" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M761" s="1"/>
+      <c r="N761" s="1"/>
+      <c r="O761" s="1"/>
+      <c r="P761" s="1"/>
+      <c r="Q761" s="1"/>
+    </row>
+    <row r="762" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M762" s="1"/>
+      <c r="N762" s="1"/>
+      <c r="O762" s="1"/>
+      <c r="P762" s="1"/>
+      <c r="Q762" s="1"/>
+    </row>
+    <row r="763" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M763" s="1"/>
+      <c r="N763" s="1"/>
+      <c r="O763" s="1"/>
+      <c r="P763" s="1"/>
+      <c r="Q763" s="1"/>
+    </row>
+    <row r="764" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M764" s="1"/>
+      <c r="N764" s="1"/>
+      <c r="O764" s="1"/>
+      <c r="P764" s="1"/>
+      <c r="Q764" s="1"/>
+    </row>
+    <row r="765" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M765" s="1"/>
+      <c r="N765" s="1"/>
+      <c r="O765" s="1"/>
+      <c r="P765" s="1"/>
+      <c r="Q765" s="1"/>
+    </row>
+    <row r="766" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M766" s="1"/>
+      <c r="N766" s="1"/>
+      <c r="O766" s="1"/>
+      <c r="P766" s="1"/>
+      <c r="Q766" s="1"/>
+    </row>
+    <row r="767" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M767" s="1"/>
+      <c r="N767" s="1"/>
+      <c r="O767" s="1"/>
+      <c r="P767" s="1"/>
+      <c r="Q767" s="1"/>
+    </row>
+    <row r="768" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M768" s="1"/>
+      <c r="N768" s="1"/>
+      <c r="O768" s="1"/>
+      <c r="P768" s="1"/>
+      <c r="Q768" s="1"/>
+    </row>
+    <row r="769" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M769" s="1"/>
+      <c r="N769" s="1"/>
+      <c r="O769" s="1"/>
+      <c r="P769" s="1"/>
+      <c r="Q769" s="1"/>
+    </row>
+    <row r="770" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M770" s="1"/>
+      <c r="N770" s="1"/>
+      <c r="O770" s="1"/>
+      <c r="P770" s="1"/>
+      <c r="Q770" s="1"/>
+    </row>
+    <row r="771" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M771" s="1"/>
+      <c r="N771" s="1"/>
+      <c r="O771" s="1"/>
+      <c r="P771" s="1"/>
+      <c r="Q771" s="1"/>
+    </row>
+    <row r="772" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M772" s="1"/>
+      <c r="N772" s="1"/>
+      <c r="O772" s="1"/>
+      <c r="P772" s="1"/>
+      <c r="Q772" s="1"/>
+    </row>
+    <row r="773" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M773" s="1"/>
+      <c r="N773" s="1"/>
+      <c r="O773" s="1"/>
+      <c r="P773" s="1"/>
+      <c r="Q773" s="1"/>
+    </row>
+    <row r="774" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M774" s="1"/>
+      <c r="N774" s="1"/>
+      <c r="O774" s="1"/>
+      <c r="P774" s="1"/>
+      <c r="Q774" s="1"/>
+    </row>
+    <row r="775" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M775" s="1"/>
+      <c r="N775" s="1"/>
+      <c r="O775" s="1"/>
+      <c r="P775" s="1"/>
+      <c r="Q775" s="1"/>
+    </row>
+    <row r="776" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M776" s="1"/>
+      <c r="N776" s="1"/>
+      <c r="O776" s="1"/>
+      <c r="P776" s="1"/>
+      <c r="Q776" s="1"/>
+    </row>
+    <row r="777" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M777" s="1"/>
+      <c r="N777" s="1"/>
+      <c r="O777" s="1"/>
+      <c r="P777" s="1"/>
+      <c r="Q777" s="1"/>
+    </row>
+    <row r="778" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M778" s="1"/>
+      <c r="N778" s="1"/>
+      <c r="O778" s="1"/>
+      <c r="P778" s="1"/>
+      <c r="Q778" s="1"/>
+    </row>
+    <row r="779" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M779" s="1"/>
+      <c r="N779" s="1"/>
+      <c r="O779" s="1"/>
+      <c r="P779" s="1"/>
+      <c r="Q779" s="1"/>
+    </row>
+    <row r="780" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M780" s="1"/>
+      <c r="N780" s="1"/>
+      <c r="O780" s="1"/>
+      <c r="P780" s="1"/>
+      <c r="Q780" s="1"/>
+    </row>
+    <row r="781" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M781" s="1"/>
+      <c r="N781" s="1"/>
+      <c r="O781" s="1"/>
+      <c r="P781" s="1"/>
+      <c r="Q781" s="1"/>
+    </row>
+    <row r="782" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M782" s="1"/>
+      <c r="N782" s="1"/>
+      <c r="O782" s="1"/>
+      <c r="P782" s="1"/>
+      <c r="Q782" s="1"/>
+    </row>
+    <row r="783" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M783" s="1"/>
+      <c r="N783" s="1"/>
+      <c r="O783" s="1"/>
+      <c r="P783" s="1"/>
+      <c r="Q783" s="1"/>
+    </row>
+    <row r="784" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M784" s="1"/>
+      <c r="N784" s="1"/>
+      <c r="O784" s="1"/>
+      <c r="P784" s="1"/>
+      <c r="Q784" s="1"/>
+    </row>
+    <row r="785" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M785" s="1"/>
+      <c r="N785" s="1"/>
+      <c r="O785" s="1"/>
+      <c r="P785" s="1"/>
+      <c r="Q785" s="1"/>
+    </row>
+    <row r="786" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M786" s="1"/>
+      <c r="N786" s="1"/>
+      <c r="O786" s="1"/>
+      <c r="P786" s="1"/>
+      <c r="Q786" s="1"/>
+    </row>
+    <row r="787" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M787" s="1"/>
+      <c r="N787" s="1"/>
+      <c r="O787" s="1"/>
+      <c r="P787" s="1"/>
+      <c r="Q787" s="1"/>
+    </row>
+    <row r="788" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M788" s="1"/>
+      <c r="N788" s="1"/>
+      <c r="O788" s="1"/>
+      <c r="P788" s="1"/>
+      <c r="Q788" s="1"/>
+    </row>
+    <row r="789" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M789" s="1"/>
+      <c r="N789" s="1"/>
+      <c r="O789" s="1"/>
+      <c r="P789" s="1"/>
+      <c r="Q789" s="1"/>
+    </row>
+    <row r="790" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M790" s="1"/>
+      <c r="N790" s="1"/>
+      <c r="O790" s="1"/>
+      <c r="P790" s="1"/>
+      <c r="Q790" s="1"/>
+    </row>
+    <row r="791" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M791" s="1"/>
+      <c r="N791" s="1"/>
+      <c r="O791" s="1"/>
+      <c r="P791" s="1"/>
+      <c r="Q791" s="1"/>
+    </row>
+    <row r="792" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M792" s="1"/>
+      <c r="N792" s="1"/>
+      <c r="O792" s="1"/>
+      <c r="P792" s="1"/>
+      <c r="Q792" s="1"/>
+    </row>
+    <row r="793" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M793" s="1"/>
+      <c r="N793" s="1"/>
+      <c r="O793" s="1"/>
+      <c r="P793" s="1"/>
+      <c r="Q793" s="1"/>
+    </row>
+    <row r="794" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M794" s="1"/>
+      <c r="N794" s="1"/>
+      <c r="O794" s="1"/>
+      <c r="P794" s="1"/>
+      <c r="Q794" s="1"/>
+    </row>
+    <row r="795" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M795" s="1"/>
+      <c r="N795" s="1"/>
+      <c r="O795" s="1"/>
+      <c r="P795" s="1"/>
+      <c r="Q795" s="1"/>
+    </row>
+    <row r="796" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M796" s="1"/>
+      <c r="N796" s="1"/>
+      <c r="O796" s="1"/>
+      <c r="P796" s="1"/>
+      <c r="Q796" s="1"/>
+    </row>
+    <row r="797" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M797" s="1"/>
+      <c r="N797" s="1"/>
+      <c r="O797" s="1"/>
+      <c r="P797" s="1"/>
+      <c r="Q797" s="1"/>
+    </row>
+    <row r="798" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M798" s="1"/>
+      <c r="N798" s="1"/>
+      <c r="O798" s="1"/>
+      <c r="P798" s="1"/>
+      <c r="Q798" s="1"/>
+    </row>
+    <row r="799" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M799" s="1"/>
+      <c r="N799" s="1"/>
+      <c r="O799" s="1"/>
+      <c r="P799" s="1"/>
+      <c r="Q799" s="1"/>
+    </row>
+    <row r="800" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M800" s="1"/>
+      <c r="N800" s="1"/>
+      <c r="O800" s="1"/>
+      <c r="P800" s="1"/>
+      <c r="Q800" s="1"/>
+    </row>
+    <row r="801" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M801" s="1"/>
+      <c r="N801" s="1"/>
+      <c r="O801" s="1"/>
+      <c r="P801" s="1"/>
+      <c r="Q801" s="1"/>
+    </row>
+    <row r="802" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M802" s="1"/>
+      <c r="N802" s="1"/>
+      <c r="O802" s="1"/>
+      <c r="P802" s="1"/>
+      <c r="Q802" s="1"/>
+    </row>
+    <row r="803" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M803" s="1"/>
+      <c r="N803" s="1"/>
+      <c r="O803" s="1"/>
+      <c r="P803" s="1"/>
+      <c r="Q803" s="1"/>
+    </row>
+    <row r="804" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M804" s="1"/>
+      <c r="N804" s="1"/>
+      <c r="O804" s="1"/>
+      <c r="P804" s="1"/>
+      <c r="Q804" s="1"/>
+    </row>
+    <row r="805" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M805" s="1"/>
+      <c r="N805" s="1"/>
+      <c r="O805" s="1"/>
+      <c r="P805" s="1"/>
+      <c r="Q805" s="1"/>
+    </row>
+    <row r="806" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M806" s="1"/>
+      <c r="N806" s="1"/>
+      <c r="O806" s="1"/>
+      <c r="P806" s="1"/>
+      <c r="Q806" s="1"/>
+    </row>
+    <row r="807" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M807" s="1"/>
+      <c r="N807" s="1"/>
+      <c r="O807" s="1"/>
+      <c r="P807" s="1"/>
+      <c r="Q807" s="1"/>
+    </row>
+    <row r="808" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M808" s="1"/>
+      <c r="N808" s="1"/>
+      <c r="O808" s="1"/>
+      <c r="P808" s="1"/>
+      <c r="Q808" s="1"/>
+    </row>
+    <row r="809" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M809" s="1"/>
+      <c r="N809" s="1"/>
+      <c r="O809" s="1"/>
+      <c r="P809" s="1"/>
+      <c r="Q809" s="1"/>
+    </row>
+    <row r="810" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M810" s="1"/>
+      <c r="N810" s="1"/>
+      <c r="O810" s="1"/>
+      <c r="P810" s="1"/>
+      <c r="Q810" s="1"/>
+    </row>
+    <row r="811" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M811" s="1"/>
+      <c r="N811" s="1"/>
+      <c r="O811" s="1"/>
+      <c r="P811" s="1"/>
+      <c r="Q811" s="1"/>
+    </row>
+    <row r="812" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M812" s="1"/>
+      <c r="N812" s="1"/>
+      <c r="O812" s="1"/>
+      <c r="P812" s="1"/>
+      <c r="Q812" s="1"/>
+    </row>
+    <row r="813" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M813" s="1"/>
+      <c r="N813" s="1"/>
+      <c r="O813" s="1"/>
+      <c r="P813" s="1"/>
+      <c r="Q813" s="1"/>
+    </row>
+    <row r="814" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M814" s="1"/>
+      <c r="N814" s="1"/>
+      <c r="O814" s="1"/>
+      <c r="P814" s="1"/>
+      <c r="Q814" s="1"/>
+    </row>
+    <row r="815" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M815" s="1"/>
+      <c r="N815" s="1"/>
+      <c r="O815" s="1"/>
+      <c r="P815" s="1"/>
+      <c r="Q815" s="1"/>
+    </row>
+    <row r="816" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M816" s="1"/>
+      <c r="N816" s="1"/>
+      <c r="O816" s="1"/>
+      <c r="P816" s="1"/>
+      <c r="Q816" s="1"/>
+    </row>
+    <row r="817" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M817" s="1"/>
+      <c r="N817" s="1"/>
+      <c r="O817" s="1"/>
+      <c r="P817" s="1"/>
+      <c r="Q817" s="1"/>
+    </row>
+    <row r="818" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M818" s="1"/>
+      <c r="N818" s="1"/>
+      <c r="O818" s="1"/>
+      <c r="P818" s="1"/>
+      <c r="Q818" s="1"/>
+    </row>
+    <row r="819" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M819" s="1"/>
+      <c r="N819" s="1"/>
+      <c r="O819" s="1"/>
+      <c r="P819" s="1"/>
+      <c r="Q819" s="1"/>
+    </row>
+    <row r="820" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M820" s="1"/>
+      <c r="N820" s="1"/>
+      <c r="O820" s="1"/>
+      <c r="P820" s="1"/>
+      <c r="Q820" s="1"/>
+    </row>
+    <row r="821" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M821" s="1"/>
+      <c r="N821" s="1"/>
+      <c r="O821" s="1"/>
+      <c r="P821" s="1"/>
+      <c r="Q821" s="1"/>
+    </row>
+    <row r="822" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M822" s="1"/>
+      <c r="N822" s="1"/>
+      <c r="O822" s="1"/>
+      <c r="P822" s="1"/>
+      <c r="Q822" s="1"/>
+    </row>
+    <row r="823" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M823" s="1"/>
+      <c r="N823" s="1"/>
+      <c r="O823" s="1"/>
+      <c r="P823" s="1"/>
+      <c r="Q823" s="1"/>
+    </row>
+    <row r="824" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M824" s="1"/>
+      <c r="N824" s="1"/>
+      <c r="O824" s="1"/>
+      <c r="P824" s="1"/>
+      <c r="Q824" s="1"/>
+    </row>
+    <row r="825" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M825" s="1"/>
+      <c r="N825" s="1"/>
+      <c r="O825" s="1"/>
+      <c r="P825" s="1"/>
+      <c r="Q825" s="1"/>
+    </row>
+    <row r="826" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M826" s="1"/>
+      <c r="N826" s="1"/>
+      <c r="O826" s="1"/>
+      <c r="P826" s="1"/>
+      <c r="Q826" s="1"/>
+    </row>
+    <row r="827" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M827" s="1"/>
+      <c r="N827" s="1"/>
+      <c r="O827" s="1"/>
+      <c r="P827" s="1"/>
+      <c r="Q827" s="1"/>
+    </row>
+    <row r="828" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M828" s="1"/>
+      <c r="N828" s="1"/>
+      <c r="O828" s="1"/>
+      <c r="P828" s="1"/>
+      <c r="Q828" s="1"/>
+    </row>
+    <row r="829" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M829" s="1"/>
+      <c r="N829" s="1"/>
+      <c r="O829" s="1"/>
+      <c r="P829" s="1"/>
+      <c r="Q829" s="1"/>
+    </row>
+    <row r="830" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M830" s="1"/>
+      <c r="N830" s="1"/>
+      <c r="O830" s="1"/>
+      <c r="P830" s="1"/>
+      <c r="Q830" s="1"/>
+    </row>
+    <row r="831" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M831" s="1"/>
+      <c r="N831" s="1"/>
+      <c r="O831" s="1"/>
+      <c r="P831" s="1"/>
+      <c r="Q831" s="1"/>
+    </row>
+    <row r="832" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M832" s="1"/>
+      <c r="N832" s="1"/>
+      <c r="O832" s="1"/>
+      <c r="P832" s="1"/>
+      <c r="Q832" s="1"/>
+    </row>
+    <row r="833" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M833" s="1"/>
+      <c r="N833" s="1"/>
+      <c r="O833" s="1"/>
+      <c r="P833" s="1"/>
+      <c r="Q833" s="1"/>
+    </row>
+    <row r="834" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M834" s="1"/>
+      <c r="N834" s="1"/>
+      <c r="O834" s="1"/>
+      <c r="P834" s="1"/>
+      <c r="Q834" s="1"/>
+    </row>
+    <row r="835" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M835" s="1"/>
+      <c r="N835" s="1"/>
+      <c r="O835" s="1"/>
+      <c r="P835" s="1"/>
+      <c r="Q835" s="1"/>
+    </row>
+    <row r="836" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M836" s="1"/>
+      <c r="N836" s="1"/>
+      <c r="O836" s="1"/>
+      <c r="P836" s="1"/>
+      <c r="Q836" s="1"/>
+    </row>
+    <row r="837" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M837" s="1"/>
+      <c r="N837" s="1"/>
+      <c r="O837" s="1"/>
+      <c r="P837" s="1"/>
+      <c r="Q837" s="1"/>
+    </row>
+    <row r="838" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M838" s="1"/>
+      <c r="N838" s="1"/>
+      <c r="O838" s="1"/>
+      <c r="P838" s="1"/>
+      <c r="Q838" s="1"/>
+    </row>
+    <row r="839" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M839" s="1"/>
+      <c r="N839" s="1"/>
+      <c r="O839" s="1"/>
+      <c r="P839" s="1"/>
+      <c r="Q839" s="1"/>
+    </row>
+    <row r="840" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M840" s="1"/>
+      <c r="N840" s="1"/>
+      <c r="O840" s="1"/>
+      <c r="P840" s="1"/>
+      <c r="Q840" s="1"/>
+    </row>
+    <row r="841" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M841" s="1"/>
+      <c r="N841" s="1"/>
+      <c r="O841" s="1"/>
+      <c r="P841" s="1"/>
+      <c r="Q841" s="1"/>
+    </row>
+    <row r="842" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M842" s="1"/>
+      <c r="N842" s="1"/>
+      <c r="O842" s="1"/>
+      <c r="P842" s="1"/>
+      <c r="Q842" s="1"/>
+    </row>
+    <row r="843" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M843" s="1"/>
+      <c r="N843" s="1"/>
+      <c r="O843" s="1"/>
+      <c r="P843" s="1"/>
+      <c r="Q843" s="1"/>
+    </row>
+    <row r="844" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M844" s="1"/>
+      <c r="N844" s="1"/>
+      <c r="O844" s="1"/>
+      <c r="P844" s="1"/>
+      <c r="Q844" s="1"/>
+    </row>
+    <row r="845" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M845" s="1"/>
+      <c r="N845" s="1"/>
+      <c r="O845" s="1"/>
+      <c r="P845" s="1"/>
+      <c r="Q845" s="1"/>
+    </row>
+    <row r="846" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M846" s="1"/>
+      <c r="N846" s="1"/>
+      <c r="O846" s="1"/>
+      <c r="P846" s="1"/>
+      <c r="Q846" s="1"/>
+    </row>
+    <row r="847" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M847" s="1"/>
+      <c r="N847" s="1"/>
+      <c r="O847" s="1"/>
+      <c r="P847" s="1"/>
+      <c r="Q847" s="1"/>
+    </row>
+    <row r="848" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M848" s="1"/>
+      <c r="N848" s="1"/>
+      <c r="O848" s="1"/>
+      <c r="P848" s="1"/>
+      <c r="Q848" s="1"/>
+    </row>
+    <row r="849" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M849" s="1"/>
+      <c r="N849" s="1"/>
+      <c r="O849" s="1"/>
+      <c r="P849" s="1"/>
+      <c r="Q849" s="1"/>
+    </row>
+    <row r="850" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M850" s="1"/>
+      <c r="N850" s="1"/>
+      <c r="O850" s="1"/>
+      <c r="P850" s="1"/>
+      <c r="Q850" s="1"/>
+    </row>
+    <row r="851" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M851" s="1"/>
+      <c r="N851" s="1"/>
+      <c r="O851" s="1"/>
+      <c r="P851" s="1"/>
+      <c r="Q851" s="1"/>
+    </row>
+    <row r="852" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M852" s="1"/>
+      <c r="N852" s="1"/>
+      <c r="O852" s="1"/>
+      <c r="P852" s="1"/>
+      <c r="Q852" s="1"/>
+    </row>
+    <row r="853" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M853" s="1"/>
+      <c r="N853" s="1"/>
+      <c r="O853" s="1"/>
+      <c r="P853" s="1"/>
+      <c r="Q853" s="1"/>
+    </row>
+    <row r="854" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M854" s="1"/>
+      <c r="N854" s="1"/>
+      <c r="O854" s="1"/>
+      <c r="P854" s="1"/>
+      <c r="Q854" s="1"/>
+    </row>
+    <row r="855" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M855" s="1"/>
+      <c r="N855" s="1"/>
+      <c r="O855" s="1"/>
+      <c r="P855" s="1"/>
+      <c r="Q855" s="1"/>
+    </row>
+    <row r="856" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M856" s="1"/>
+      <c r="N856" s="1"/>
+      <c r="O856" s="1"/>
+      <c r="P856" s="1"/>
+      <c r="Q856" s="1"/>
+    </row>
+    <row r="857" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M857" s="1"/>
+      <c r="N857" s="1"/>
+      <c r="O857" s="1"/>
+      <c r="P857" s="1"/>
+      <c r="Q857" s="1"/>
+    </row>
+    <row r="858" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M858" s="1"/>
+      <c r="N858" s="1"/>
+      <c r="O858" s="1"/>
+      <c r="P858" s="1"/>
+      <c r="Q858" s="1"/>
+    </row>
+    <row r="859" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M859" s="1"/>
+      <c r="N859" s="1"/>
+      <c r="O859" s="1"/>
+      <c r="P859" s="1"/>
+      <c r="Q859" s="1"/>
+    </row>
+    <row r="860" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M860" s="1"/>
+      <c r="N860" s="1"/>
+      <c r="O860" s="1"/>
+      <c r="P860" s="1"/>
+      <c r="Q860" s="1"/>
+    </row>
+    <row r="861" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M861" s="1"/>
+      <c r="N861" s="1"/>
+      <c r="O861" s="1"/>
+      <c r="P861" s="1"/>
+      <c r="Q861" s="1"/>
+    </row>
+    <row r="862" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M862" s="1"/>
+      <c r="N862" s="1"/>
+      <c r="O862" s="1"/>
+      <c r="P862" s="1"/>
+      <c r="Q862" s="1"/>
+    </row>
+    <row r="863" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M863" s="1"/>
+      <c r="N863" s="1"/>
+      <c r="O863" s="1"/>
+      <c r="P863" s="1"/>
+      <c r="Q863" s="1"/>
+    </row>
+    <row r="864" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M864" s="1"/>
+      <c r="N864" s="1"/>
+      <c r="O864" s="1"/>
+      <c r="P864" s="1"/>
+      <c r="Q864" s="1"/>
+    </row>
+    <row r="865" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M865" s="1"/>
+      <c r="N865" s="1"/>
+      <c r="O865" s="1"/>
+      <c r="P865" s="1"/>
+      <c r="Q865" s="1"/>
+    </row>
+    <row r="866" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M866" s="1"/>
+      <c r="N866" s="1"/>
+      <c r="O866" s="1"/>
+      <c r="P866" s="1"/>
+      <c r="Q866" s="1"/>
+    </row>
+    <row r="867" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M867" s="1"/>
+      <c r="N867" s="1"/>
+      <c r="O867" s="1"/>
+      <c r="P867" s="1"/>
+      <c r="Q867" s="1"/>
+    </row>
+    <row r="868" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M868" s="1"/>
+      <c r="N868" s="1"/>
+      <c r="O868" s="1"/>
+      <c r="P868" s="1"/>
+      <c r="Q868" s="1"/>
+    </row>
+    <row r="869" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M869" s="1"/>
+      <c r="N869" s="1"/>
+      <c r="O869" s="1"/>
+      <c r="P869" s="1"/>
+      <c r="Q869" s="1"/>
+    </row>
+    <row r="870" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M870" s="1"/>
+      <c r="N870" s="1"/>
+      <c r="O870" s="1"/>
+      <c r="P870" s="1"/>
+      <c r="Q870" s="1"/>
+    </row>
+    <row r="871" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M871" s="1"/>
+      <c r="N871" s="1"/>
+      <c r="O871" s="1"/>
+      <c r="P871" s="1"/>
+      <c r="Q871" s="1"/>
+    </row>
+    <row r="872" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M872" s="1"/>
+      <c r="N872" s="1"/>
+      <c r="O872" s="1"/>
+      <c r="P872" s="1"/>
+      <c r="Q872" s="1"/>
+    </row>
+    <row r="873" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M873" s="1"/>
+      <c r="N873" s="1"/>
+      <c r="O873" s="1"/>
+      <c r="P873" s="1"/>
+      <c r="Q873" s="1"/>
+    </row>
+    <row r="874" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M874" s="1"/>
+      <c r="N874" s="1"/>
+      <c r="O874" s="1"/>
+      <c r="P874" s="1"/>
+      <c r="Q874" s="1"/>
+    </row>
+    <row r="875" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M875" s="1"/>
+      <c r="N875" s="1"/>
+      <c r="O875" s="1"/>
+      <c r="P875" s="1"/>
+      <c r="Q875" s="1"/>
+    </row>
+    <row r="876" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M876" s="1"/>
+      <c r="N876" s="1"/>
+      <c r="O876" s="1"/>
+      <c r="P876" s="1"/>
+      <c r="Q876" s="1"/>
+    </row>
+    <row r="877" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M877" s="1"/>
+      <c r="N877" s="1"/>
+      <c r="O877" s="1"/>
+      <c r="P877" s="1"/>
+      <c r="Q877" s="1"/>
+    </row>
+    <row r="878" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M878" s="1"/>
+      <c r="N878" s="1"/>
+      <c r="O878" s="1"/>
+      <c r="P878" s="1"/>
+      <c r="Q878" s="1"/>
+    </row>
+    <row r="879" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M879" s="1"/>
+      <c r="N879" s="1"/>
+      <c r="O879" s="1"/>
+      <c r="P879" s="1"/>
+      <c r="Q879" s="1"/>
+    </row>
+    <row r="880" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M880" s="1"/>
+      <c r="N880" s="1"/>
+      <c r="O880" s="1"/>
+      <c r="P880" s="1"/>
+      <c r="Q880" s="1"/>
+    </row>
+    <row r="881" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M881" s="1"/>
+      <c r="N881" s="1"/>
+      <c r="O881" s="1"/>
+      <c r="P881" s="1"/>
+      <c r="Q881" s="1"/>
+    </row>
+    <row r="882" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M882" s="1"/>
+      <c r="N882" s="1"/>
+      <c r="O882" s="1"/>
+      <c r="P882" s="1"/>
+      <c r="Q882" s="1"/>
+    </row>
+    <row r="883" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M883" s="1"/>
+      <c r="N883" s="1"/>
+      <c r="O883" s="1"/>
+      <c r="P883" s="1"/>
+      <c r="Q883" s="1"/>
+    </row>
+    <row r="884" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M884" s="1"/>
+      <c r="N884" s="1"/>
+      <c r="O884" s="1"/>
+      <c r="P884" s="1"/>
+      <c r="Q884" s="1"/>
+    </row>
+    <row r="885" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M885" s="1"/>
+      <c r="N885" s="1"/>
+      <c r="O885" s="1"/>
+      <c r="P885" s="1"/>
+      <c r="Q885" s="1"/>
+    </row>
+    <row r="886" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M886" s="1"/>
+      <c r="N886" s="1"/>
+      <c r="O886" s="1"/>
+      <c r="P886" s="1"/>
+      <c r="Q886" s="1"/>
+    </row>
+    <row r="887" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M887" s="1"/>
+      <c r="N887" s="1"/>
+      <c r="O887" s="1"/>
+      <c r="P887" s="1"/>
+      <c r="Q887" s="1"/>
+    </row>
+    <row r="888" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M888" s="1"/>
+      <c r="N888" s="1"/>
+      <c r="O888" s="1"/>
+      <c r="P888" s="1"/>
+      <c r="Q888" s="1"/>
+    </row>
+    <row r="889" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M889" s="1"/>
+      <c r="N889" s="1"/>
+      <c r="O889" s="1"/>
+      <c r="P889" s="1"/>
+      <c r="Q889" s="1"/>
+    </row>
+    <row r="890" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M890" s="1"/>
+      <c r="N890" s="1"/>
+      <c r="O890" s="1"/>
+      <c r="P890" s="1"/>
+      <c r="Q890" s="1"/>
+    </row>
+    <row r="891" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M891" s="1"/>
+      <c r="N891" s="1"/>
+      <c r="O891" s="1"/>
+      <c r="P891" s="1"/>
+      <c r="Q891" s="1"/>
+    </row>
+    <row r="892" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M892" s="1"/>
+      <c r="N892" s="1"/>
+      <c r="O892" s="1"/>
+      <c r="P892" s="1"/>
+      <c r="Q892" s="1"/>
+    </row>
+    <row r="893" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M893" s="1"/>
+      <c r="N893" s="1"/>
+      <c r="O893" s="1"/>
+      <c r="P893" s="1"/>
+      <c r="Q893" s="1"/>
+    </row>
+    <row r="894" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M894" s="1"/>
+      <c r="N894" s="1"/>
+      <c r="O894" s="1"/>
+      <c r="P894" s="1"/>
+      <c r="Q894" s="1"/>
+    </row>
+    <row r="895" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M895" s="1"/>
+      <c r="N895" s="1"/>
+      <c r="O895" s="1"/>
+      <c r="P895" s="1"/>
+      <c r="Q895" s="1"/>
+    </row>
+    <row r="896" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M896" s="1"/>
+      <c r="N896" s="1"/>
+      <c r="O896" s="1"/>
+      <c r="P896" s="1"/>
+      <c r="Q896" s="1"/>
+    </row>
+    <row r="897" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M897" s="1"/>
+      <c r="N897" s="1"/>
+      <c r="O897" s="1"/>
+      <c r="P897" s="1"/>
+      <c r="Q897" s="1"/>
+    </row>
+    <row r="898" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M898" s="1"/>
+      <c r="N898" s="1"/>
+      <c r="O898" s="1"/>
+      <c r="P898" s="1"/>
+      <c r="Q898" s="1"/>
+    </row>
+    <row r="899" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M899" s="1"/>
+      <c r="N899" s="1"/>
+      <c r="O899" s="1"/>
+      <c r="P899" s="1"/>
+      <c r="Q899" s="1"/>
+    </row>
+    <row r="900" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M900" s="1"/>
+      <c r="N900" s="1"/>
+      <c r="O900" s="1"/>
+      <c r="P900" s="1"/>
+      <c r="Q900" s="1"/>
+    </row>
+    <row r="901" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M901" s="1"/>
+      <c r="N901" s="1"/>
+      <c r="O901" s="1"/>
+      <c r="P901" s="1"/>
+      <c r="Q901" s="1"/>
+    </row>
+    <row r="902" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M902" s="1"/>
+      <c r="N902" s="1"/>
+      <c r="O902" s="1"/>
+      <c r="P902" s="1"/>
+      <c r="Q902" s="1"/>
+    </row>
+    <row r="903" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M903" s="1"/>
+      <c r="N903" s="1"/>
+      <c r="O903" s="1"/>
+      <c r="P903" s="1"/>
+      <c r="Q903" s="1"/>
+    </row>
+    <row r="904" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M904" s="1"/>
+      <c r="N904" s="1"/>
+      <c r="O904" s="1"/>
+      <c r="P904" s="1"/>
+      <c r="Q904" s="1"/>
+    </row>
+    <row r="905" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M905" s="1"/>
+      <c r="N905" s="1"/>
+      <c r="O905" s="1"/>
+      <c r="P905" s="1"/>
+      <c r="Q905" s="1"/>
+    </row>
+    <row r="906" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M906" s="1"/>
+      <c r="N906" s="1"/>
+      <c r="O906" s="1"/>
+      <c r="P906" s="1"/>
+      <c r="Q906" s="1"/>
+    </row>
+    <row r="907" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M907" s="1"/>
+      <c r="N907" s="1"/>
+      <c r="O907" s="1"/>
+      <c r="P907" s="1"/>
+      <c r="Q907" s="1"/>
+    </row>
+    <row r="908" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M908" s="1"/>
+      <c r="N908" s="1"/>
+      <c r="O908" s="1"/>
+      <c r="P908" s="1"/>
+      <c r="Q908" s="1"/>
+    </row>
+    <row r="909" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M909" s="1"/>
+      <c r="N909" s="1"/>
+      <c r="O909" s="1"/>
+      <c r="P909" s="1"/>
+      <c r="Q909" s="1"/>
+    </row>
+    <row r="910" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M910" s="1"/>
+      <c r="N910" s="1"/>
+      <c r="O910" s="1"/>
+      <c r="P910" s="1"/>
+      <c r="Q910" s="1"/>
+    </row>
+    <row r="911" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M911" s="1"/>
+      <c r="N911" s="1"/>
+      <c r="O911" s="1"/>
+      <c r="P911" s="1"/>
+      <c r="Q911" s="1"/>
+    </row>
+    <row r="912" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M912" s="1"/>
+      <c r="N912" s="1"/>
+      <c r="O912" s="1"/>
+      <c r="P912" s="1"/>
+      <c r="Q912" s="1"/>
+    </row>
+    <row r="913" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M913" s="1"/>
+      <c r="N913" s="1"/>
+      <c r="O913" s="1"/>
+      <c r="P913" s="1"/>
+      <c r="Q913" s="1"/>
+    </row>
+    <row r="914" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M914" s="1"/>
+      <c r="N914" s="1"/>
+      <c r="O914" s="1"/>
+      <c r="P914" s="1"/>
+      <c r="Q914" s="1"/>
+    </row>
+    <row r="915" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M915" s="1"/>
+      <c r="N915" s="1"/>
+      <c r="O915" s="1"/>
+      <c r="P915" s="1"/>
+      <c r="Q915" s="1"/>
+    </row>
+    <row r="916" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M916" s="1"/>
+      <c r="N916" s="1"/>
+      <c r="O916" s="1"/>
+      <c r="P916" s="1"/>
+      <c r="Q916" s="1"/>
+    </row>
+    <row r="917" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M917" s="1"/>
+      <c r="N917" s="1"/>
+      <c r="O917" s="1"/>
+      <c r="P917" s="1"/>
+      <c r="Q917" s="1"/>
+    </row>
+    <row r="918" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M918" s="1"/>
+      <c r="N918" s="1"/>
+      <c r="O918" s="1"/>
+      <c r="P918" s="1"/>
+      <c r="Q918" s="1"/>
+    </row>
+    <row r="919" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M919" s="1"/>
+      <c r="N919" s="1"/>
+      <c r="O919" s="1"/>
+      <c r="P919" s="1"/>
+      <c r="Q919" s="1"/>
+    </row>
+    <row r="920" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M920" s="1"/>
+      <c r="N920" s="1"/>
+      <c r="O920" s="1"/>
+      <c r="P920" s="1"/>
+      <c r="Q920" s="1"/>
+    </row>
+    <row r="921" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M921" s="1"/>
+      <c r="N921" s="1"/>
+      <c r="O921" s="1"/>
+      <c r="P921" s="1"/>
+      <c r="Q921" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P68">

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16CF46-034D-478E-A5E6-A89032BCC823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF6106-EE37-41B0-9341-2F3D9473EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="2385" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1830" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Image</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>250329_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250330_BSHNL_0</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G86" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G87" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5345,11 +5348,58 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>30</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>5</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M88" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF6106-EE37-41B0-9341-2F3D9473EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD0674-50C0-41AD-860B-76247B330444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1830" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30450" yWindow="2745" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Image</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>250330_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250401_MLTRE_0</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
   <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G87" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G88" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5402,11 +5405,58 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M89" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CD0674-50C0-41AD-860B-76247B330444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65867C53-7CA8-4C68-9FB5-BA062A07FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="2745" windowWidth="24330" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Image</t>
   </si>
@@ -337,6 +337,27 @@
   </si>
   <si>
     <t>250401_MLTRE_0</t>
+  </si>
+  <si>
+    <t>250411_KEN1_0</t>
+  </si>
+  <si>
+    <t>250410_KEN1_0</t>
+  </si>
+  <si>
+    <t>250410_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250411_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250413_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250414_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250415_KEN1_0</t>
   </si>
 </sst>
 </file>
@@ -684,7 +705,7 @@
   <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q88" sqref="Q88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -4864,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -4918,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -4972,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -5046,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G88" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G95" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5080,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -5188,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
@@ -5242,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -5296,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
@@ -5350,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>102</v>
       </c>
@@ -5459,53 +5480,382 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>15</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>11</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>5</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M96" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65867C53-7CA8-4C68-9FB5-BA062A07FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC1B99-2994-4B37-8D1F-7C73C0F9E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31740" yWindow="1740" windowWidth="19275" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Image</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>250415_KEN1_0</t>
+  </si>
+  <si>
+    <t>250421_KEN1_0</t>
+  </si>
+  <si>
+    <t>250421_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250421_TRLCAM_0</t>
   </si>
 </sst>
 </file>
@@ -705,7 +714,7 @@
   <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G95" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G98" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5858,118 +5867,259 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1">
+        <v>21</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>4</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>21</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1">
+        <v>21</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC1B99-2994-4B37-8D1F-7C73C0F9E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24552679-F3F1-472F-8465-3F5C1DB34C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="1740" windowWidth="19275" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="5445" windowWidth="19275" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Image</t>
   </si>
@@ -367,6 +367,24 @@
   </si>
   <si>
     <t>250421_TRLCAM_0</t>
+  </si>
+  <si>
+    <t>250422_KEN1_0</t>
+  </si>
+  <si>
+    <t>250424_KEN1_0</t>
+  </si>
+  <si>
+    <t>250425_KEN1_0</t>
+  </si>
+  <si>
+    <t>250426_STLTH_0</t>
+  </si>
+  <si>
+    <t>250427_KEN1_0</t>
+  </si>
+  <si>
+    <t>250427_KEN1_1</t>
   </si>
 </sst>
 </file>
@@ -714,7 +732,7 @@
   <dimension ref="A1:Q921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G98" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G104" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5434,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
@@ -5596,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
@@ -5650,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -5704,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
@@ -5758,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -5812,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
@@ -5866,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -5920,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -5974,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -6029,46 +6047,328 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>22</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>24</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>5</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>25</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>26</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
+        <v>27</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>27</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M105" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24552679-F3F1-472F-8465-3F5C1DB34C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD82F7-03A0-4532-97EF-861517043FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="5445" windowWidth="19275" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="3555" windowWidth="17595" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Image</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>250427_KEN1_1</t>
+  </si>
+  <si>
+    <t>250428_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250501_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250504_KEN1_0</t>
+  </si>
+  <si>
+    <t>250504_KEN1_1</t>
+  </si>
+  <si>
+    <t>250504_STLTH_0</t>
   </si>
 </sst>
 </file>
@@ -731,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M101" sqref="M101"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G104" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G109" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -6371,39 +6386,274 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1">
+        <v>28</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>7</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>4</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>4</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>4</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+      <c r="P108" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M110" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD82F7-03A0-4532-97EF-861517043FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50D79D4-0FD2-4904-BE4A-349EFC23B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="3555" windowWidth="17595" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Image</t>
   </si>
@@ -400,6 +411,21 @@
   </si>
   <si>
     <t>250504_STLTH_0</t>
+  </si>
+  <si>
+    <t>250526_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250525_STLTH_0</t>
+  </si>
+  <si>
+    <t>250523_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250528_STLTH_0</t>
+  </si>
+  <si>
+    <t>250608_TC1_0</t>
   </si>
 </sst>
 </file>
@@ -744,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q921"/>
+  <dimension ref="A1:R921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G109" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G114" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -6656,132 +6682,368 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>23</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>25</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>28</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CD82F7-03A0-4532-97EF-861517043FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6480008-933B-47AB-8914-DF31C63B3C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="3555" windowWidth="17595" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29205" yWindow="-240" windowWidth="21075" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Image</t>
   </si>
@@ -400,6 +411,33 @@
   </si>
   <si>
     <t>250504_STLTH_0</t>
+  </si>
+  <si>
+    <t>250526_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250525_STLTH_0</t>
+  </si>
+  <si>
+    <t>250523_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250528_STLTH_0</t>
+  </si>
+  <si>
+    <t>250608_TC1_0</t>
+  </si>
+  <si>
+    <t>250612_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250618_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250618_TC1</t>
+  </si>
+  <si>
+    <t>250619_KEN1_0</t>
   </si>
 </sst>
 </file>
@@ -744,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q921"/>
+  <dimension ref="A1:R921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G109" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G118" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -6656,132 +6694,555 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>23</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>25</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>28</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C114" s="1">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1">
+        <v>12</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C116" s="1">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C117" s="1">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>18</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C118" s="1">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1">
+        <v>19</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC7D4CD-C351-4EE9-A373-CD66E0875745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614E15A-51D3-4063-A081-30362A8DFD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="-240" windowWidth="11685" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="705" windowWidth="16995" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Image</t>
   </si>
@@ -438,6 +438,30 @@
   </si>
   <si>
     <t>250618_TC1_0</t>
+  </si>
+  <si>
+    <t>250612_CAM1_0</t>
+  </si>
+  <si>
+    <t>250611_CAM1_0</t>
+  </si>
+  <si>
+    <t>250610_CAM1_1</t>
+  </si>
+  <si>
+    <t>250602_CAM1_0</t>
+  </si>
+  <si>
+    <t>250601_CAM1_0</t>
+  </si>
+  <si>
+    <t>250524_CAM1_0</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>250523_CAM1_0</t>
   </si>
 </sst>
 </file>
@@ -782,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R921"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,13 +826,14 @@
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,8 +885,11 @@
       <c r="Q1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -915,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -969,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1023,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1347,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -1401,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1455,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1509,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -5147,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G117" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G125" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -5991,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -6045,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -6099,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
@@ -6152,8 +6180,11 @@
       <c r="Q99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -6206,8 +6237,11 @@
       <c r="Q100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
@@ -6260,8 +6294,11 @@
       <c r="Q101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -6314,8 +6351,11 @@
       <c r="Q102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -6368,8 +6408,11 @@
       <c r="Q103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -6422,8 +6465,11 @@
       <c r="Q104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
@@ -6476,8 +6522,11 @@
       <c r="Q105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -6530,8 +6579,11 @@
       <c r="Q106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -6584,8 +6636,11 @@
       <c r="Q107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
@@ -6638,8 +6693,11 @@
       <c r="Q108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -6692,8 +6750,11 @@
       <c r="Q109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -6746,8 +6807,11 @@
       <c r="Q110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
@@ -6800,8 +6864,11 @@
       <c r="Q111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -6852,6 +6919,9 @@
         <v>0</v>
       </c>
       <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6908,6 +6978,9 @@
       <c r="Q113" s="1">
         <v>0</v>
       </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -6962,7 +7035,9 @@
       <c r="Q114" s="1">
         <v>0</v>
       </c>
-      <c r="R114" s="1"/>
+      <c r="R114" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -7017,6 +7092,9 @@
       <c r="Q115" s="1">
         <v>0</v>
       </c>
+      <c r="R115" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -7071,6 +7149,9 @@
       <c r="Q116" s="1">
         <v>0</v>
       </c>
+      <c r="R116" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -7125,6 +7206,9 @@
       <c r="Q117" s="1">
         <v>0</v>
       </c>
+      <c r="R117" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -7146,7 +7230,8 @@
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -7178,5627 +7263,408 @@
       <c r="Q118" s="1">
         <v>0</v>
       </c>
+      <c r="R118" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C119" s="1">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>0</v>
+      </c>
+      <c r="R119" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C120" s="1">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>0</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>0</v>
+      </c>
+      <c r="R121" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C122" s="1">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>0</v>
+      </c>
+      <c r="R122" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C123" s="1">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+      <c r="P123" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>0</v>
+      </c>
+      <c r="R123" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>24</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>0</v>
+      </c>
+      <c r="R124" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-    </row>
-    <row r="233" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-    </row>
-    <row r="234" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-    </row>
-    <row r="235" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-    </row>
-    <row r="236" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-    </row>
-    <row r="237" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-    </row>
-    <row r="238" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-    </row>
-    <row r="240" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-    </row>
-    <row r="241" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-    </row>
-    <row r="242" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-    </row>
-    <row r="243" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-    </row>
-    <row r="244" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-    </row>
-    <row r="245" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-    </row>
-    <row r="246" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M246" s="1"/>
-      <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
-    </row>
-    <row r="247" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M247" s="1"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-    </row>
-    <row r="248" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-    </row>
-    <row r="249" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-    </row>
-    <row r="250" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-    </row>
-    <row r="251" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
-    </row>
-    <row r="252" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M252" s="1"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-    </row>
-    <row r="253" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M253" s="1"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
-    </row>
-    <row r="254" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-    </row>
-    <row r="255" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
-    </row>
-    <row r="256" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M256" s="1"/>
-      <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
-      <c r="P256" s="1"/>
-      <c r="Q256" s="1"/>
-    </row>
-    <row r="257" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M257" s="1"/>
-      <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
-      <c r="P257" s="1"/>
-      <c r="Q257" s="1"/>
-    </row>
-    <row r="258" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-    </row>
-    <row r="259" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M259" s="1"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
-    </row>
-    <row r="260" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M260" s="1"/>
-      <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
-      <c r="P260" s="1"/>
-      <c r="Q260" s="1"/>
-    </row>
-    <row r="261" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M261" s="1"/>
-      <c r="N261" s="1"/>
-      <c r="O261" s="1"/>
-      <c r="P261" s="1"/>
-      <c r="Q261" s="1"/>
-    </row>
-    <row r="262" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M262" s="1"/>
-      <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
-      <c r="P262" s="1"/>
-      <c r="Q262" s="1"/>
-    </row>
-    <row r="263" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M263" s="1"/>
-      <c r="N263" s="1"/>
-      <c r="O263" s="1"/>
-      <c r="P263" s="1"/>
-      <c r="Q263" s="1"/>
-    </row>
-    <row r="264" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M264" s="1"/>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
-      <c r="P264" s="1"/>
-      <c r="Q264" s="1"/>
-    </row>
-    <row r="265" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M265" s="1"/>
-      <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
-      <c r="P265" s="1"/>
-      <c r="Q265" s="1"/>
-    </row>
-    <row r="266" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M266" s="1"/>
-      <c r="N266" s="1"/>
-      <c r="O266" s="1"/>
-      <c r="P266" s="1"/>
-      <c r="Q266" s="1"/>
-    </row>
-    <row r="267" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M267" s="1"/>
-      <c r="N267" s="1"/>
-      <c r="O267" s="1"/>
-      <c r="P267" s="1"/>
-      <c r="Q267" s="1"/>
-    </row>
-    <row r="268" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M268" s="1"/>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
-      <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
-    </row>
-    <row r="269" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M269" s="1"/>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
-      <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
-    </row>
-    <row r="270" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M270" s="1"/>
-      <c r="N270" s="1"/>
-      <c r="O270" s="1"/>
-      <c r="P270" s="1"/>
-      <c r="Q270" s="1"/>
-    </row>
-    <row r="271" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M271" s="1"/>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
-      <c r="P271" s="1"/>
-      <c r="Q271" s="1"/>
-    </row>
-    <row r="272" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M272" s="1"/>
-      <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
-      <c r="P272" s="1"/>
-      <c r="Q272" s="1"/>
-    </row>
-    <row r="273" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M273" s="1"/>
-      <c r="N273" s="1"/>
-      <c r="O273" s="1"/>
-      <c r="P273" s="1"/>
-      <c r="Q273" s="1"/>
-    </row>
-    <row r="274" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M274" s="1"/>
-      <c r="N274" s="1"/>
-      <c r="O274" s="1"/>
-      <c r="P274" s="1"/>
-      <c r="Q274" s="1"/>
-    </row>
-    <row r="275" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M275" s="1"/>
-      <c r="N275" s="1"/>
-      <c r="O275" s="1"/>
-      <c r="P275" s="1"/>
-      <c r="Q275" s="1"/>
-    </row>
-    <row r="276" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M276" s="1"/>
-      <c r="N276" s="1"/>
-      <c r="O276" s="1"/>
-      <c r="P276" s="1"/>
-      <c r="Q276" s="1"/>
-    </row>
-    <row r="277" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M277" s="1"/>
-      <c r="N277" s="1"/>
-      <c r="O277" s="1"/>
-      <c r="P277" s="1"/>
-      <c r="Q277" s="1"/>
-    </row>
-    <row r="278" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
-    </row>
-    <row r="279" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M279" s="1"/>
-      <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
-      <c r="P279" s="1"/>
-      <c r="Q279" s="1"/>
-    </row>
-    <row r="280" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M280" s="1"/>
-      <c r="N280" s="1"/>
-      <c r="O280" s="1"/>
-      <c r="P280" s="1"/>
-      <c r="Q280" s="1"/>
-    </row>
-    <row r="281" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M281" s="1"/>
-      <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
-      <c r="P281" s="1"/>
-      <c r="Q281" s="1"/>
-    </row>
-    <row r="282" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M282" s="1"/>
-      <c r="N282" s="1"/>
-      <c r="O282" s="1"/>
-      <c r="P282" s="1"/>
-      <c r="Q282" s="1"/>
-    </row>
-    <row r="283" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M283" s="1"/>
-      <c r="N283" s="1"/>
-      <c r="O283" s="1"/>
-      <c r="P283" s="1"/>
-      <c r="Q283" s="1"/>
-    </row>
-    <row r="284" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
-      <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-    </row>
-    <row r="285" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M285" s="1"/>
-      <c r="N285" s="1"/>
-      <c r="O285" s="1"/>
-      <c r="P285" s="1"/>
-      <c r="Q285" s="1"/>
-    </row>
-    <row r="286" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M286" s="1"/>
-      <c r="N286" s="1"/>
-      <c r="O286" s="1"/>
-      <c r="P286" s="1"/>
-      <c r="Q286" s="1"/>
-    </row>
-    <row r="287" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
-    </row>
-    <row r="288" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
-    </row>
-    <row r="289" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M289" s="1"/>
-      <c r="N289" s="1"/>
-      <c r="O289" s="1"/>
-      <c r="P289" s="1"/>
-      <c r="Q289" s="1"/>
-    </row>
-    <row r="290" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M290" s="1"/>
-      <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1"/>
-      <c r="Q290" s="1"/>
-    </row>
-    <row r="291" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M291" s="1"/>
-      <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
-      <c r="P291" s="1"/>
-      <c r="Q291" s="1"/>
-    </row>
-    <row r="292" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M292" s="1"/>
-      <c r="N292" s="1"/>
-      <c r="O292" s="1"/>
-      <c r="P292" s="1"/>
-      <c r="Q292" s="1"/>
-    </row>
-    <row r="293" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M293" s="1"/>
-      <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-      <c r="P293" s="1"/>
-      <c r="Q293" s="1"/>
-    </row>
-    <row r="294" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-      <c r="P294" s="1"/>
-      <c r="Q294" s="1"/>
-    </row>
-    <row r="295" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M295" s="1"/>
-      <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
-      <c r="P295" s="1"/>
-      <c r="Q295" s="1"/>
-    </row>
-    <row r="296" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M296" s="1"/>
-      <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
-      <c r="P296" s="1"/>
-      <c r="Q296" s="1"/>
-    </row>
-    <row r="297" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
-    </row>
-    <row r="298" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M298" s="1"/>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
-    </row>
-    <row r="299" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M299" s="1"/>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1"/>
-      <c r="Q299" s="1"/>
-    </row>
-    <row r="300" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M300" s="1"/>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-      <c r="P300" s="1"/>
-      <c r="Q300" s="1"/>
-    </row>
-    <row r="301" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M301" s="1"/>
-      <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
-      <c r="P301" s="1"/>
-      <c r="Q301" s="1"/>
-    </row>
-    <row r="302" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M302" s="1"/>
-      <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
-      <c r="P302" s="1"/>
-      <c r="Q302" s="1"/>
-    </row>
-    <row r="303" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M303" s="1"/>
-      <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
-      <c r="P303" s="1"/>
-      <c r="Q303" s="1"/>
-    </row>
-    <row r="304" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M304" s="1"/>
-      <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
-      <c r="P304" s="1"/>
-      <c r="Q304" s="1"/>
-    </row>
-    <row r="305" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-    </row>
-    <row r="306" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-    </row>
-    <row r="307" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
-    </row>
-    <row r="308" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M308" s="1"/>
-      <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
-      <c r="P308" s="1"/>
-      <c r="Q308" s="1"/>
-    </row>
-    <row r="309" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M309" s="1"/>
-      <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
-      <c r="P309" s="1"/>
-      <c r="Q309" s="1"/>
-    </row>
-    <row r="310" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M310" s="1"/>
-      <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
-      <c r="P310" s="1"/>
-      <c r="Q310" s="1"/>
-    </row>
-    <row r="311" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M311" s="1"/>
-      <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
-      <c r="P311" s="1"/>
-      <c r="Q311" s="1"/>
-    </row>
-    <row r="312" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M312" s="1"/>
-      <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
-      <c r="P312" s="1"/>
-      <c r="Q312" s="1"/>
-    </row>
-    <row r="313" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M313" s="1"/>
-      <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
-      <c r="P313" s="1"/>
-      <c r="Q313" s="1"/>
-    </row>
-    <row r="314" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M314" s="1"/>
-      <c r="N314" s="1"/>
-      <c r="O314" s="1"/>
-      <c r="P314" s="1"/>
-      <c r="Q314" s="1"/>
-    </row>
-    <row r="315" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M315" s="1"/>
-      <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
-      <c r="P315" s="1"/>
-      <c r="Q315" s="1"/>
-    </row>
-    <row r="316" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M316" s="1"/>
-      <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
-      <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
-    </row>
-    <row r="317" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M317" s="1"/>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
-    </row>
-    <row r="318" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M318" s="1"/>
-      <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
-      <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
-    </row>
-    <row r="319" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M319" s="1"/>
-      <c r="N319" s="1"/>
-      <c r="O319" s="1"/>
-      <c r="P319" s="1"/>
-      <c r="Q319" s="1"/>
-    </row>
-    <row r="320" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M320" s="1"/>
-      <c r="N320" s="1"/>
-      <c r="O320" s="1"/>
-      <c r="P320" s="1"/>
-      <c r="Q320" s="1"/>
-    </row>
-    <row r="321" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M321" s="1"/>
-      <c r="N321" s="1"/>
-      <c r="O321" s="1"/>
-      <c r="P321" s="1"/>
-      <c r="Q321" s="1"/>
-    </row>
-    <row r="322" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M322" s="1"/>
-      <c r="N322" s="1"/>
-      <c r="O322" s="1"/>
-      <c r="P322" s="1"/>
-      <c r="Q322" s="1"/>
-    </row>
-    <row r="323" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M323" s="1"/>
-      <c r="N323" s="1"/>
-      <c r="O323" s="1"/>
-      <c r="P323" s="1"/>
-      <c r="Q323" s="1"/>
-    </row>
-    <row r="324" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M324" s="1"/>
-      <c r="N324" s="1"/>
-      <c r="O324" s="1"/>
-      <c r="P324" s="1"/>
-      <c r="Q324" s="1"/>
-    </row>
-    <row r="325" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M325" s="1"/>
-      <c r="N325" s="1"/>
-      <c r="O325" s="1"/>
-      <c r="P325" s="1"/>
-      <c r="Q325" s="1"/>
-    </row>
-    <row r="326" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
-    </row>
-    <row r="327" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
-    </row>
-    <row r="328" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M328" s="1"/>
-      <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
-      <c r="P328" s="1"/>
-      <c r="Q328" s="1"/>
-    </row>
-    <row r="329" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M329" s="1"/>
-      <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
-      <c r="P329" s="1"/>
-      <c r="Q329" s="1"/>
-    </row>
-    <row r="330" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M330" s="1"/>
-      <c r="N330" s="1"/>
-      <c r="O330" s="1"/>
-      <c r="P330" s="1"/>
-      <c r="Q330" s="1"/>
-    </row>
-    <row r="331" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M331" s="1"/>
-      <c r="N331" s="1"/>
-      <c r="O331" s="1"/>
-      <c r="P331" s="1"/>
-      <c r="Q331" s="1"/>
-    </row>
-    <row r="332" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M332" s="1"/>
-      <c r="N332" s="1"/>
-      <c r="O332" s="1"/>
-      <c r="P332" s="1"/>
-      <c r="Q332" s="1"/>
-    </row>
-    <row r="333" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M333" s="1"/>
-      <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
-      <c r="P333" s="1"/>
-      <c r="Q333" s="1"/>
-    </row>
-    <row r="334" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M334" s="1"/>
-      <c r="N334" s="1"/>
-      <c r="O334" s="1"/>
-      <c r="P334" s="1"/>
-      <c r="Q334" s="1"/>
-    </row>
-    <row r="335" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M335" s="1"/>
-      <c r="N335" s="1"/>
-      <c r="O335" s="1"/>
-      <c r="P335" s="1"/>
-      <c r="Q335" s="1"/>
-    </row>
-    <row r="336" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M336" s="1"/>
-      <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
-    </row>
-    <row r="337" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
-    </row>
-    <row r="338" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M338" s="1"/>
-      <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
-      <c r="P338" s="1"/>
-      <c r="Q338" s="1"/>
-    </row>
-    <row r="339" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-      <c r="P339" s="1"/>
-      <c r="Q339" s="1"/>
-    </row>
-    <row r="340" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M340" s="1"/>
-      <c r="N340" s="1"/>
-      <c r="O340" s="1"/>
-      <c r="P340" s="1"/>
-      <c r="Q340" s="1"/>
-    </row>
-    <row r="341" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M341" s="1"/>
-      <c r="N341" s="1"/>
-      <c r="O341" s="1"/>
-      <c r="P341" s="1"/>
-      <c r="Q341" s="1"/>
-    </row>
-    <row r="342" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M342" s="1"/>
-      <c r="N342" s="1"/>
-      <c r="O342" s="1"/>
-      <c r="P342" s="1"/>
-      <c r="Q342" s="1"/>
-    </row>
-    <row r="343" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M343" s="1"/>
-      <c r="N343" s="1"/>
-      <c r="O343" s="1"/>
-      <c r="P343" s="1"/>
-      <c r="Q343" s="1"/>
-    </row>
-    <row r="344" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M344" s="1"/>
-      <c r="N344" s="1"/>
-      <c r="O344" s="1"/>
-      <c r="P344" s="1"/>
-      <c r="Q344" s="1"/>
-    </row>
-    <row r="345" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M345" s="1"/>
-      <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
-    </row>
-    <row r="346" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M346" s="1"/>
-      <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
-      <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
-    </row>
-    <row r="347" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M347" s="1"/>
-      <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
-      <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
-    </row>
-    <row r="348" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M348" s="1"/>
-      <c r="N348" s="1"/>
-      <c r="O348" s="1"/>
-      <c r="P348" s="1"/>
-      <c r="Q348" s="1"/>
-    </row>
-    <row r="349" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M349" s="1"/>
-      <c r="N349" s="1"/>
-      <c r="O349" s="1"/>
-      <c r="P349" s="1"/>
-      <c r="Q349" s="1"/>
-    </row>
-    <row r="350" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M350" s="1"/>
-      <c r="N350" s="1"/>
-      <c r="O350" s="1"/>
-      <c r="P350" s="1"/>
-      <c r="Q350" s="1"/>
-    </row>
-    <row r="351" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M351" s="1"/>
-      <c r="N351" s="1"/>
-      <c r="O351" s="1"/>
-      <c r="P351" s="1"/>
-      <c r="Q351" s="1"/>
-    </row>
-    <row r="352" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M352" s="1"/>
-      <c r="N352" s="1"/>
-      <c r="O352" s="1"/>
-      <c r="P352" s="1"/>
-      <c r="Q352" s="1"/>
-    </row>
-    <row r="353" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M353" s="1"/>
-      <c r="N353" s="1"/>
-      <c r="O353" s="1"/>
-      <c r="P353" s="1"/>
-      <c r="Q353" s="1"/>
-    </row>
-    <row r="354" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M354" s="1"/>
-      <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
-      <c r="P354" s="1"/>
-      <c r="Q354" s="1"/>
-    </row>
-    <row r="355" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M355" s="1"/>
-      <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
-      <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
-    </row>
-    <row r="356" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M356" s="1"/>
-      <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
-    </row>
-    <row r="357" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M357" s="1"/>
-      <c r="N357" s="1"/>
-      <c r="O357" s="1"/>
-      <c r="P357" s="1"/>
-      <c r="Q357" s="1"/>
-    </row>
-    <row r="358" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M358" s="1"/>
-      <c r="N358" s="1"/>
-      <c r="O358" s="1"/>
-      <c r="P358" s="1"/>
-      <c r="Q358" s="1"/>
-    </row>
-    <row r="359" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M359" s="1"/>
-      <c r="N359" s="1"/>
-      <c r="O359" s="1"/>
-      <c r="P359" s="1"/>
-      <c r="Q359" s="1"/>
-    </row>
-    <row r="360" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M360" s="1"/>
-      <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
-      <c r="P360" s="1"/>
-      <c r="Q360" s="1"/>
-    </row>
-    <row r="361" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M361" s="1"/>
-      <c r="N361" s="1"/>
-      <c r="O361" s="1"/>
-      <c r="P361" s="1"/>
-      <c r="Q361" s="1"/>
-    </row>
-    <row r="362" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M362" s="1"/>
-      <c r="N362" s="1"/>
-      <c r="O362" s="1"/>
-      <c r="P362" s="1"/>
-      <c r="Q362" s="1"/>
-    </row>
-    <row r="363" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M363" s="1"/>
-      <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
-      <c r="P363" s="1"/>
-      <c r="Q363" s="1"/>
-    </row>
-    <row r="364" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M364" s="1"/>
-      <c r="N364" s="1"/>
-      <c r="O364" s="1"/>
-      <c r="P364" s="1"/>
-      <c r="Q364" s="1"/>
-    </row>
-    <row r="365" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M365" s="1"/>
-      <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
-      <c r="P365" s="1"/>
-      <c r="Q365" s="1"/>
-    </row>
-    <row r="366" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M366" s="1"/>
-      <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
-      <c r="P366" s="1"/>
-      <c r="Q366" s="1"/>
-    </row>
-    <row r="367" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
-      <c r="P367" s="1"/>
-      <c r="Q367" s="1"/>
-    </row>
-    <row r="368" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M368" s="1"/>
-      <c r="N368" s="1"/>
-      <c r="O368" s="1"/>
-      <c r="P368" s="1"/>
-      <c r="Q368" s="1"/>
-    </row>
-    <row r="369" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M369" s="1"/>
-      <c r="N369" s="1"/>
-      <c r="O369" s="1"/>
-      <c r="P369" s="1"/>
-      <c r="Q369" s="1"/>
-    </row>
-    <row r="370" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M370" s="1"/>
-      <c r="N370" s="1"/>
-      <c r="O370" s="1"/>
-      <c r="P370" s="1"/>
-      <c r="Q370" s="1"/>
-    </row>
-    <row r="371" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M371" s="1"/>
-      <c r="N371" s="1"/>
-      <c r="O371" s="1"/>
-      <c r="P371" s="1"/>
-      <c r="Q371" s="1"/>
-    </row>
-    <row r="372" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M372" s="1"/>
-      <c r="N372" s="1"/>
-      <c r="O372" s="1"/>
-      <c r="P372" s="1"/>
-      <c r="Q372" s="1"/>
-    </row>
-    <row r="373" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M373" s="1"/>
-      <c r="N373" s="1"/>
-      <c r="O373" s="1"/>
-      <c r="P373" s="1"/>
-      <c r="Q373" s="1"/>
-    </row>
-    <row r="374" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M374" s="1"/>
-      <c r="N374" s="1"/>
-      <c r="O374" s="1"/>
-      <c r="P374" s="1"/>
-      <c r="Q374" s="1"/>
-    </row>
-    <row r="375" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M375" s="1"/>
-      <c r="N375" s="1"/>
-      <c r="O375" s="1"/>
-      <c r="P375" s="1"/>
-      <c r="Q375" s="1"/>
-    </row>
-    <row r="376" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M376" s="1"/>
-      <c r="N376" s="1"/>
-      <c r="O376" s="1"/>
-      <c r="P376" s="1"/>
-      <c r="Q376" s="1"/>
-    </row>
-    <row r="377" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M377" s="1"/>
-      <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
-      <c r="P377" s="1"/>
-      <c r="Q377" s="1"/>
-    </row>
-    <row r="378" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M378" s="1"/>
-      <c r="N378" s="1"/>
-      <c r="O378" s="1"/>
-      <c r="P378" s="1"/>
-      <c r="Q378" s="1"/>
-    </row>
-    <row r="379" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
-      <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-    </row>
-    <row r="380" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M380" s="1"/>
-      <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
-      <c r="P380" s="1"/>
-      <c r="Q380" s="1"/>
-    </row>
-    <row r="381" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M381" s="1"/>
-      <c r="N381" s="1"/>
-      <c r="O381" s="1"/>
-      <c r="P381" s="1"/>
-      <c r="Q381" s="1"/>
-    </row>
-    <row r="382" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M382" s="1"/>
-      <c r="N382" s="1"/>
-      <c r="O382" s="1"/>
-      <c r="P382" s="1"/>
-      <c r="Q382" s="1"/>
-    </row>
-    <row r="383" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M383" s="1"/>
-      <c r="N383" s="1"/>
-      <c r="O383" s="1"/>
-      <c r="P383" s="1"/>
-      <c r="Q383" s="1"/>
-    </row>
-    <row r="384" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M384" s="1"/>
-      <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
-      <c r="P384" s="1"/>
-      <c r="Q384" s="1"/>
-    </row>
-    <row r="385" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
-      <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-    </row>
-    <row r="386" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M386" s="1"/>
-      <c r="N386" s="1"/>
-      <c r="O386" s="1"/>
-      <c r="P386" s="1"/>
-      <c r="Q386" s="1"/>
-    </row>
-    <row r="387" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M387" s="1"/>
-      <c r="N387" s="1"/>
-      <c r="O387" s="1"/>
-      <c r="P387" s="1"/>
-      <c r="Q387" s="1"/>
-    </row>
-    <row r="388" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M388" s="1"/>
-      <c r="N388" s="1"/>
-      <c r="O388" s="1"/>
-      <c r="P388" s="1"/>
-      <c r="Q388" s="1"/>
-    </row>
-    <row r="389" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M389" s="1"/>
-      <c r="N389" s="1"/>
-      <c r="O389" s="1"/>
-      <c r="P389" s="1"/>
-      <c r="Q389" s="1"/>
-    </row>
-    <row r="390" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M390" s="1"/>
-      <c r="N390" s="1"/>
-      <c r="O390" s="1"/>
-      <c r="P390" s="1"/>
-      <c r="Q390" s="1"/>
-    </row>
-    <row r="391" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M391" s="1"/>
-      <c r="N391" s="1"/>
-      <c r="O391" s="1"/>
-      <c r="P391" s="1"/>
-      <c r="Q391" s="1"/>
-    </row>
-    <row r="392" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M392" s="1"/>
-      <c r="N392" s="1"/>
-      <c r="O392" s="1"/>
-      <c r="P392" s="1"/>
-      <c r="Q392" s="1"/>
-    </row>
-    <row r="393" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
-      <c r="P393" s="1"/>
-      <c r="Q393" s="1"/>
-    </row>
-    <row r="394" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M394" s="1"/>
-      <c r="N394" s="1"/>
-      <c r="O394" s="1"/>
-      <c r="P394" s="1"/>
-      <c r="Q394" s="1"/>
-    </row>
-    <row r="395" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M395" s="1"/>
-      <c r="N395" s="1"/>
-      <c r="O395" s="1"/>
-      <c r="P395" s="1"/>
-      <c r="Q395" s="1"/>
-    </row>
-    <row r="396" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M396" s="1"/>
-      <c r="N396" s="1"/>
-      <c r="O396" s="1"/>
-      <c r="P396" s="1"/>
-      <c r="Q396" s="1"/>
-    </row>
-    <row r="397" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M397" s="1"/>
-      <c r="N397" s="1"/>
-      <c r="O397" s="1"/>
-      <c r="P397" s="1"/>
-      <c r="Q397" s="1"/>
-    </row>
-    <row r="398" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M398" s="1"/>
-      <c r="N398" s="1"/>
-      <c r="O398" s="1"/>
-      <c r="P398" s="1"/>
-      <c r="Q398" s="1"/>
-    </row>
-    <row r="399" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M399" s="1"/>
-      <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
-      <c r="P399" s="1"/>
-      <c r="Q399" s="1"/>
-    </row>
-    <row r="400" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M400" s="1"/>
-      <c r="N400" s="1"/>
-      <c r="O400" s="1"/>
-      <c r="P400" s="1"/>
-      <c r="Q400" s="1"/>
-    </row>
-    <row r="401" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M401" s="1"/>
-      <c r="N401" s="1"/>
-      <c r="O401" s="1"/>
-      <c r="P401" s="1"/>
-      <c r="Q401" s="1"/>
-    </row>
-    <row r="402" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M402" s="1"/>
-      <c r="N402" s="1"/>
-      <c r="O402" s="1"/>
-      <c r="P402" s="1"/>
-      <c r="Q402" s="1"/>
-    </row>
-    <row r="403" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-    </row>
-    <row r="404" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M404" s="1"/>
-      <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
-      <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-    </row>
-    <row r="405" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-    </row>
-    <row r="406" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-    </row>
-    <row r="407" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M407" s="1"/>
-      <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
-      <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-    </row>
-    <row r="408" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M408" s="1"/>
-      <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
-      <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-    </row>
-    <row r="409" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-    </row>
-    <row r="410" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M410" s="1"/>
-      <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
-      <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-    </row>
-    <row r="411" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M411" s="1"/>
-      <c r="N411" s="1"/>
-      <c r="O411" s="1"/>
-      <c r="P411" s="1"/>
-      <c r="Q411" s="1"/>
-    </row>
-    <row r="412" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M412" s="1"/>
-      <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
-      <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-    </row>
-    <row r="413" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
-      <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-    </row>
-    <row r="414" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-      <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-    </row>
-    <row r="415" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M415" s="1"/>
-      <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
-      <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-    </row>
-    <row r="416" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M416" s="1"/>
-      <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
-      <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-    </row>
-    <row r="417" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-    </row>
-    <row r="418" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-    </row>
-    <row r="419" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
-    </row>
-    <row r="420" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M420" s="1"/>
-      <c r="N420" s="1"/>
-      <c r="O420" s="1"/>
-      <c r="P420" s="1"/>
-      <c r="Q420" s="1"/>
-    </row>
-    <row r="421" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M421" s="1"/>
-      <c r="N421" s="1"/>
-      <c r="O421" s="1"/>
-      <c r="P421" s="1"/>
-      <c r="Q421" s="1"/>
-    </row>
-    <row r="422" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M422" s="1"/>
-      <c r="N422" s="1"/>
-      <c r="O422" s="1"/>
-      <c r="P422" s="1"/>
-      <c r="Q422" s="1"/>
-    </row>
-    <row r="423" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M423" s="1"/>
-      <c r="N423" s="1"/>
-      <c r="O423" s="1"/>
-      <c r="P423" s="1"/>
-      <c r="Q423" s="1"/>
-    </row>
-    <row r="424" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M424" s="1"/>
-      <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
-      <c r="P424" s="1"/>
-      <c r="Q424" s="1"/>
-    </row>
-    <row r="425" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M425" s="1"/>
-      <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
-      <c r="P425" s="1"/>
-      <c r="Q425" s="1"/>
-    </row>
-    <row r="426" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M426" s="1"/>
-      <c r="N426" s="1"/>
-      <c r="O426" s="1"/>
-      <c r="P426" s="1"/>
-      <c r="Q426" s="1"/>
-    </row>
-    <row r="427" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M427" s="1"/>
-      <c r="N427" s="1"/>
-      <c r="O427" s="1"/>
-      <c r="P427" s="1"/>
-      <c r="Q427" s="1"/>
-    </row>
-    <row r="428" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M428" s="1"/>
-      <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
-      <c r="P428" s="1"/>
-      <c r="Q428" s="1"/>
-    </row>
-    <row r="429" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M429" s="1"/>
-      <c r="N429" s="1"/>
-      <c r="O429" s="1"/>
-      <c r="P429" s="1"/>
-      <c r="Q429" s="1"/>
-    </row>
-    <row r="430" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M430" s="1"/>
-      <c r="N430" s="1"/>
-      <c r="O430" s="1"/>
-      <c r="P430" s="1"/>
-      <c r="Q430" s="1"/>
-    </row>
-    <row r="431" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
-      <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-    </row>
-    <row r="432" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M432" s="1"/>
-      <c r="N432" s="1"/>
-      <c r="O432" s="1"/>
-      <c r="P432" s="1"/>
-      <c r="Q432" s="1"/>
-    </row>
-    <row r="433" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M433" s="1"/>
-      <c r="N433" s="1"/>
-      <c r="O433" s="1"/>
-      <c r="P433" s="1"/>
-      <c r="Q433" s="1"/>
-    </row>
-    <row r="434" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M434" s="1"/>
-      <c r="N434" s="1"/>
-      <c r="O434" s="1"/>
-      <c r="P434" s="1"/>
-      <c r="Q434" s="1"/>
-    </row>
-    <row r="435" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M435" s="1"/>
-      <c r="N435" s="1"/>
-      <c r="O435" s="1"/>
-      <c r="P435" s="1"/>
-      <c r="Q435" s="1"/>
-    </row>
-    <row r="436" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M436" s="1"/>
-      <c r="N436" s="1"/>
-      <c r="O436" s="1"/>
-      <c r="P436" s="1"/>
-      <c r="Q436" s="1"/>
-    </row>
-    <row r="437" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M437" s="1"/>
-      <c r="N437" s="1"/>
-      <c r="O437" s="1"/>
-      <c r="P437" s="1"/>
-      <c r="Q437" s="1"/>
-    </row>
-    <row r="438" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
-    </row>
-    <row r="439" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="1"/>
-      <c r="Q439" s="1"/>
-    </row>
-    <row r="440" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M440" s="1"/>
-      <c r="N440" s="1"/>
-      <c r="O440" s="1"/>
-      <c r="P440" s="1"/>
-      <c r="Q440" s="1"/>
-    </row>
-    <row r="441" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M441" s="1"/>
-      <c r="N441" s="1"/>
-      <c r="O441" s="1"/>
-      <c r="P441" s="1"/>
-      <c r="Q441" s="1"/>
-    </row>
-    <row r="442" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M442" s="1"/>
-      <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
-      <c r="P442" s="1"/>
-      <c r="Q442" s="1"/>
-    </row>
-    <row r="443" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M443" s="1"/>
-      <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
-      <c r="P443" s="1"/>
-      <c r="Q443" s="1"/>
-    </row>
-    <row r="444" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M444" s="1"/>
-      <c r="N444" s="1"/>
-      <c r="O444" s="1"/>
-      <c r="P444" s="1"/>
-      <c r="Q444" s="1"/>
-    </row>
-    <row r="445" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M445" s="1"/>
-      <c r="N445" s="1"/>
-      <c r="O445" s="1"/>
-      <c r="P445" s="1"/>
-      <c r="Q445" s="1"/>
-    </row>
-    <row r="446" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M446" s="1"/>
-      <c r="N446" s="1"/>
-      <c r="O446" s="1"/>
-      <c r="P446" s="1"/>
-      <c r="Q446" s="1"/>
-    </row>
-    <row r="447" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M447" s="1"/>
-      <c r="N447" s="1"/>
-      <c r="O447" s="1"/>
-      <c r="P447" s="1"/>
-      <c r="Q447" s="1"/>
-    </row>
-    <row r="448" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M448" s="1"/>
-      <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
-      <c r="P448" s="1"/>
-      <c r="Q448" s="1"/>
-    </row>
-    <row r="449" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M449" s="1"/>
-      <c r="N449" s="1"/>
-      <c r="O449" s="1"/>
-      <c r="P449" s="1"/>
-      <c r="Q449" s="1"/>
-    </row>
-    <row r="450" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M450" s="1"/>
-      <c r="N450" s="1"/>
-      <c r="O450" s="1"/>
-      <c r="P450" s="1"/>
-      <c r="Q450" s="1"/>
-    </row>
-    <row r="451" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M451" s="1"/>
-      <c r="N451" s="1"/>
-      <c r="O451" s="1"/>
-      <c r="P451" s="1"/>
-      <c r="Q451" s="1"/>
-    </row>
-    <row r="452" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M452" s="1"/>
-      <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
-      <c r="Q452" s="1"/>
-    </row>
-    <row r="453" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M453" s="1"/>
-      <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
-      <c r="Q453" s="1"/>
-    </row>
-    <row r="454" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M454" s="1"/>
-      <c r="N454" s="1"/>
-      <c r="O454" s="1"/>
-      <c r="P454" s="1"/>
-      <c r="Q454" s="1"/>
-    </row>
-    <row r="455" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M455" s="1"/>
-      <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
-      <c r="Q455" s="1"/>
-    </row>
-    <row r="456" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M456" s="1"/>
-      <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
-      <c r="P456" s="1"/>
-      <c r="Q456" s="1"/>
-    </row>
-    <row r="457" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-    </row>
-    <row r="458" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M458" s="1"/>
-      <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
-      <c r="P458" s="1"/>
-      <c r="Q458" s="1"/>
-    </row>
-    <row r="459" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M459" s="1"/>
-      <c r="N459" s="1"/>
-      <c r="O459" s="1"/>
-      <c r="P459" s="1"/>
-      <c r="Q459" s="1"/>
-    </row>
-    <row r="460" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M460" s="1"/>
-      <c r="N460" s="1"/>
-      <c r="O460" s="1"/>
-      <c r="P460" s="1"/>
-      <c r="Q460" s="1"/>
-    </row>
-    <row r="461" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M461" s="1"/>
-      <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
-      <c r="P461" s="1"/>
-      <c r="Q461" s="1"/>
-    </row>
-    <row r="462" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M462" s="1"/>
-      <c r="N462" s="1"/>
-      <c r="O462" s="1"/>
-      <c r="P462" s="1"/>
-      <c r="Q462" s="1"/>
-    </row>
-    <row r="463" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M463" s="1"/>
-      <c r="N463" s="1"/>
-      <c r="O463" s="1"/>
-      <c r="P463" s="1"/>
-      <c r="Q463" s="1"/>
-    </row>
-    <row r="464" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M464" s="1"/>
-      <c r="N464" s="1"/>
-      <c r="O464" s="1"/>
-      <c r="P464" s="1"/>
-      <c r="Q464" s="1"/>
-    </row>
-    <row r="465" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M465" s="1"/>
-      <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
-      <c r="P465" s="1"/>
-      <c r="Q465" s="1"/>
-    </row>
-    <row r="466" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M466" s="1"/>
-      <c r="N466" s="1"/>
-      <c r="O466" s="1"/>
-      <c r="P466" s="1"/>
-      <c r="Q466" s="1"/>
-    </row>
-    <row r="467" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M467" s="1"/>
-      <c r="N467" s="1"/>
-      <c r="O467" s="1"/>
-      <c r="P467" s="1"/>
-      <c r="Q467" s="1"/>
-    </row>
-    <row r="468" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
-      <c r="Q468" s="1"/>
-    </row>
-    <row r="469" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M469" s="1"/>
-      <c r="N469" s="1"/>
-      <c r="O469" s="1"/>
-      <c r="P469" s="1"/>
-      <c r="Q469" s="1"/>
-    </row>
-    <row r="470" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M470" s="1"/>
-      <c r="N470" s="1"/>
-      <c r="O470" s="1"/>
-      <c r="P470" s="1"/>
-      <c r="Q470" s="1"/>
-    </row>
-    <row r="471" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M471" s="1"/>
-      <c r="N471" s="1"/>
-      <c r="O471" s="1"/>
-      <c r="P471" s="1"/>
-      <c r="Q471" s="1"/>
-    </row>
-    <row r="472" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M472" s="1"/>
-      <c r="N472" s="1"/>
-      <c r="O472" s="1"/>
-      <c r="P472" s="1"/>
-      <c r="Q472" s="1"/>
-    </row>
-    <row r="473" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M473" s="1"/>
-      <c r="N473" s="1"/>
-      <c r="O473" s="1"/>
-      <c r="P473" s="1"/>
-      <c r="Q473" s="1"/>
-    </row>
-    <row r="474" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M474" s="1"/>
-      <c r="N474" s="1"/>
-      <c r="O474" s="1"/>
-      <c r="P474" s="1"/>
-      <c r="Q474" s="1"/>
-    </row>
-    <row r="475" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M475" s="1"/>
-      <c r="N475" s="1"/>
-      <c r="O475" s="1"/>
-      <c r="P475" s="1"/>
-      <c r="Q475" s="1"/>
-    </row>
-    <row r="476" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M476" s="1"/>
-      <c r="N476" s="1"/>
-      <c r="O476" s="1"/>
-      <c r="P476" s="1"/>
-      <c r="Q476" s="1"/>
-    </row>
-    <row r="477" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M477" s="1"/>
-      <c r="N477" s="1"/>
-      <c r="O477" s="1"/>
-      <c r="P477" s="1"/>
-      <c r="Q477" s="1"/>
-    </row>
-    <row r="478" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M478" s="1"/>
-      <c r="N478" s="1"/>
-      <c r="O478" s="1"/>
-      <c r="P478" s="1"/>
-      <c r="Q478" s="1"/>
-    </row>
-    <row r="479" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M479" s="1"/>
-      <c r="N479" s="1"/>
-      <c r="O479" s="1"/>
-      <c r="P479" s="1"/>
-      <c r="Q479" s="1"/>
-    </row>
-    <row r="480" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M480" s="1"/>
-      <c r="N480" s="1"/>
-      <c r="O480" s="1"/>
-      <c r="P480" s="1"/>
-      <c r="Q480" s="1"/>
-    </row>
-    <row r="481" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M481" s="1"/>
-      <c r="N481" s="1"/>
-      <c r="O481" s="1"/>
-      <c r="P481" s="1"/>
-      <c r="Q481" s="1"/>
-    </row>
-    <row r="482" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M482" s="1"/>
-      <c r="N482" s="1"/>
-      <c r="O482" s="1"/>
-      <c r="P482" s="1"/>
-      <c r="Q482" s="1"/>
-    </row>
-    <row r="483" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M483" s="1"/>
-      <c r="N483" s="1"/>
-      <c r="O483" s="1"/>
-      <c r="P483" s="1"/>
-      <c r="Q483" s="1"/>
-    </row>
-    <row r="484" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M484" s="1"/>
-      <c r="N484" s="1"/>
-      <c r="O484" s="1"/>
-      <c r="P484" s="1"/>
-      <c r="Q484" s="1"/>
-    </row>
-    <row r="485" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M485" s="1"/>
-      <c r="N485" s="1"/>
-      <c r="O485" s="1"/>
-      <c r="P485" s="1"/>
-      <c r="Q485" s="1"/>
-    </row>
-    <row r="486" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M486" s="1"/>
-      <c r="N486" s="1"/>
-      <c r="O486" s="1"/>
-      <c r="P486" s="1"/>
-      <c r="Q486" s="1"/>
-    </row>
-    <row r="487" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M487" s="1"/>
-      <c r="N487" s="1"/>
-      <c r="O487" s="1"/>
-      <c r="P487" s="1"/>
-      <c r="Q487" s="1"/>
-    </row>
-    <row r="488" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M488" s="1"/>
-      <c r="N488" s="1"/>
-      <c r="O488" s="1"/>
-      <c r="P488" s="1"/>
-      <c r="Q488" s="1"/>
-    </row>
-    <row r="489" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M489" s="1"/>
-      <c r="N489" s="1"/>
-      <c r="O489" s="1"/>
-      <c r="P489" s="1"/>
-      <c r="Q489" s="1"/>
-    </row>
-    <row r="490" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M490" s="1"/>
-      <c r="N490" s="1"/>
-      <c r="O490" s="1"/>
-      <c r="P490" s="1"/>
-      <c r="Q490" s="1"/>
-    </row>
-    <row r="491" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M491" s="1"/>
-      <c r="N491" s="1"/>
-      <c r="O491" s="1"/>
-      <c r="P491" s="1"/>
-      <c r="Q491" s="1"/>
-    </row>
-    <row r="492" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M492" s="1"/>
-      <c r="N492" s="1"/>
-      <c r="O492" s="1"/>
-      <c r="P492" s="1"/>
-      <c r="Q492" s="1"/>
-    </row>
-    <row r="493" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M493" s="1"/>
-      <c r="N493" s="1"/>
-      <c r="O493" s="1"/>
-      <c r="P493" s="1"/>
-      <c r="Q493" s="1"/>
-    </row>
-    <row r="494" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M494" s="1"/>
-      <c r="N494" s="1"/>
-      <c r="O494" s="1"/>
-      <c r="P494" s="1"/>
-      <c r="Q494" s="1"/>
-    </row>
-    <row r="495" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M495" s="1"/>
-      <c r="N495" s="1"/>
-      <c r="O495" s="1"/>
-      <c r="P495" s="1"/>
-      <c r="Q495" s="1"/>
-    </row>
-    <row r="496" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M496" s="1"/>
-      <c r="N496" s="1"/>
-      <c r="O496" s="1"/>
-      <c r="P496" s="1"/>
-      <c r="Q496" s="1"/>
-    </row>
-    <row r="497" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M497" s="1"/>
-      <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
-      <c r="P497" s="1"/>
-      <c r="Q497" s="1"/>
-    </row>
-    <row r="498" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M498" s="1"/>
-      <c r="N498" s="1"/>
-      <c r="O498" s="1"/>
-      <c r="P498" s="1"/>
-      <c r="Q498" s="1"/>
-    </row>
-    <row r="499" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M499" s="1"/>
-      <c r="N499" s="1"/>
-      <c r="O499" s="1"/>
-      <c r="P499" s="1"/>
-      <c r="Q499" s="1"/>
-    </row>
-    <row r="500" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M500" s="1"/>
-      <c r="N500" s="1"/>
-      <c r="O500" s="1"/>
-      <c r="P500" s="1"/>
-      <c r="Q500" s="1"/>
-    </row>
-    <row r="501" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M501" s="1"/>
-      <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
-      <c r="P501" s="1"/>
-      <c r="Q501" s="1"/>
-    </row>
-    <row r="502" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M502" s="1"/>
-      <c r="N502" s="1"/>
-      <c r="O502" s="1"/>
-      <c r="P502" s="1"/>
-      <c r="Q502" s="1"/>
-    </row>
-    <row r="503" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M503" s="1"/>
-      <c r="N503" s="1"/>
-      <c r="O503" s="1"/>
-      <c r="P503" s="1"/>
-      <c r="Q503" s="1"/>
-    </row>
-    <row r="504" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M504" s="1"/>
-      <c r="N504" s="1"/>
-      <c r="O504" s="1"/>
-      <c r="P504" s="1"/>
-      <c r="Q504" s="1"/>
-    </row>
-    <row r="505" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M505" s="1"/>
-      <c r="N505" s="1"/>
-      <c r="O505" s="1"/>
-      <c r="P505" s="1"/>
-      <c r="Q505" s="1"/>
-    </row>
-    <row r="506" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M506" s="1"/>
-      <c r="N506" s="1"/>
-      <c r="O506" s="1"/>
-      <c r="P506" s="1"/>
-      <c r="Q506" s="1"/>
-    </row>
-    <row r="507" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M507" s="1"/>
-      <c r="N507" s="1"/>
-      <c r="O507" s="1"/>
-      <c r="P507" s="1"/>
-      <c r="Q507" s="1"/>
-    </row>
-    <row r="508" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M508" s="1"/>
-      <c r="N508" s="1"/>
-      <c r="O508" s="1"/>
-      <c r="P508" s="1"/>
-      <c r="Q508" s="1"/>
-    </row>
-    <row r="509" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M509" s="1"/>
-      <c r="N509" s="1"/>
-      <c r="O509" s="1"/>
-      <c r="P509" s="1"/>
-      <c r="Q509" s="1"/>
-    </row>
-    <row r="510" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M510" s="1"/>
-      <c r="N510" s="1"/>
-      <c r="O510" s="1"/>
-      <c r="P510" s="1"/>
-      <c r="Q510" s="1"/>
-    </row>
-    <row r="511" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M511" s="1"/>
-      <c r="N511" s="1"/>
-      <c r="O511" s="1"/>
-      <c r="P511" s="1"/>
-      <c r="Q511" s="1"/>
-    </row>
-    <row r="512" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M512" s="1"/>
-      <c r="N512" s="1"/>
-      <c r="O512" s="1"/>
-      <c r="P512" s="1"/>
-      <c r="Q512" s="1"/>
-    </row>
-    <row r="513" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M513" s="1"/>
-      <c r="N513" s="1"/>
-      <c r="O513" s="1"/>
-      <c r="P513" s="1"/>
-      <c r="Q513" s="1"/>
-    </row>
-    <row r="514" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M514" s="1"/>
-      <c r="N514" s="1"/>
-      <c r="O514" s="1"/>
-      <c r="P514" s="1"/>
-      <c r="Q514" s="1"/>
-    </row>
-    <row r="515" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M515" s="1"/>
-      <c r="N515" s="1"/>
-      <c r="O515" s="1"/>
-      <c r="P515" s="1"/>
-      <c r="Q515" s="1"/>
-    </row>
-    <row r="516" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M516" s="1"/>
-      <c r="N516" s="1"/>
-      <c r="O516" s="1"/>
-      <c r="P516" s="1"/>
-      <c r="Q516" s="1"/>
-    </row>
-    <row r="517" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M517" s="1"/>
-      <c r="N517" s="1"/>
-      <c r="O517" s="1"/>
-      <c r="P517" s="1"/>
-      <c r="Q517" s="1"/>
-    </row>
-    <row r="518" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M518" s="1"/>
-      <c r="N518" s="1"/>
-      <c r="O518" s="1"/>
-      <c r="P518" s="1"/>
-      <c r="Q518" s="1"/>
-    </row>
-    <row r="519" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M519" s="1"/>
-      <c r="N519" s="1"/>
-      <c r="O519" s="1"/>
-      <c r="P519" s="1"/>
-      <c r="Q519" s="1"/>
-    </row>
-    <row r="520" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M520" s="1"/>
-      <c r="N520" s="1"/>
-      <c r="O520" s="1"/>
-      <c r="P520" s="1"/>
-      <c r="Q520" s="1"/>
-    </row>
-    <row r="521" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M521" s="1"/>
-      <c r="N521" s="1"/>
-      <c r="O521" s="1"/>
-      <c r="P521" s="1"/>
-      <c r="Q521" s="1"/>
-    </row>
-    <row r="522" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M522" s="1"/>
-      <c r="N522" s="1"/>
-      <c r="O522" s="1"/>
-      <c r="P522" s="1"/>
-      <c r="Q522" s="1"/>
-    </row>
-    <row r="523" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M523" s="1"/>
-      <c r="N523" s="1"/>
-      <c r="O523" s="1"/>
-      <c r="P523" s="1"/>
-      <c r="Q523" s="1"/>
-    </row>
-    <row r="524" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M524" s="1"/>
-      <c r="N524" s="1"/>
-      <c r="O524" s="1"/>
-      <c r="P524" s="1"/>
-      <c r="Q524" s="1"/>
-    </row>
-    <row r="525" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M525" s="1"/>
-      <c r="N525" s="1"/>
-      <c r="O525" s="1"/>
-      <c r="P525" s="1"/>
-      <c r="Q525" s="1"/>
-    </row>
-    <row r="526" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M526" s="1"/>
-      <c r="N526" s="1"/>
-      <c r="O526" s="1"/>
-      <c r="P526" s="1"/>
-      <c r="Q526" s="1"/>
-    </row>
-    <row r="527" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M527" s="1"/>
-      <c r="N527" s="1"/>
-      <c r="O527" s="1"/>
-      <c r="P527" s="1"/>
-      <c r="Q527" s="1"/>
-    </row>
-    <row r="528" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M528" s="1"/>
-      <c r="N528" s="1"/>
-      <c r="O528" s="1"/>
-      <c r="P528" s="1"/>
-      <c r="Q528" s="1"/>
-    </row>
-    <row r="529" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M529" s="1"/>
-      <c r="N529" s="1"/>
-      <c r="O529" s="1"/>
-      <c r="P529" s="1"/>
-      <c r="Q529" s="1"/>
-    </row>
-    <row r="530" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M530" s="1"/>
-      <c r="N530" s="1"/>
-      <c r="O530" s="1"/>
-      <c r="P530" s="1"/>
-      <c r="Q530" s="1"/>
-    </row>
-    <row r="531" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M531" s="1"/>
-      <c r="N531" s="1"/>
-      <c r="O531" s="1"/>
-      <c r="P531" s="1"/>
-      <c r="Q531" s="1"/>
-    </row>
-    <row r="532" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M532" s="1"/>
-      <c r="N532" s="1"/>
-      <c r="O532" s="1"/>
-      <c r="P532" s="1"/>
-      <c r="Q532" s="1"/>
-    </row>
-    <row r="533" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M533" s="1"/>
-      <c r="N533" s="1"/>
-      <c r="O533" s="1"/>
-      <c r="P533" s="1"/>
-      <c r="Q533" s="1"/>
-    </row>
-    <row r="534" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M534" s="1"/>
-      <c r="N534" s="1"/>
-      <c r="O534" s="1"/>
-      <c r="P534" s="1"/>
-      <c r="Q534" s="1"/>
-    </row>
-    <row r="535" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M535" s="1"/>
-      <c r="N535" s="1"/>
-      <c r="O535" s="1"/>
-      <c r="P535" s="1"/>
-      <c r="Q535" s="1"/>
-    </row>
-    <row r="536" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M536" s="1"/>
-      <c r="N536" s="1"/>
-      <c r="O536" s="1"/>
-      <c r="P536" s="1"/>
-      <c r="Q536" s="1"/>
-    </row>
-    <row r="537" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M537" s="1"/>
-      <c r="N537" s="1"/>
-      <c r="O537" s="1"/>
-      <c r="P537" s="1"/>
-      <c r="Q537" s="1"/>
-    </row>
-    <row r="538" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M538" s="1"/>
-      <c r="N538" s="1"/>
-      <c r="O538" s="1"/>
-      <c r="P538" s="1"/>
-      <c r="Q538" s="1"/>
-    </row>
-    <row r="539" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M539" s="1"/>
-      <c r="N539" s="1"/>
-      <c r="O539" s="1"/>
-      <c r="P539" s="1"/>
-      <c r="Q539" s="1"/>
-    </row>
-    <row r="540" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M540" s="1"/>
-      <c r="N540" s="1"/>
-      <c r="O540" s="1"/>
-      <c r="P540" s="1"/>
-      <c r="Q540" s="1"/>
-    </row>
-    <row r="541" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M541" s="1"/>
-      <c r="N541" s="1"/>
-      <c r="O541" s="1"/>
-      <c r="P541" s="1"/>
-      <c r="Q541" s="1"/>
-    </row>
-    <row r="542" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M542" s="1"/>
-      <c r="N542" s="1"/>
-      <c r="O542" s="1"/>
-      <c r="P542" s="1"/>
-      <c r="Q542" s="1"/>
-    </row>
-    <row r="543" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M543" s="1"/>
-      <c r="N543" s="1"/>
-      <c r="O543" s="1"/>
-      <c r="P543" s="1"/>
-      <c r="Q543" s="1"/>
-    </row>
-    <row r="544" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M544" s="1"/>
-      <c r="N544" s="1"/>
-      <c r="O544" s="1"/>
-      <c r="P544" s="1"/>
-      <c r="Q544" s="1"/>
-    </row>
-    <row r="545" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M545" s="1"/>
-      <c r="N545" s="1"/>
-      <c r="O545" s="1"/>
-      <c r="P545" s="1"/>
-      <c r="Q545" s="1"/>
-    </row>
-    <row r="546" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M546" s="1"/>
-      <c r="N546" s="1"/>
-      <c r="O546" s="1"/>
-      <c r="P546" s="1"/>
-      <c r="Q546" s="1"/>
-    </row>
-    <row r="547" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M547" s="1"/>
-      <c r="N547" s="1"/>
-      <c r="O547" s="1"/>
-      <c r="P547" s="1"/>
-      <c r="Q547" s="1"/>
-    </row>
-    <row r="548" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M548" s="1"/>
-      <c r="N548" s="1"/>
-      <c r="O548" s="1"/>
-      <c r="P548" s="1"/>
-      <c r="Q548" s="1"/>
-    </row>
-    <row r="549" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M549" s="1"/>
-      <c r="N549" s="1"/>
-      <c r="O549" s="1"/>
-      <c r="P549" s="1"/>
-      <c r="Q549" s="1"/>
-    </row>
-    <row r="550" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M550" s="1"/>
-      <c r="N550" s="1"/>
-      <c r="O550" s="1"/>
-      <c r="P550" s="1"/>
-      <c r="Q550" s="1"/>
-    </row>
-    <row r="551" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M551" s="1"/>
-      <c r="N551" s="1"/>
-      <c r="O551" s="1"/>
-      <c r="P551" s="1"/>
-      <c r="Q551" s="1"/>
-    </row>
-    <row r="552" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M552" s="1"/>
-      <c r="N552" s="1"/>
-      <c r="O552" s="1"/>
-      <c r="P552" s="1"/>
-      <c r="Q552" s="1"/>
-    </row>
-    <row r="553" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M553" s="1"/>
-      <c r="N553" s="1"/>
-      <c r="O553" s="1"/>
-      <c r="P553" s="1"/>
-      <c r="Q553" s="1"/>
-    </row>
-    <row r="554" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M554" s="1"/>
-      <c r="N554" s="1"/>
-      <c r="O554" s="1"/>
-      <c r="P554" s="1"/>
-      <c r="Q554" s="1"/>
-    </row>
-    <row r="555" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M555" s="1"/>
-      <c r="N555" s="1"/>
-      <c r="O555" s="1"/>
-      <c r="P555" s="1"/>
-      <c r="Q555" s="1"/>
-    </row>
-    <row r="556" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M556" s="1"/>
-      <c r="N556" s="1"/>
-      <c r="O556" s="1"/>
-      <c r="P556" s="1"/>
-      <c r="Q556" s="1"/>
-    </row>
-    <row r="557" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M557" s="1"/>
-      <c r="N557" s="1"/>
-      <c r="O557" s="1"/>
-      <c r="P557" s="1"/>
-      <c r="Q557" s="1"/>
-    </row>
-    <row r="558" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M558" s="1"/>
-      <c r="N558" s="1"/>
-      <c r="O558" s="1"/>
-      <c r="P558" s="1"/>
-      <c r="Q558" s="1"/>
-    </row>
-    <row r="559" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M559" s="1"/>
-      <c r="N559" s="1"/>
-      <c r="O559" s="1"/>
-      <c r="P559" s="1"/>
-      <c r="Q559" s="1"/>
-    </row>
-    <row r="560" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M560" s="1"/>
-      <c r="N560" s="1"/>
-      <c r="O560" s="1"/>
-      <c r="P560" s="1"/>
-      <c r="Q560" s="1"/>
-    </row>
-    <row r="561" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M561" s="1"/>
-      <c r="N561" s="1"/>
-      <c r="O561" s="1"/>
-      <c r="P561" s="1"/>
-      <c r="Q561" s="1"/>
-    </row>
-    <row r="562" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M562" s="1"/>
-      <c r="N562" s="1"/>
-      <c r="O562" s="1"/>
-      <c r="P562" s="1"/>
-      <c r="Q562" s="1"/>
-    </row>
-    <row r="563" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M563" s="1"/>
-      <c r="N563" s="1"/>
-      <c r="O563" s="1"/>
-      <c r="P563" s="1"/>
-      <c r="Q563" s="1"/>
-    </row>
-    <row r="564" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M564" s="1"/>
-      <c r="N564" s="1"/>
-      <c r="O564" s="1"/>
-      <c r="P564" s="1"/>
-      <c r="Q564" s="1"/>
-    </row>
-    <row r="565" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M565" s="1"/>
-      <c r="N565" s="1"/>
-      <c r="O565" s="1"/>
-      <c r="P565" s="1"/>
-      <c r="Q565" s="1"/>
-    </row>
-    <row r="566" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M566" s="1"/>
-      <c r="N566" s="1"/>
-      <c r="O566" s="1"/>
-      <c r="P566" s="1"/>
-      <c r="Q566" s="1"/>
-    </row>
-    <row r="567" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M567" s="1"/>
-      <c r="N567" s="1"/>
-      <c r="O567" s="1"/>
-      <c r="P567" s="1"/>
-      <c r="Q567" s="1"/>
-    </row>
-    <row r="568" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M568" s="1"/>
-      <c r="N568" s="1"/>
-      <c r="O568" s="1"/>
-      <c r="P568" s="1"/>
-      <c r="Q568" s="1"/>
-    </row>
-    <row r="569" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M569" s="1"/>
-      <c r="N569" s="1"/>
-      <c r="O569" s="1"/>
-      <c r="P569" s="1"/>
-      <c r="Q569" s="1"/>
-    </row>
-    <row r="570" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M570" s="1"/>
-      <c r="N570" s="1"/>
-      <c r="O570" s="1"/>
-      <c r="P570" s="1"/>
-      <c r="Q570" s="1"/>
-    </row>
-    <row r="571" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M571" s="1"/>
-      <c r="N571" s="1"/>
-      <c r="O571" s="1"/>
-      <c r="P571" s="1"/>
-      <c r="Q571" s="1"/>
-    </row>
-    <row r="572" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M572" s="1"/>
-      <c r="N572" s="1"/>
-      <c r="O572" s="1"/>
-      <c r="P572" s="1"/>
-      <c r="Q572" s="1"/>
-    </row>
-    <row r="573" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M573" s="1"/>
-      <c r="N573" s="1"/>
-      <c r="O573" s="1"/>
-      <c r="P573" s="1"/>
-      <c r="Q573" s="1"/>
-    </row>
-    <row r="574" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M574" s="1"/>
-      <c r="N574" s="1"/>
-      <c r="O574" s="1"/>
-      <c r="P574" s="1"/>
-      <c r="Q574" s="1"/>
-    </row>
-    <row r="575" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M575" s="1"/>
-      <c r="N575" s="1"/>
-      <c r="O575" s="1"/>
-      <c r="P575" s="1"/>
-      <c r="Q575" s="1"/>
-    </row>
-    <row r="576" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M576" s="1"/>
-      <c r="N576" s="1"/>
-      <c r="O576" s="1"/>
-      <c r="P576" s="1"/>
-      <c r="Q576" s="1"/>
-    </row>
-    <row r="577" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M577" s="1"/>
-      <c r="N577" s="1"/>
-      <c r="O577" s="1"/>
-      <c r="P577" s="1"/>
-      <c r="Q577" s="1"/>
-    </row>
-    <row r="578" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M578" s="1"/>
-      <c r="N578" s="1"/>
-      <c r="O578" s="1"/>
-      <c r="P578" s="1"/>
-      <c r="Q578" s="1"/>
-    </row>
-    <row r="579" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M579" s="1"/>
-      <c r="N579" s="1"/>
-      <c r="O579" s="1"/>
-      <c r="P579" s="1"/>
-      <c r="Q579" s="1"/>
-    </row>
-    <row r="580" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M580" s="1"/>
-      <c r="N580" s="1"/>
-      <c r="O580" s="1"/>
-      <c r="P580" s="1"/>
-      <c r="Q580" s="1"/>
-    </row>
-    <row r="581" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M581" s="1"/>
-      <c r="N581" s="1"/>
-      <c r="O581" s="1"/>
-      <c r="P581" s="1"/>
-      <c r="Q581" s="1"/>
-    </row>
-    <row r="582" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M582" s="1"/>
-      <c r="N582" s="1"/>
-      <c r="O582" s="1"/>
-      <c r="P582" s="1"/>
-      <c r="Q582" s="1"/>
-    </row>
-    <row r="583" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M583" s="1"/>
-      <c r="N583" s="1"/>
-      <c r="O583" s="1"/>
-      <c r="P583" s="1"/>
-      <c r="Q583" s="1"/>
-    </row>
-    <row r="584" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M584" s="1"/>
-      <c r="N584" s="1"/>
-      <c r="O584" s="1"/>
-      <c r="P584" s="1"/>
-      <c r="Q584" s="1"/>
-    </row>
-    <row r="585" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M585" s="1"/>
-      <c r="N585" s="1"/>
-      <c r="O585" s="1"/>
-      <c r="P585" s="1"/>
-      <c r="Q585" s="1"/>
-    </row>
-    <row r="586" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M586" s="1"/>
-      <c r="N586" s="1"/>
-      <c r="O586" s="1"/>
-      <c r="P586" s="1"/>
-      <c r="Q586" s="1"/>
-    </row>
-    <row r="587" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M587" s="1"/>
-      <c r="N587" s="1"/>
-      <c r="O587" s="1"/>
-      <c r="P587" s="1"/>
-      <c r="Q587" s="1"/>
-    </row>
-    <row r="588" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M588" s="1"/>
-      <c r="N588" s="1"/>
-      <c r="O588" s="1"/>
-      <c r="P588" s="1"/>
-      <c r="Q588" s="1"/>
-    </row>
-    <row r="589" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M589" s="1"/>
-      <c r="N589" s="1"/>
-      <c r="O589" s="1"/>
-      <c r="P589" s="1"/>
-      <c r="Q589" s="1"/>
-    </row>
-    <row r="590" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M590" s="1"/>
-      <c r="N590" s="1"/>
-      <c r="O590" s="1"/>
-      <c r="P590" s="1"/>
-      <c r="Q590" s="1"/>
-    </row>
-    <row r="591" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M591" s="1"/>
-      <c r="N591" s="1"/>
-      <c r="O591" s="1"/>
-      <c r="P591" s="1"/>
-      <c r="Q591" s="1"/>
-    </row>
-    <row r="592" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M592" s="1"/>
-      <c r="N592" s="1"/>
-      <c r="O592" s="1"/>
-      <c r="P592" s="1"/>
-      <c r="Q592" s="1"/>
-    </row>
-    <row r="593" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M593" s="1"/>
-      <c r="N593" s="1"/>
-      <c r="O593" s="1"/>
-      <c r="P593" s="1"/>
-      <c r="Q593" s="1"/>
-    </row>
-    <row r="594" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M594" s="1"/>
-      <c r="N594" s="1"/>
-      <c r="O594" s="1"/>
-      <c r="P594" s="1"/>
-      <c r="Q594" s="1"/>
-    </row>
-    <row r="595" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M595" s="1"/>
-      <c r="N595" s="1"/>
-      <c r="O595" s="1"/>
-      <c r="P595" s="1"/>
-      <c r="Q595" s="1"/>
-    </row>
-    <row r="596" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M596" s="1"/>
-      <c r="N596" s="1"/>
-      <c r="O596" s="1"/>
-      <c r="P596" s="1"/>
-      <c r="Q596" s="1"/>
-    </row>
-    <row r="597" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M597" s="1"/>
-      <c r="N597" s="1"/>
-      <c r="O597" s="1"/>
-      <c r="P597" s="1"/>
-      <c r="Q597" s="1"/>
-    </row>
-    <row r="598" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M598" s="1"/>
-      <c r="N598" s="1"/>
-      <c r="O598" s="1"/>
-      <c r="P598" s="1"/>
-      <c r="Q598" s="1"/>
-    </row>
-    <row r="599" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M599" s="1"/>
-      <c r="N599" s="1"/>
-      <c r="O599" s="1"/>
-      <c r="P599" s="1"/>
-      <c r="Q599" s="1"/>
-    </row>
-    <row r="600" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M600" s="1"/>
-      <c r="N600" s="1"/>
-      <c r="O600" s="1"/>
-      <c r="P600" s="1"/>
-      <c r="Q600" s="1"/>
-    </row>
-    <row r="601" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M601" s="1"/>
-      <c r="N601" s="1"/>
-      <c r="O601" s="1"/>
-      <c r="P601" s="1"/>
-      <c r="Q601" s="1"/>
-    </row>
-    <row r="602" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M602" s="1"/>
-      <c r="N602" s="1"/>
-      <c r="O602" s="1"/>
-      <c r="P602" s="1"/>
-      <c r="Q602" s="1"/>
-    </row>
-    <row r="603" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M603" s="1"/>
-      <c r="N603" s="1"/>
-      <c r="O603" s="1"/>
-      <c r="P603" s="1"/>
-      <c r="Q603" s="1"/>
-    </row>
-    <row r="604" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M604" s="1"/>
-      <c r="N604" s="1"/>
-      <c r="O604" s="1"/>
-      <c r="P604" s="1"/>
-      <c r="Q604" s="1"/>
-    </row>
-    <row r="605" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M605" s="1"/>
-      <c r="N605" s="1"/>
-      <c r="O605" s="1"/>
-      <c r="P605" s="1"/>
-      <c r="Q605" s="1"/>
-    </row>
-    <row r="606" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M606" s="1"/>
-      <c r="N606" s="1"/>
-      <c r="O606" s="1"/>
-      <c r="P606" s="1"/>
-      <c r="Q606" s="1"/>
-    </row>
-    <row r="607" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M607" s="1"/>
-      <c r="N607" s="1"/>
-      <c r="O607" s="1"/>
-      <c r="P607" s="1"/>
-      <c r="Q607" s="1"/>
-    </row>
-    <row r="608" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M608" s="1"/>
-      <c r="N608" s="1"/>
-      <c r="O608" s="1"/>
-      <c r="P608" s="1"/>
-      <c r="Q608" s="1"/>
-    </row>
-    <row r="609" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M609" s="1"/>
-      <c r="N609" s="1"/>
-      <c r="O609" s="1"/>
-      <c r="P609" s="1"/>
-      <c r="Q609" s="1"/>
-    </row>
-    <row r="610" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M610" s="1"/>
-      <c r="N610" s="1"/>
-      <c r="O610" s="1"/>
-      <c r="P610" s="1"/>
-      <c r="Q610" s="1"/>
-    </row>
-    <row r="611" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M611" s="1"/>
-      <c r="N611" s="1"/>
-      <c r="O611" s="1"/>
-      <c r="P611" s="1"/>
-      <c r="Q611" s="1"/>
-    </row>
-    <row r="612" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M612" s="1"/>
-      <c r="N612" s="1"/>
-      <c r="O612" s="1"/>
-      <c r="P612" s="1"/>
-      <c r="Q612" s="1"/>
-    </row>
-    <row r="613" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M613" s="1"/>
-      <c r="N613" s="1"/>
-      <c r="O613" s="1"/>
-      <c r="P613" s="1"/>
-      <c r="Q613" s="1"/>
-    </row>
-    <row r="614" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M614" s="1"/>
-      <c r="N614" s="1"/>
-      <c r="O614" s="1"/>
-      <c r="P614" s="1"/>
-      <c r="Q614" s="1"/>
-    </row>
-    <row r="615" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M615" s="1"/>
-      <c r="N615" s="1"/>
-      <c r="O615" s="1"/>
-      <c r="P615" s="1"/>
-      <c r="Q615" s="1"/>
-    </row>
-    <row r="616" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M616" s="1"/>
-      <c r="N616" s="1"/>
-      <c r="O616" s="1"/>
-      <c r="P616" s="1"/>
-      <c r="Q616" s="1"/>
-    </row>
-    <row r="617" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M617" s="1"/>
-      <c r="N617" s="1"/>
-      <c r="O617" s="1"/>
-      <c r="P617" s="1"/>
-      <c r="Q617" s="1"/>
-    </row>
-    <row r="618" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M618" s="1"/>
-      <c r="N618" s="1"/>
-      <c r="O618" s="1"/>
-      <c r="P618" s="1"/>
-      <c r="Q618" s="1"/>
-    </row>
-    <row r="619" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M619" s="1"/>
-      <c r="N619" s="1"/>
-      <c r="O619" s="1"/>
-      <c r="P619" s="1"/>
-      <c r="Q619" s="1"/>
-    </row>
-    <row r="620" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M620" s="1"/>
-      <c r="N620" s="1"/>
-      <c r="O620" s="1"/>
-      <c r="P620" s="1"/>
-      <c r="Q620" s="1"/>
-    </row>
-    <row r="621" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M621" s="1"/>
-      <c r="N621" s="1"/>
-      <c r="O621" s="1"/>
-      <c r="P621" s="1"/>
-      <c r="Q621" s="1"/>
-    </row>
-    <row r="622" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M622" s="1"/>
-      <c r="N622" s="1"/>
-      <c r="O622" s="1"/>
-      <c r="P622" s="1"/>
-      <c r="Q622" s="1"/>
-    </row>
-    <row r="623" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M623" s="1"/>
-      <c r="N623" s="1"/>
-      <c r="O623" s="1"/>
-      <c r="P623" s="1"/>
-      <c r="Q623" s="1"/>
-    </row>
-    <row r="624" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M624" s="1"/>
-      <c r="N624" s="1"/>
-      <c r="O624" s="1"/>
-      <c r="P624" s="1"/>
-      <c r="Q624" s="1"/>
-    </row>
-    <row r="625" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M625" s="1"/>
-      <c r="N625" s="1"/>
-      <c r="O625" s="1"/>
-      <c r="P625" s="1"/>
-      <c r="Q625" s="1"/>
-    </row>
-    <row r="626" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M626" s="1"/>
-      <c r="N626" s="1"/>
-      <c r="O626" s="1"/>
-      <c r="P626" s="1"/>
-      <c r="Q626" s="1"/>
-    </row>
-    <row r="627" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M627" s="1"/>
-      <c r="N627" s="1"/>
-      <c r="O627" s="1"/>
-      <c r="P627" s="1"/>
-      <c r="Q627" s="1"/>
-    </row>
-    <row r="628" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M628" s="1"/>
-      <c r="N628" s="1"/>
-      <c r="O628" s="1"/>
-      <c r="P628" s="1"/>
-      <c r="Q628" s="1"/>
-    </row>
-    <row r="629" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M629" s="1"/>
-      <c r="N629" s="1"/>
-      <c r="O629" s="1"/>
-      <c r="P629" s="1"/>
-      <c r="Q629" s="1"/>
-    </row>
-    <row r="630" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M630" s="1"/>
-      <c r="N630" s="1"/>
-      <c r="O630" s="1"/>
-      <c r="P630" s="1"/>
-      <c r="Q630" s="1"/>
-    </row>
-    <row r="631" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M631" s="1"/>
-      <c r="N631" s="1"/>
-      <c r="O631" s="1"/>
-      <c r="P631" s="1"/>
-      <c r="Q631" s="1"/>
-    </row>
-    <row r="632" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M632" s="1"/>
-      <c r="N632" s="1"/>
-      <c r="O632" s="1"/>
-      <c r="P632" s="1"/>
-      <c r="Q632" s="1"/>
-    </row>
-    <row r="633" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M633" s="1"/>
-      <c r="N633" s="1"/>
-      <c r="O633" s="1"/>
-      <c r="P633" s="1"/>
-      <c r="Q633" s="1"/>
-    </row>
-    <row r="634" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M634" s="1"/>
-      <c r="N634" s="1"/>
-      <c r="O634" s="1"/>
-      <c r="P634" s="1"/>
-      <c r="Q634" s="1"/>
-    </row>
-    <row r="635" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M635" s="1"/>
-      <c r="N635" s="1"/>
-      <c r="O635" s="1"/>
-      <c r="P635" s="1"/>
-      <c r="Q635" s="1"/>
-    </row>
-    <row r="636" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M636" s="1"/>
-      <c r="N636" s="1"/>
-      <c r="O636" s="1"/>
-      <c r="P636" s="1"/>
-      <c r="Q636" s="1"/>
-    </row>
-    <row r="637" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M637" s="1"/>
-      <c r="N637" s="1"/>
-      <c r="O637" s="1"/>
-      <c r="P637" s="1"/>
-      <c r="Q637" s="1"/>
-    </row>
-    <row r="638" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M638" s="1"/>
-      <c r="N638" s="1"/>
-      <c r="O638" s="1"/>
-      <c r="P638" s="1"/>
-      <c r="Q638" s="1"/>
-    </row>
-    <row r="639" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M639" s="1"/>
-      <c r="N639" s="1"/>
-      <c r="O639" s="1"/>
-      <c r="P639" s="1"/>
-      <c r="Q639" s="1"/>
-    </row>
-    <row r="640" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M640" s="1"/>
-      <c r="N640" s="1"/>
-      <c r="O640" s="1"/>
-      <c r="P640" s="1"/>
-      <c r="Q640" s="1"/>
-    </row>
-    <row r="641" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M641" s="1"/>
-      <c r="N641" s="1"/>
-      <c r="O641" s="1"/>
-      <c r="P641" s="1"/>
-      <c r="Q641" s="1"/>
-    </row>
-    <row r="642" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M642" s="1"/>
-      <c r="N642" s="1"/>
-      <c r="O642" s="1"/>
-      <c r="P642" s="1"/>
-      <c r="Q642" s="1"/>
-    </row>
-    <row r="643" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M643" s="1"/>
-      <c r="N643" s="1"/>
-      <c r="O643" s="1"/>
-      <c r="P643" s="1"/>
-      <c r="Q643" s="1"/>
-    </row>
-    <row r="644" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M644" s="1"/>
-      <c r="N644" s="1"/>
-      <c r="O644" s="1"/>
-      <c r="P644" s="1"/>
-      <c r="Q644" s="1"/>
-    </row>
-    <row r="645" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M645" s="1"/>
-      <c r="N645" s="1"/>
-      <c r="O645" s="1"/>
-      <c r="P645" s="1"/>
-      <c r="Q645" s="1"/>
-    </row>
-    <row r="646" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M646" s="1"/>
-      <c r="N646" s="1"/>
-      <c r="O646" s="1"/>
-      <c r="P646" s="1"/>
-      <c r="Q646" s="1"/>
-    </row>
-    <row r="647" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M647" s="1"/>
-      <c r="N647" s="1"/>
-      <c r="O647" s="1"/>
-      <c r="P647" s="1"/>
-      <c r="Q647" s="1"/>
-    </row>
-    <row r="648" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M648" s="1"/>
-      <c r="N648" s="1"/>
-      <c r="O648" s="1"/>
-      <c r="P648" s="1"/>
-      <c r="Q648" s="1"/>
-    </row>
-    <row r="649" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M649" s="1"/>
-      <c r="N649" s="1"/>
-      <c r="O649" s="1"/>
-      <c r="P649" s="1"/>
-      <c r="Q649" s="1"/>
-    </row>
-    <row r="650" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M650" s="1"/>
-      <c r="N650" s="1"/>
-      <c r="O650" s="1"/>
-      <c r="P650" s="1"/>
-      <c r="Q650" s="1"/>
-    </row>
-    <row r="651" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M651" s="1"/>
-      <c r="N651" s="1"/>
-      <c r="O651" s="1"/>
-      <c r="P651" s="1"/>
-      <c r="Q651" s="1"/>
-    </row>
-    <row r="652" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M652" s="1"/>
-      <c r="N652" s="1"/>
-      <c r="O652" s="1"/>
-      <c r="P652" s="1"/>
-      <c r="Q652" s="1"/>
-    </row>
-    <row r="653" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M653" s="1"/>
-      <c r="N653" s="1"/>
-      <c r="O653" s="1"/>
-      <c r="P653" s="1"/>
-      <c r="Q653" s="1"/>
-    </row>
-    <row r="654" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M654" s="1"/>
-      <c r="N654" s="1"/>
-      <c r="O654" s="1"/>
-      <c r="P654" s="1"/>
-      <c r="Q654" s="1"/>
-    </row>
-    <row r="655" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M655" s="1"/>
-      <c r="N655" s="1"/>
-      <c r="O655" s="1"/>
-      <c r="P655" s="1"/>
-      <c r="Q655" s="1"/>
-    </row>
-    <row r="656" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M656" s="1"/>
-      <c r="N656" s="1"/>
-      <c r="O656" s="1"/>
-      <c r="P656" s="1"/>
-      <c r="Q656" s="1"/>
-    </row>
-    <row r="657" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M657" s="1"/>
-      <c r="N657" s="1"/>
-      <c r="O657" s="1"/>
-      <c r="P657" s="1"/>
-      <c r="Q657" s="1"/>
-    </row>
-    <row r="658" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M658" s="1"/>
-      <c r="N658" s="1"/>
-      <c r="O658" s="1"/>
-      <c r="P658" s="1"/>
-      <c r="Q658" s="1"/>
-    </row>
-    <row r="659" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M659" s="1"/>
-      <c r="N659" s="1"/>
-      <c r="O659" s="1"/>
-      <c r="P659" s="1"/>
-      <c r="Q659" s="1"/>
-    </row>
-    <row r="660" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M660" s="1"/>
-      <c r="N660" s="1"/>
-      <c r="O660" s="1"/>
-      <c r="P660" s="1"/>
-      <c r="Q660" s="1"/>
-    </row>
-    <row r="661" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M661" s="1"/>
-      <c r="N661" s="1"/>
-      <c r="O661" s="1"/>
-      <c r="P661" s="1"/>
-      <c r="Q661" s="1"/>
-    </row>
-    <row r="662" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M662" s="1"/>
-      <c r="N662" s="1"/>
-      <c r="O662" s="1"/>
-      <c r="P662" s="1"/>
-      <c r="Q662" s="1"/>
-    </row>
-    <row r="663" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M663" s="1"/>
-      <c r="N663" s="1"/>
-      <c r="O663" s="1"/>
-      <c r="P663" s="1"/>
-      <c r="Q663" s="1"/>
-    </row>
-    <row r="664" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M664" s="1"/>
-      <c r="N664" s="1"/>
-      <c r="O664" s="1"/>
-      <c r="P664" s="1"/>
-      <c r="Q664" s="1"/>
-    </row>
-    <row r="665" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M665" s="1"/>
-      <c r="N665" s="1"/>
-      <c r="O665" s="1"/>
-      <c r="P665" s="1"/>
-      <c r="Q665" s="1"/>
-    </row>
-    <row r="666" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M666" s="1"/>
-      <c r="N666" s="1"/>
-      <c r="O666" s="1"/>
-      <c r="P666" s="1"/>
-      <c r="Q666" s="1"/>
-    </row>
-    <row r="667" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M667" s="1"/>
-      <c r="N667" s="1"/>
-      <c r="O667" s="1"/>
-      <c r="P667" s="1"/>
-      <c r="Q667" s="1"/>
-    </row>
-    <row r="668" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M668" s="1"/>
-      <c r="N668" s="1"/>
-      <c r="O668" s="1"/>
-      <c r="P668" s="1"/>
-      <c r="Q668" s="1"/>
-    </row>
-    <row r="669" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M669" s="1"/>
-      <c r="N669" s="1"/>
-      <c r="O669" s="1"/>
-      <c r="P669" s="1"/>
-      <c r="Q669" s="1"/>
-    </row>
-    <row r="670" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M670" s="1"/>
-      <c r="N670" s="1"/>
-      <c r="O670" s="1"/>
-      <c r="P670" s="1"/>
-      <c r="Q670" s="1"/>
-    </row>
-    <row r="671" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M671" s="1"/>
-      <c r="N671" s="1"/>
-      <c r="O671" s="1"/>
-      <c r="P671" s="1"/>
-      <c r="Q671" s="1"/>
-    </row>
-    <row r="672" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M672" s="1"/>
-      <c r="N672" s="1"/>
-      <c r="O672" s="1"/>
-      <c r="P672" s="1"/>
-      <c r="Q672" s="1"/>
-    </row>
-    <row r="673" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M673" s="1"/>
-      <c r="N673" s="1"/>
-      <c r="O673" s="1"/>
-      <c r="P673" s="1"/>
-      <c r="Q673" s="1"/>
-    </row>
-    <row r="674" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M674" s="1"/>
-      <c r="N674" s="1"/>
-      <c r="O674" s="1"/>
-      <c r="P674" s="1"/>
-      <c r="Q674" s="1"/>
-    </row>
-    <row r="675" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M675" s="1"/>
-      <c r="N675" s="1"/>
-      <c r="O675" s="1"/>
-      <c r="P675" s="1"/>
-      <c r="Q675" s="1"/>
-    </row>
-    <row r="676" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M676" s="1"/>
-      <c r="N676" s="1"/>
-      <c r="O676" s="1"/>
-      <c r="P676" s="1"/>
-      <c r="Q676" s="1"/>
-    </row>
-    <row r="677" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M677" s="1"/>
-      <c r="N677" s="1"/>
-      <c r="O677" s="1"/>
-      <c r="P677" s="1"/>
-      <c r="Q677" s="1"/>
-    </row>
-    <row r="678" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M678" s="1"/>
-      <c r="N678" s="1"/>
-      <c r="O678" s="1"/>
-      <c r="P678" s="1"/>
-      <c r="Q678" s="1"/>
-    </row>
-    <row r="679" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M679" s="1"/>
-      <c r="N679" s="1"/>
-      <c r="O679" s="1"/>
-      <c r="P679" s="1"/>
-      <c r="Q679" s="1"/>
-    </row>
-    <row r="680" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M680" s="1"/>
-      <c r="N680" s="1"/>
-      <c r="O680" s="1"/>
-      <c r="P680" s="1"/>
-      <c r="Q680" s="1"/>
-    </row>
-    <row r="681" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M681" s="1"/>
-      <c r="N681" s="1"/>
-      <c r="O681" s="1"/>
-      <c r="P681" s="1"/>
-      <c r="Q681" s="1"/>
-    </row>
-    <row r="682" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M682" s="1"/>
-      <c r="N682" s="1"/>
-      <c r="O682" s="1"/>
-      <c r="P682" s="1"/>
-      <c r="Q682" s="1"/>
-    </row>
-    <row r="683" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M683" s="1"/>
-      <c r="N683" s="1"/>
-      <c r="O683" s="1"/>
-      <c r="P683" s="1"/>
-      <c r="Q683" s="1"/>
-    </row>
-    <row r="684" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M684" s="1"/>
-      <c r="N684" s="1"/>
-      <c r="O684" s="1"/>
-      <c r="P684" s="1"/>
-      <c r="Q684" s="1"/>
-    </row>
-    <row r="685" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M685" s="1"/>
-      <c r="N685" s="1"/>
-      <c r="O685" s="1"/>
-      <c r="P685" s="1"/>
-      <c r="Q685" s="1"/>
-    </row>
-    <row r="686" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M686" s="1"/>
-      <c r="N686" s="1"/>
-      <c r="O686" s="1"/>
-      <c r="P686" s="1"/>
-      <c r="Q686" s="1"/>
-    </row>
-    <row r="687" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M687" s="1"/>
-      <c r="N687" s="1"/>
-      <c r="O687" s="1"/>
-      <c r="P687" s="1"/>
-      <c r="Q687" s="1"/>
-    </row>
-    <row r="688" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M688" s="1"/>
-      <c r="N688" s="1"/>
-      <c r="O688" s="1"/>
-      <c r="P688" s="1"/>
-      <c r="Q688" s="1"/>
-    </row>
-    <row r="689" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M689" s="1"/>
-      <c r="N689" s="1"/>
-      <c r="O689" s="1"/>
-      <c r="P689" s="1"/>
-      <c r="Q689" s="1"/>
-    </row>
-    <row r="690" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M690" s="1"/>
-      <c r="N690" s="1"/>
-      <c r="O690" s="1"/>
-      <c r="P690" s="1"/>
-      <c r="Q690" s="1"/>
-    </row>
-    <row r="691" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M691" s="1"/>
-      <c r="N691" s="1"/>
-      <c r="O691" s="1"/>
-      <c r="P691" s="1"/>
-      <c r="Q691" s="1"/>
-    </row>
-    <row r="692" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M692" s="1"/>
-      <c r="N692" s="1"/>
-      <c r="O692" s="1"/>
-      <c r="P692" s="1"/>
-      <c r="Q692" s="1"/>
-    </row>
-    <row r="693" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M693" s="1"/>
-      <c r="N693" s="1"/>
-      <c r="O693" s="1"/>
-      <c r="P693" s="1"/>
-      <c r="Q693" s="1"/>
-    </row>
-    <row r="694" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M694" s="1"/>
-      <c r="N694" s="1"/>
-      <c r="O694" s="1"/>
-      <c r="P694" s="1"/>
-      <c r="Q694" s="1"/>
-    </row>
-    <row r="695" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M695" s="1"/>
-      <c r="N695" s="1"/>
-      <c r="O695" s="1"/>
-      <c r="P695" s="1"/>
-      <c r="Q695" s="1"/>
-    </row>
-    <row r="696" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M696" s="1"/>
-      <c r="N696" s="1"/>
-      <c r="O696" s="1"/>
-      <c r="P696" s="1"/>
-      <c r="Q696" s="1"/>
-    </row>
-    <row r="697" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M697" s="1"/>
-      <c r="N697" s="1"/>
-      <c r="O697" s="1"/>
-      <c r="P697" s="1"/>
-      <c r="Q697" s="1"/>
-    </row>
-    <row r="698" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M698" s="1"/>
-      <c r="N698" s="1"/>
-      <c r="O698" s="1"/>
-      <c r="P698" s="1"/>
-      <c r="Q698" s="1"/>
-    </row>
-    <row r="699" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M699" s="1"/>
-      <c r="N699" s="1"/>
-      <c r="O699" s="1"/>
-      <c r="P699" s="1"/>
-      <c r="Q699" s="1"/>
-    </row>
-    <row r="700" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M700" s="1"/>
-      <c r="N700" s="1"/>
-      <c r="O700" s="1"/>
-      <c r="P700" s="1"/>
-      <c r="Q700" s="1"/>
-    </row>
-    <row r="701" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M701" s="1"/>
-      <c r="N701" s="1"/>
-      <c r="O701" s="1"/>
-      <c r="P701" s="1"/>
-      <c r="Q701" s="1"/>
-    </row>
-    <row r="702" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M702" s="1"/>
-      <c r="N702" s="1"/>
-      <c r="O702" s="1"/>
-      <c r="P702" s="1"/>
-      <c r="Q702" s="1"/>
-    </row>
-    <row r="703" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M703" s="1"/>
-      <c r="N703" s="1"/>
-      <c r="O703" s="1"/>
-      <c r="P703" s="1"/>
-      <c r="Q703" s="1"/>
-    </row>
-    <row r="704" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M704" s="1"/>
-      <c r="N704" s="1"/>
-      <c r="O704" s="1"/>
-      <c r="P704" s="1"/>
-      <c r="Q704" s="1"/>
-    </row>
-    <row r="705" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M705" s="1"/>
-      <c r="N705" s="1"/>
-      <c r="O705" s="1"/>
-      <c r="P705" s="1"/>
-      <c r="Q705" s="1"/>
-    </row>
-    <row r="706" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M706" s="1"/>
-      <c r="N706" s="1"/>
-      <c r="O706" s="1"/>
-      <c r="P706" s="1"/>
-      <c r="Q706" s="1"/>
-    </row>
-    <row r="707" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M707" s="1"/>
-      <c r="N707" s="1"/>
-      <c r="O707" s="1"/>
-      <c r="P707" s="1"/>
-      <c r="Q707" s="1"/>
-    </row>
-    <row r="708" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M708" s="1"/>
-      <c r="N708" s="1"/>
-      <c r="O708" s="1"/>
-      <c r="P708" s="1"/>
-      <c r="Q708" s="1"/>
-    </row>
-    <row r="709" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M709" s="1"/>
-      <c r="N709" s="1"/>
-      <c r="O709" s="1"/>
-      <c r="P709" s="1"/>
-      <c r="Q709" s="1"/>
-    </row>
-    <row r="710" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M710" s="1"/>
-      <c r="N710" s="1"/>
-      <c r="O710" s="1"/>
-      <c r="P710" s="1"/>
-      <c r="Q710" s="1"/>
-    </row>
-    <row r="711" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M711" s="1"/>
-      <c r="N711" s="1"/>
-      <c r="O711" s="1"/>
-      <c r="P711" s="1"/>
-      <c r="Q711" s="1"/>
-    </row>
-    <row r="712" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M712" s="1"/>
-      <c r="N712" s="1"/>
-      <c r="O712" s="1"/>
-      <c r="P712" s="1"/>
-      <c r="Q712" s="1"/>
-    </row>
-    <row r="713" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M713" s="1"/>
-      <c r="N713" s="1"/>
-      <c r="O713" s="1"/>
-      <c r="P713" s="1"/>
-      <c r="Q713" s="1"/>
-    </row>
-    <row r="714" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M714" s="1"/>
-      <c r="N714" s="1"/>
-      <c r="O714" s="1"/>
-      <c r="P714" s="1"/>
-      <c r="Q714" s="1"/>
-    </row>
-    <row r="715" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M715" s="1"/>
-      <c r="N715" s="1"/>
-      <c r="O715" s="1"/>
-      <c r="P715" s="1"/>
-      <c r="Q715" s="1"/>
-    </row>
-    <row r="716" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M716" s="1"/>
-      <c r="N716" s="1"/>
-      <c r="O716" s="1"/>
-      <c r="P716" s="1"/>
-      <c r="Q716" s="1"/>
-    </row>
-    <row r="717" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M717" s="1"/>
-      <c r="N717" s="1"/>
-      <c r="O717" s="1"/>
-      <c r="P717" s="1"/>
-      <c r="Q717" s="1"/>
-    </row>
-    <row r="718" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M718" s="1"/>
-      <c r="N718" s="1"/>
-      <c r="O718" s="1"/>
-      <c r="P718" s="1"/>
-      <c r="Q718" s="1"/>
-    </row>
-    <row r="719" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M719" s="1"/>
-      <c r="N719" s="1"/>
-      <c r="O719" s="1"/>
-      <c r="P719" s="1"/>
-      <c r="Q719" s="1"/>
-    </row>
-    <row r="720" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M720" s="1"/>
-      <c r="N720" s="1"/>
-      <c r="O720" s="1"/>
-      <c r="P720" s="1"/>
-      <c r="Q720" s="1"/>
-    </row>
-    <row r="721" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M721" s="1"/>
-      <c r="N721" s="1"/>
-      <c r="O721" s="1"/>
-      <c r="P721" s="1"/>
-      <c r="Q721" s="1"/>
-    </row>
-    <row r="722" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M722" s="1"/>
-      <c r="N722" s="1"/>
-      <c r="O722" s="1"/>
-      <c r="P722" s="1"/>
-      <c r="Q722" s="1"/>
-    </row>
-    <row r="723" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M723" s="1"/>
-      <c r="N723" s="1"/>
-      <c r="O723" s="1"/>
-      <c r="P723" s="1"/>
-      <c r="Q723" s="1"/>
-    </row>
-    <row r="724" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M724" s="1"/>
-      <c r="N724" s="1"/>
-      <c r="O724" s="1"/>
-      <c r="P724" s="1"/>
-      <c r="Q724" s="1"/>
-    </row>
-    <row r="725" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M725" s="1"/>
-      <c r="N725" s="1"/>
-      <c r="O725" s="1"/>
-      <c r="P725" s="1"/>
-      <c r="Q725" s="1"/>
-    </row>
-    <row r="726" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M726" s="1"/>
-      <c r="N726" s="1"/>
-      <c r="O726" s="1"/>
-      <c r="P726" s="1"/>
-      <c r="Q726" s="1"/>
-    </row>
-    <row r="727" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M727" s="1"/>
-      <c r="N727" s="1"/>
-      <c r="O727" s="1"/>
-      <c r="P727" s="1"/>
-      <c r="Q727" s="1"/>
-    </row>
-    <row r="728" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M728" s="1"/>
-      <c r="N728" s="1"/>
-      <c r="O728" s="1"/>
-      <c r="P728" s="1"/>
-      <c r="Q728" s="1"/>
-    </row>
-    <row r="729" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M729" s="1"/>
-      <c r="N729" s="1"/>
-      <c r="O729" s="1"/>
-      <c r="P729" s="1"/>
-      <c r="Q729" s="1"/>
-    </row>
-    <row r="730" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M730" s="1"/>
-      <c r="N730" s="1"/>
-      <c r="O730" s="1"/>
-      <c r="P730" s="1"/>
-      <c r="Q730" s="1"/>
-    </row>
-    <row r="731" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M731" s="1"/>
-      <c r="N731" s="1"/>
-      <c r="O731" s="1"/>
-      <c r="P731" s="1"/>
-      <c r="Q731" s="1"/>
-    </row>
-    <row r="732" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M732" s="1"/>
-      <c r="N732" s="1"/>
-      <c r="O732" s="1"/>
-      <c r="P732" s="1"/>
-      <c r="Q732" s="1"/>
-    </row>
-    <row r="733" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M733" s="1"/>
-      <c r="N733" s="1"/>
-      <c r="O733" s="1"/>
-      <c r="P733" s="1"/>
-      <c r="Q733" s="1"/>
-    </row>
-    <row r="734" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M734" s="1"/>
-      <c r="N734" s="1"/>
-      <c r="O734" s="1"/>
-      <c r="P734" s="1"/>
-      <c r="Q734" s="1"/>
-    </row>
-    <row r="735" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M735" s="1"/>
-      <c r="N735" s="1"/>
-      <c r="O735" s="1"/>
-      <c r="P735" s="1"/>
-      <c r="Q735" s="1"/>
-    </row>
-    <row r="736" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M736" s="1"/>
-      <c r="N736" s="1"/>
-      <c r="O736" s="1"/>
-      <c r="P736" s="1"/>
-      <c r="Q736" s="1"/>
-    </row>
-    <row r="737" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M737" s="1"/>
-      <c r="N737" s="1"/>
-      <c r="O737" s="1"/>
-      <c r="P737" s="1"/>
-      <c r="Q737" s="1"/>
-    </row>
-    <row r="738" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M738" s="1"/>
-      <c r="N738" s="1"/>
-      <c r="O738" s="1"/>
-      <c r="P738" s="1"/>
-      <c r="Q738" s="1"/>
-    </row>
-    <row r="739" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M739" s="1"/>
-      <c r="N739" s="1"/>
-      <c r="O739" s="1"/>
-      <c r="P739" s="1"/>
-      <c r="Q739" s="1"/>
-    </row>
-    <row r="740" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M740" s="1"/>
-      <c r="N740" s="1"/>
-      <c r="O740" s="1"/>
-      <c r="P740" s="1"/>
-      <c r="Q740" s="1"/>
-    </row>
-    <row r="741" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M741" s="1"/>
-      <c r="N741" s="1"/>
-      <c r="O741" s="1"/>
-      <c r="P741" s="1"/>
-      <c r="Q741" s="1"/>
-    </row>
-    <row r="742" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M742" s="1"/>
-      <c r="N742" s="1"/>
-      <c r="O742" s="1"/>
-      <c r="P742" s="1"/>
-      <c r="Q742" s="1"/>
-    </row>
-    <row r="743" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M743" s="1"/>
-      <c r="N743" s="1"/>
-      <c r="O743" s="1"/>
-      <c r="P743" s="1"/>
-      <c r="Q743" s="1"/>
-    </row>
-    <row r="744" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M744" s="1"/>
-      <c r="N744" s="1"/>
-      <c r="O744" s="1"/>
-      <c r="P744" s="1"/>
-      <c r="Q744" s="1"/>
-    </row>
-    <row r="745" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M745" s="1"/>
-      <c r="N745" s="1"/>
-      <c r="O745" s="1"/>
-      <c r="P745" s="1"/>
-      <c r="Q745" s="1"/>
-    </row>
-    <row r="746" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M746" s="1"/>
-      <c r="N746" s="1"/>
-      <c r="O746" s="1"/>
-      <c r="P746" s="1"/>
-      <c r="Q746" s="1"/>
-    </row>
-    <row r="747" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M747" s="1"/>
-      <c r="N747" s="1"/>
-      <c r="O747" s="1"/>
-      <c r="P747" s="1"/>
-      <c r="Q747" s="1"/>
-    </row>
-    <row r="748" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M748" s="1"/>
-      <c r="N748" s="1"/>
-      <c r="O748" s="1"/>
-      <c r="P748" s="1"/>
-      <c r="Q748" s="1"/>
-    </row>
-    <row r="749" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M749" s="1"/>
-      <c r="N749" s="1"/>
-      <c r="O749" s="1"/>
-      <c r="P749" s="1"/>
-      <c r="Q749" s="1"/>
-    </row>
-    <row r="750" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M750" s="1"/>
-      <c r="N750" s="1"/>
-      <c r="O750" s="1"/>
-      <c r="P750" s="1"/>
-      <c r="Q750" s="1"/>
-    </row>
-    <row r="751" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M751" s="1"/>
-      <c r="N751" s="1"/>
-      <c r="O751" s="1"/>
-      <c r="P751" s="1"/>
-      <c r="Q751" s="1"/>
-    </row>
-    <row r="752" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M752" s="1"/>
-      <c r="N752" s="1"/>
-      <c r="O752" s="1"/>
-      <c r="P752" s="1"/>
-      <c r="Q752" s="1"/>
-    </row>
-    <row r="753" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M753" s="1"/>
-      <c r="N753" s="1"/>
-      <c r="O753" s="1"/>
-      <c r="P753" s="1"/>
-      <c r="Q753" s="1"/>
-    </row>
-    <row r="754" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M754" s="1"/>
-      <c r="N754" s="1"/>
-      <c r="O754" s="1"/>
-      <c r="P754" s="1"/>
-      <c r="Q754" s="1"/>
-    </row>
-    <row r="755" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M755" s="1"/>
-      <c r="N755" s="1"/>
-      <c r="O755" s="1"/>
-      <c r="P755" s="1"/>
-      <c r="Q755" s="1"/>
-    </row>
-    <row r="756" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M756" s="1"/>
-      <c r="N756" s="1"/>
-      <c r="O756" s="1"/>
-      <c r="P756" s="1"/>
-      <c r="Q756" s="1"/>
-    </row>
-    <row r="757" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M757" s="1"/>
-      <c r="N757" s="1"/>
-      <c r="O757" s="1"/>
-      <c r="P757" s="1"/>
-      <c r="Q757" s="1"/>
-    </row>
-    <row r="758" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M758" s="1"/>
-      <c r="N758" s="1"/>
-      <c r="O758" s="1"/>
-      <c r="P758" s="1"/>
-      <c r="Q758" s="1"/>
-    </row>
-    <row r="759" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M759" s="1"/>
-      <c r="N759" s="1"/>
-      <c r="O759" s="1"/>
-      <c r="P759" s="1"/>
-      <c r="Q759" s="1"/>
-    </row>
-    <row r="760" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M760" s="1"/>
-      <c r="N760" s="1"/>
-      <c r="O760" s="1"/>
-      <c r="P760" s="1"/>
-      <c r="Q760" s="1"/>
-    </row>
-    <row r="761" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M761" s="1"/>
-      <c r="N761" s="1"/>
-      <c r="O761" s="1"/>
-      <c r="P761" s="1"/>
-      <c r="Q761" s="1"/>
-    </row>
-    <row r="762" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M762" s="1"/>
-      <c r="N762" s="1"/>
-      <c r="O762" s="1"/>
-      <c r="P762" s="1"/>
-      <c r="Q762" s="1"/>
-    </row>
-    <row r="763" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M763" s="1"/>
-      <c r="N763" s="1"/>
-      <c r="O763" s="1"/>
-      <c r="P763" s="1"/>
-      <c r="Q763" s="1"/>
-    </row>
-    <row r="764" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M764" s="1"/>
-      <c r="N764" s="1"/>
-      <c r="O764" s="1"/>
-      <c r="P764" s="1"/>
-      <c r="Q764" s="1"/>
-    </row>
-    <row r="765" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M765" s="1"/>
-      <c r="N765" s="1"/>
-      <c r="O765" s="1"/>
-      <c r="P765" s="1"/>
-      <c r="Q765" s="1"/>
-    </row>
-    <row r="766" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M766" s="1"/>
-      <c r="N766" s="1"/>
-      <c r="O766" s="1"/>
-      <c r="P766" s="1"/>
-      <c r="Q766" s="1"/>
-    </row>
-    <row r="767" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M767" s="1"/>
-      <c r="N767" s="1"/>
-      <c r="O767" s="1"/>
-      <c r="P767" s="1"/>
-      <c r="Q767" s="1"/>
-    </row>
-    <row r="768" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M768" s="1"/>
-      <c r="N768" s="1"/>
-      <c r="O768" s="1"/>
-      <c r="P768" s="1"/>
-      <c r="Q768" s="1"/>
-    </row>
-    <row r="769" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M769" s="1"/>
-      <c r="N769" s="1"/>
-      <c r="O769" s="1"/>
-      <c r="P769" s="1"/>
-      <c r="Q769" s="1"/>
-    </row>
-    <row r="770" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M770" s="1"/>
-      <c r="N770" s="1"/>
-      <c r="O770" s="1"/>
-      <c r="P770" s="1"/>
-      <c r="Q770" s="1"/>
-    </row>
-    <row r="771" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M771" s="1"/>
-      <c r="N771" s="1"/>
-      <c r="O771" s="1"/>
-      <c r="P771" s="1"/>
-      <c r="Q771" s="1"/>
-    </row>
-    <row r="772" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M772" s="1"/>
-      <c r="N772" s="1"/>
-      <c r="O772" s="1"/>
-      <c r="P772" s="1"/>
-      <c r="Q772" s="1"/>
-    </row>
-    <row r="773" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M773" s="1"/>
-      <c r="N773" s="1"/>
-      <c r="O773" s="1"/>
-      <c r="P773" s="1"/>
-      <c r="Q773" s="1"/>
-    </row>
-    <row r="774" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M774" s="1"/>
-      <c r="N774" s="1"/>
-      <c r="O774" s="1"/>
-      <c r="P774" s="1"/>
-      <c r="Q774" s="1"/>
-    </row>
-    <row r="775" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M775" s="1"/>
-      <c r="N775" s="1"/>
-      <c r="O775" s="1"/>
-      <c r="P775" s="1"/>
-      <c r="Q775" s="1"/>
-    </row>
-    <row r="776" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M776" s="1"/>
-      <c r="N776" s="1"/>
-      <c r="O776" s="1"/>
-      <c r="P776" s="1"/>
-      <c r="Q776" s="1"/>
-    </row>
-    <row r="777" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M777" s="1"/>
-      <c r="N777" s="1"/>
-      <c r="O777" s="1"/>
-      <c r="P777" s="1"/>
-      <c r="Q777" s="1"/>
-    </row>
-    <row r="778" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M778" s="1"/>
-      <c r="N778" s="1"/>
-      <c r="O778" s="1"/>
-      <c r="P778" s="1"/>
-      <c r="Q778" s="1"/>
-    </row>
-    <row r="779" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M779" s="1"/>
-      <c r="N779" s="1"/>
-      <c r="O779" s="1"/>
-      <c r="P779" s="1"/>
-      <c r="Q779" s="1"/>
-    </row>
-    <row r="780" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M780" s="1"/>
-      <c r="N780" s="1"/>
-      <c r="O780" s="1"/>
-      <c r="P780" s="1"/>
-      <c r="Q780" s="1"/>
-    </row>
-    <row r="781" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M781" s="1"/>
-      <c r="N781" s="1"/>
-      <c r="O781" s="1"/>
-      <c r="P781" s="1"/>
-      <c r="Q781" s="1"/>
-    </row>
-    <row r="782" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M782" s="1"/>
-      <c r="N782" s="1"/>
-      <c r="O782" s="1"/>
-      <c r="P782" s="1"/>
-      <c r="Q782" s="1"/>
-    </row>
-    <row r="783" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M783" s="1"/>
-      <c r="N783" s="1"/>
-      <c r="O783" s="1"/>
-      <c r="P783" s="1"/>
-      <c r="Q783" s="1"/>
-    </row>
-    <row r="784" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M784" s="1"/>
-      <c r="N784" s="1"/>
-      <c r="O784" s="1"/>
-      <c r="P784" s="1"/>
-      <c r="Q784" s="1"/>
-    </row>
-    <row r="785" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M785" s="1"/>
-      <c r="N785" s="1"/>
-      <c r="O785" s="1"/>
-      <c r="P785" s="1"/>
-      <c r="Q785" s="1"/>
-    </row>
-    <row r="786" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M786" s="1"/>
-      <c r="N786" s="1"/>
-      <c r="O786" s="1"/>
-      <c r="P786" s="1"/>
-      <c r="Q786" s="1"/>
-    </row>
-    <row r="787" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M787" s="1"/>
-      <c r="N787" s="1"/>
-      <c r="O787" s="1"/>
-      <c r="P787" s="1"/>
-      <c r="Q787" s="1"/>
-    </row>
-    <row r="788" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M788" s="1"/>
-      <c r="N788" s="1"/>
-      <c r="O788" s="1"/>
-      <c r="P788" s="1"/>
-      <c r="Q788" s="1"/>
-    </row>
-    <row r="789" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M789" s="1"/>
-      <c r="N789" s="1"/>
-      <c r="O789" s="1"/>
-      <c r="P789" s="1"/>
-      <c r="Q789" s="1"/>
-    </row>
-    <row r="790" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M790" s="1"/>
-      <c r="N790" s="1"/>
-      <c r="O790" s="1"/>
-      <c r="P790" s="1"/>
-      <c r="Q790" s="1"/>
-    </row>
-    <row r="791" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M791" s="1"/>
-      <c r="N791" s="1"/>
-      <c r="O791" s="1"/>
-      <c r="P791" s="1"/>
-      <c r="Q791" s="1"/>
-    </row>
-    <row r="792" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M792" s="1"/>
-      <c r="N792" s="1"/>
-      <c r="O792" s="1"/>
-      <c r="P792" s="1"/>
-      <c r="Q792" s="1"/>
-    </row>
-    <row r="793" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M793" s="1"/>
-      <c r="N793" s="1"/>
-      <c r="O793" s="1"/>
-      <c r="P793" s="1"/>
-      <c r="Q793" s="1"/>
-    </row>
-    <row r="794" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M794" s="1"/>
-      <c r="N794" s="1"/>
-      <c r="O794" s="1"/>
-      <c r="P794" s="1"/>
-      <c r="Q794" s="1"/>
-    </row>
-    <row r="795" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M795" s="1"/>
-      <c r="N795" s="1"/>
-      <c r="O795" s="1"/>
-      <c r="P795" s="1"/>
-      <c r="Q795" s="1"/>
-    </row>
-    <row r="796" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M796" s="1"/>
-      <c r="N796" s="1"/>
-      <c r="O796" s="1"/>
-      <c r="P796" s="1"/>
-      <c r="Q796" s="1"/>
-    </row>
-    <row r="797" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M797" s="1"/>
-      <c r="N797" s="1"/>
-      <c r="O797" s="1"/>
-      <c r="P797" s="1"/>
-      <c r="Q797" s="1"/>
-    </row>
-    <row r="798" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M798" s="1"/>
-      <c r="N798" s="1"/>
-      <c r="O798" s="1"/>
-      <c r="P798" s="1"/>
-      <c r="Q798" s="1"/>
-    </row>
-    <row r="799" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M799" s="1"/>
-      <c r="N799" s="1"/>
-      <c r="O799" s="1"/>
-      <c r="P799" s="1"/>
-      <c r="Q799" s="1"/>
-    </row>
-    <row r="800" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M800" s="1"/>
-      <c r="N800" s="1"/>
-      <c r="O800" s="1"/>
-      <c r="P800" s="1"/>
-      <c r="Q800" s="1"/>
-    </row>
-    <row r="801" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M801" s="1"/>
-      <c r="N801" s="1"/>
-      <c r="O801" s="1"/>
-      <c r="P801" s="1"/>
-      <c r="Q801" s="1"/>
-    </row>
-    <row r="802" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M802" s="1"/>
-      <c r="N802" s="1"/>
-      <c r="O802" s="1"/>
-      <c r="P802" s="1"/>
-      <c r="Q802" s="1"/>
-    </row>
-    <row r="803" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M803" s="1"/>
-      <c r="N803" s="1"/>
-      <c r="O803" s="1"/>
-      <c r="P803" s="1"/>
-      <c r="Q803" s="1"/>
-    </row>
-    <row r="804" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M804" s="1"/>
-      <c r="N804" s="1"/>
-      <c r="O804" s="1"/>
-      <c r="P804" s="1"/>
-      <c r="Q804" s="1"/>
-    </row>
-    <row r="805" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M805" s="1"/>
-      <c r="N805" s="1"/>
-      <c r="O805" s="1"/>
-      <c r="P805" s="1"/>
-      <c r="Q805" s="1"/>
-    </row>
-    <row r="806" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M806" s="1"/>
-      <c r="N806" s="1"/>
-      <c r="O806" s="1"/>
-      <c r="P806" s="1"/>
-      <c r="Q806" s="1"/>
-    </row>
-    <row r="807" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M807" s="1"/>
-      <c r="N807" s="1"/>
-      <c r="O807" s="1"/>
-      <c r="P807" s="1"/>
-      <c r="Q807" s="1"/>
-    </row>
-    <row r="808" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M808" s="1"/>
-      <c r="N808" s="1"/>
-      <c r="O808" s="1"/>
-      <c r="P808" s="1"/>
-      <c r="Q808" s="1"/>
-    </row>
-    <row r="809" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M809" s="1"/>
-      <c r="N809" s="1"/>
-      <c r="O809" s="1"/>
-      <c r="P809" s="1"/>
-      <c r="Q809" s="1"/>
-    </row>
-    <row r="810" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M810" s="1"/>
-      <c r="N810" s="1"/>
-      <c r="O810" s="1"/>
-      <c r="P810" s="1"/>
-      <c r="Q810" s="1"/>
-    </row>
-    <row r="811" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M811" s="1"/>
-      <c r="N811" s="1"/>
-      <c r="O811" s="1"/>
-      <c r="P811" s="1"/>
-      <c r="Q811" s="1"/>
-    </row>
-    <row r="812" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M812" s="1"/>
-      <c r="N812" s="1"/>
-      <c r="O812" s="1"/>
-      <c r="P812" s="1"/>
-      <c r="Q812" s="1"/>
-    </row>
-    <row r="813" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M813" s="1"/>
-      <c r="N813" s="1"/>
-      <c r="O813" s="1"/>
-      <c r="P813" s="1"/>
-      <c r="Q813" s="1"/>
-    </row>
-    <row r="814" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M814" s="1"/>
-      <c r="N814" s="1"/>
-      <c r="O814" s="1"/>
-      <c r="P814" s="1"/>
-      <c r="Q814" s="1"/>
-    </row>
-    <row r="815" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M815" s="1"/>
-      <c r="N815" s="1"/>
-      <c r="O815" s="1"/>
-      <c r="P815" s="1"/>
-      <c r="Q815" s="1"/>
-    </row>
-    <row r="816" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M816" s="1"/>
-      <c r="N816" s="1"/>
-      <c r="O816" s="1"/>
-      <c r="P816" s="1"/>
-      <c r="Q816" s="1"/>
-    </row>
-    <row r="817" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M817" s="1"/>
-      <c r="N817" s="1"/>
-      <c r="O817" s="1"/>
-      <c r="P817" s="1"/>
-      <c r="Q817" s="1"/>
-    </row>
-    <row r="818" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M818" s="1"/>
-      <c r="N818" s="1"/>
-      <c r="O818" s="1"/>
-      <c r="P818" s="1"/>
-      <c r="Q818" s="1"/>
-    </row>
-    <row r="819" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M819" s="1"/>
-      <c r="N819" s="1"/>
-      <c r="O819" s="1"/>
-      <c r="P819" s="1"/>
-      <c r="Q819" s="1"/>
-    </row>
-    <row r="820" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M820" s="1"/>
-      <c r="N820" s="1"/>
-      <c r="O820" s="1"/>
-      <c r="P820" s="1"/>
-      <c r="Q820" s="1"/>
-    </row>
-    <row r="821" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M821" s="1"/>
-      <c r="N821" s="1"/>
-      <c r="O821" s="1"/>
-      <c r="P821" s="1"/>
-      <c r="Q821" s="1"/>
-    </row>
-    <row r="822" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M822" s="1"/>
-      <c r="N822" s="1"/>
-      <c r="O822" s="1"/>
-      <c r="P822" s="1"/>
-      <c r="Q822" s="1"/>
-    </row>
-    <row r="823" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M823" s="1"/>
-      <c r="N823" s="1"/>
-      <c r="O823" s="1"/>
-      <c r="P823" s="1"/>
-      <c r="Q823" s="1"/>
-    </row>
-    <row r="824" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M824" s="1"/>
-      <c r="N824" s="1"/>
-      <c r="O824" s="1"/>
-      <c r="P824" s="1"/>
-      <c r="Q824" s="1"/>
-    </row>
-    <row r="825" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M825" s="1"/>
-      <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
-      <c r="P825" s="1"/>
-      <c r="Q825" s="1"/>
-    </row>
-    <row r="826" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M826" s="1"/>
-      <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
-      <c r="P826" s="1"/>
-      <c r="Q826" s="1"/>
-    </row>
-    <row r="827" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M827" s="1"/>
-      <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
-      <c r="P827" s="1"/>
-      <c r="Q827" s="1"/>
-    </row>
-    <row r="828" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M828" s="1"/>
-      <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
-      <c r="P828" s="1"/>
-      <c r="Q828" s="1"/>
-    </row>
-    <row r="829" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M829" s="1"/>
-      <c r="N829" s="1"/>
-      <c r="O829" s="1"/>
-      <c r="P829" s="1"/>
-      <c r="Q829" s="1"/>
-    </row>
-    <row r="830" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M830" s="1"/>
-      <c r="N830" s="1"/>
-      <c r="O830" s="1"/>
-      <c r="P830" s="1"/>
-      <c r="Q830" s="1"/>
-    </row>
-    <row r="831" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M831" s="1"/>
-      <c r="N831" s="1"/>
-      <c r="O831" s="1"/>
-      <c r="P831" s="1"/>
-      <c r="Q831" s="1"/>
-    </row>
-    <row r="832" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M832" s="1"/>
-      <c r="N832" s="1"/>
-      <c r="O832" s="1"/>
-      <c r="P832" s="1"/>
-      <c r="Q832" s="1"/>
-    </row>
-    <row r="833" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M833" s="1"/>
-      <c r="N833" s="1"/>
-      <c r="O833" s="1"/>
-      <c r="P833" s="1"/>
-      <c r="Q833" s="1"/>
-    </row>
-    <row r="834" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M834" s="1"/>
-      <c r="N834" s="1"/>
-      <c r="O834" s="1"/>
-      <c r="P834" s="1"/>
-      <c r="Q834" s="1"/>
-    </row>
-    <row r="835" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M835" s="1"/>
-      <c r="N835" s="1"/>
-      <c r="O835" s="1"/>
-      <c r="P835" s="1"/>
-      <c r="Q835" s="1"/>
-    </row>
-    <row r="836" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M836" s="1"/>
-      <c r="N836" s="1"/>
-      <c r="O836" s="1"/>
-      <c r="P836" s="1"/>
-      <c r="Q836" s="1"/>
-    </row>
-    <row r="837" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M837" s="1"/>
-      <c r="N837" s="1"/>
-      <c r="O837" s="1"/>
-      <c r="P837" s="1"/>
-      <c r="Q837" s="1"/>
-    </row>
-    <row r="838" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M838" s="1"/>
-      <c r="N838" s="1"/>
-      <c r="O838" s="1"/>
-      <c r="P838" s="1"/>
-      <c r="Q838" s="1"/>
-    </row>
-    <row r="839" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M839" s="1"/>
-      <c r="N839" s="1"/>
-      <c r="O839" s="1"/>
-      <c r="P839" s="1"/>
-      <c r="Q839" s="1"/>
-    </row>
-    <row r="840" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M840" s="1"/>
-      <c r="N840" s="1"/>
-      <c r="O840" s="1"/>
-      <c r="P840" s="1"/>
-      <c r="Q840" s="1"/>
-    </row>
-    <row r="841" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M841" s="1"/>
-      <c r="N841" s="1"/>
-      <c r="O841" s="1"/>
-      <c r="P841" s="1"/>
-      <c r="Q841" s="1"/>
-    </row>
-    <row r="842" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M842" s="1"/>
-      <c r="N842" s="1"/>
-      <c r="O842" s="1"/>
-      <c r="P842" s="1"/>
-      <c r="Q842" s="1"/>
-    </row>
-    <row r="843" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M843" s="1"/>
-      <c r="N843" s="1"/>
-      <c r="O843" s="1"/>
-      <c r="P843" s="1"/>
-      <c r="Q843" s="1"/>
-    </row>
-    <row r="844" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M844" s="1"/>
-      <c r="N844" s="1"/>
-      <c r="O844" s="1"/>
-      <c r="P844" s="1"/>
-      <c r="Q844" s="1"/>
-    </row>
-    <row r="845" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M845" s="1"/>
-      <c r="N845" s="1"/>
-      <c r="O845" s="1"/>
-      <c r="P845" s="1"/>
-      <c r="Q845" s="1"/>
-    </row>
-    <row r="846" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M846" s="1"/>
-      <c r="N846" s="1"/>
-      <c r="O846" s="1"/>
-      <c r="P846" s="1"/>
-      <c r="Q846" s="1"/>
-    </row>
-    <row r="847" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M847" s="1"/>
-      <c r="N847" s="1"/>
-      <c r="O847" s="1"/>
-      <c r="P847" s="1"/>
-      <c r="Q847" s="1"/>
-    </row>
-    <row r="848" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M848" s="1"/>
-      <c r="N848" s="1"/>
-      <c r="O848" s="1"/>
-      <c r="P848" s="1"/>
-      <c r="Q848" s="1"/>
-    </row>
-    <row r="849" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M849" s="1"/>
-      <c r="N849" s="1"/>
-      <c r="O849" s="1"/>
-      <c r="P849" s="1"/>
-      <c r="Q849" s="1"/>
-    </row>
-    <row r="850" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M850" s="1"/>
-      <c r="N850" s="1"/>
-      <c r="O850" s="1"/>
-      <c r="P850" s="1"/>
-      <c r="Q850" s="1"/>
-    </row>
-    <row r="851" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M851" s="1"/>
-      <c r="N851" s="1"/>
-      <c r="O851" s="1"/>
-      <c r="P851" s="1"/>
-      <c r="Q851" s="1"/>
-    </row>
-    <row r="852" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M852" s="1"/>
-      <c r="N852" s="1"/>
-      <c r="O852" s="1"/>
-      <c r="P852" s="1"/>
-      <c r="Q852" s="1"/>
-    </row>
-    <row r="853" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M853" s="1"/>
-      <c r="N853" s="1"/>
-      <c r="O853" s="1"/>
-      <c r="P853" s="1"/>
-      <c r="Q853" s="1"/>
-    </row>
-    <row r="854" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M854" s="1"/>
-      <c r="N854" s="1"/>
-      <c r="O854" s="1"/>
-      <c r="P854" s="1"/>
-      <c r="Q854" s="1"/>
-    </row>
-    <row r="855" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M855" s="1"/>
-      <c r="N855" s="1"/>
-      <c r="O855" s="1"/>
-      <c r="P855" s="1"/>
-      <c r="Q855" s="1"/>
-    </row>
-    <row r="856" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M856" s="1"/>
-      <c r="N856" s="1"/>
-      <c r="O856" s="1"/>
-      <c r="P856" s="1"/>
-      <c r="Q856" s="1"/>
-    </row>
-    <row r="857" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M857" s="1"/>
-      <c r="N857" s="1"/>
-      <c r="O857" s="1"/>
-      <c r="P857" s="1"/>
-      <c r="Q857" s="1"/>
-    </row>
-    <row r="858" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M858" s="1"/>
-      <c r="N858" s="1"/>
-      <c r="O858" s="1"/>
-      <c r="P858" s="1"/>
-      <c r="Q858" s="1"/>
-    </row>
-    <row r="859" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M859" s="1"/>
-      <c r="N859" s="1"/>
-      <c r="O859" s="1"/>
-      <c r="P859" s="1"/>
-      <c r="Q859" s="1"/>
-    </row>
-    <row r="860" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M860" s="1"/>
-      <c r="N860" s="1"/>
-      <c r="O860" s="1"/>
-      <c r="P860" s="1"/>
-      <c r="Q860" s="1"/>
-    </row>
-    <row r="861" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M861" s="1"/>
-      <c r="N861" s="1"/>
-      <c r="O861" s="1"/>
-      <c r="P861" s="1"/>
-      <c r="Q861" s="1"/>
-    </row>
-    <row r="862" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M862" s="1"/>
-      <c r="N862" s="1"/>
-      <c r="O862" s="1"/>
-      <c r="P862" s="1"/>
-      <c r="Q862" s="1"/>
-    </row>
-    <row r="863" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M863" s="1"/>
-      <c r="N863" s="1"/>
-      <c r="O863" s="1"/>
-      <c r="P863" s="1"/>
-      <c r="Q863" s="1"/>
-    </row>
-    <row r="864" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M864" s="1"/>
-      <c r="N864" s="1"/>
-      <c r="O864" s="1"/>
-      <c r="P864" s="1"/>
-      <c r="Q864" s="1"/>
-    </row>
-    <row r="865" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M865" s="1"/>
-      <c r="N865" s="1"/>
-      <c r="O865" s="1"/>
-      <c r="P865" s="1"/>
-      <c r="Q865" s="1"/>
-    </row>
-    <row r="866" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M866" s="1"/>
-      <c r="N866" s="1"/>
-      <c r="O866" s="1"/>
-      <c r="P866" s="1"/>
-      <c r="Q866" s="1"/>
-    </row>
-    <row r="867" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M867" s="1"/>
-      <c r="N867" s="1"/>
-      <c r="O867" s="1"/>
-      <c r="P867" s="1"/>
-      <c r="Q867" s="1"/>
-    </row>
-    <row r="868" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M868" s="1"/>
-      <c r="N868" s="1"/>
-      <c r="O868" s="1"/>
-      <c r="P868" s="1"/>
-      <c r="Q868" s="1"/>
-    </row>
-    <row r="869" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M869" s="1"/>
-      <c r="N869" s="1"/>
-      <c r="O869" s="1"/>
-      <c r="P869" s="1"/>
-      <c r="Q869" s="1"/>
-    </row>
-    <row r="870" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M870" s="1"/>
-      <c r="N870" s="1"/>
-      <c r="O870" s="1"/>
-      <c r="P870" s="1"/>
-      <c r="Q870" s="1"/>
-    </row>
-    <row r="871" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M871" s="1"/>
-      <c r="N871" s="1"/>
-      <c r="O871" s="1"/>
-      <c r="P871" s="1"/>
-      <c r="Q871" s="1"/>
-    </row>
-    <row r="872" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M872" s="1"/>
-      <c r="N872" s="1"/>
-      <c r="O872" s="1"/>
-      <c r="P872" s="1"/>
-      <c r="Q872" s="1"/>
-    </row>
-    <row r="873" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M873" s="1"/>
-      <c r="N873" s="1"/>
-      <c r="O873" s="1"/>
-      <c r="P873" s="1"/>
-      <c r="Q873" s="1"/>
-    </row>
-    <row r="874" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M874" s="1"/>
-      <c r="N874" s="1"/>
-      <c r="O874" s="1"/>
-      <c r="P874" s="1"/>
-      <c r="Q874" s="1"/>
-    </row>
-    <row r="875" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M875" s="1"/>
-      <c r="N875" s="1"/>
-      <c r="O875" s="1"/>
-      <c r="P875" s="1"/>
-      <c r="Q875" s="1"/>
-    </row>
-    <row r="876" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M876" s="1"/>
-      <c r="N876" s="1"/>
-      <c r="O876" s="1"/>
-      <c r="P876" s="1"/>
-      <c r="Q876" s="1"/>
-    </row>
-    <row r="877" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M877" s="1"/>
-      <c r="N877" s="1"/>
-      <c r="O877" s="1"/>
-      <c r="P877" s="1"/>
-      <c r="Q877" s="1"/>
-    </row>
-    <row r="878" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M878" s="1"/>
-      <c r="N878" s="1"/>
-      <c r="O878" s="1"/>
-      <c r="P878" s="1"/>
-      <c r="Q878" s="1"/>
-    </row>
-    <row r="879" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M879" s="1"/>
-      <c r="N879" s="1"/>
-      <c r="O879" s="1"/>
-      <c r="P879" s="1"/>
-      <c r="Q879" s="1"/>
-    </row>
-    <row r="880" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M880" s="1"/>
-      <c r="N880" s="1"/>
-      <c r="O880" s="1"/>
-      <c r="P880" s="1"/>
-      <c r="Q880" s="1"/>
-    </row>
-    <row r="881" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M881" s="1"/>
-      <c r="N881" s="1"/>
-      <c r="O881" s="1"/>
-      <c r="P881" s="1"/>
-      <c r="Q881" s="1"/>
-    </row>
-    <row r="882" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M882" s="1"/>
-      <c r="N882" s="1"/>
-      <c r="O882" s="1"/>
-      <c r="P882" s="1"/>
-      <c r="Q882" s="1"/>
-    </row>
-    <row r="883" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M883" s="1"/>
-      <c r="N883" s="1"/>
-      <c r="O883" s="1"/>
-      <c r="P883" s="1"/>
-      <c r="Q883" s="1"/>
-    </row>
-    <row r="884" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M884" s="1"/>
-      <c r="N884" s="1"/>
-      <c r="O884" s="1"/>
-      <c r="P884" s="1"/>
-      <c r="Q884" s="1"/>
-    </row>
-    <row r="885" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M885" s="1"/>
-      <c r="N885" s="1"/>
-      <c r="O885" s="1"/>
-      <c r="P885" s="1"/>
-      <c r="Q885" s="1"/>
-    </row>
-    <row r="886" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M886" s="1"/>
-      <c r="N886" s="1"/>
-      <c r="O886" s="1"/>
-      <c r="P886" s="1"/>
-      <c r="Q886" s="1"/>
-    </row>
-    <row r="887" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M887" s="1"/>
-      <c r="N887" s="1"/>
-      <c r="O887" s="1"/>
-      <c r="P887" s="1"/>
-      <c r="Q887" s="1"/>
-    </row>
-    <row r="888" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M888" s="1"/>
-      <c r="N888" s="1"/>
-      <c r="O888" s="1"/>
-      <c r="P888" s="1"/>
-      <c r="Q888" s="1"/>
-    </row>
-    <row r="889" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M889" s="1"/>
-      <c r="N889" s="1"/>
-      <c r="O889" s="1"/>
-      <c r="P889" s="1"/>
-      <c r="Q889" s="1"/>
-    </row>
-    <row r="890" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M890" s="1"/>
-      <c r="N890" s="1"/>
-      <c r="O890" s="1"/>
-      <c r="P890" s="1"/>
-      <c r="Q890" s="1"/>
-    </row>
-    <row r="891" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M891" s="1"/>
-      <c r="N891" s="1"/>
-      <c r="O891" s="1"/>
-      <c r="P891" s="1"/>
-      <c r="Q891" s="1"/>
-    </row>
-    <row r="892" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M892" s="1"/>
-      <c r="N892" s="1"/>
-      <c r="O892" s="1"/>
-      <c r="P892" s="1"/>
-      <c r="Q892" s="1"/>
-    </row>
-    <row r="893" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M893" s="1"/>
-      <c r="N893" s="1"/>
-      <c r="O893" s="1"/>
-      <c r="P893" s="1"/>
-      <c r="Q893" s="1"/>
-    </row>
-    <row r="894" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M894" s="1"/>
-      <c r="N894" s="1"/>
-      <c r="O894" s="1"/>
-      <c r="P894" s="1"/>
-      <c r="Q894" s="1"/>
-    </row>
-    <row r="895" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M895" s="1"/>
-      <c r="N895" s="1"/>
-      <c r="O895" s="1"/>
-      <c r="P895" s="1"/>
-      <c r="Q895" s="1"/>
-    </row>
-    <row r="896" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M896" s="1"/>
-      <c r="N896" s="1"/>
-      <c r="O896" s="1"/>
-      <c r="P896" s="1"/>
-      <c r="Q896" s="1"/>
-    </row>
-    <row r="897" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M897" s="1"/>
-      <c r="N897" s="1"/>
-      <c r="O897" s="1"/>
-      <c r="P897" s="1"/>
-      <c r="Q897" s="1"/>
-    </row>
-    <row r="898" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M898" s="1"/>
-      <c r="N898" s="1"/>
-      <c r="O898" s="1"/>
-      <c r="P898" s="1"/>
-      <c r="Q898" s="1"/>
-    </row>
-    <row r="899" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M899" s="1"/>
-      <c r="N899" s="1"/>
-      <c r="O899" s="1"/>
-      <c r="P899" s="1"/>
-      <c r="Q899" s="1"/>
-    </row>
-    <row r="900" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M900" s="1"/>
-      <c r="N900" s="1"/>
-      <c r="O900" s="1"/>
-      <c r="P900" s="1"/>
-      <c r="Q900" s="1"/>
-    </row>
-    <row r="901" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M901" s="1"/>
-      <c r="N901" s="1"/>
-      <c r="O901" s="1"/>
-      <c r="P901" s="1"/>
-      <c r="Q901" s="1"/>
-    </row>
-    <row r="902" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M902" s="1"/>
-      <c r="N902" s="1"/>
-      <c r="O902" s="1"/>
-      <c r="P902" s="1"/>
-      <c r="Q902" s="1"/>
-    </row>
-    <row r="903" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M903" s="1"/>
-      <c r="N903" s="1"/>
-      <c r="O903" s="1"/>
-      <c r="P903" s="1"/>
-      <c r="Q903" s="1"/>
-    </row>
-    <row r="904" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M904" s="1"/>
-      <c r="N904" s="1"/>
-      <c r="O904" s="1"/>
-      <c r="P904" s="1"/>
-      <c r="Q904" s="1"/>
-    </row>
-    <row r="905" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M905" s="1"/>
-      <c r="N905" s="1"/>
-      <c r="O905" s="1"/>
-      <c r="P905" s="1"/>
-      <c r="Q905" s="1"/>
-    </row>
-    <row r="906" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M906" s="1"/>
-      <c r="N906" s="1"/>
-      <c r="O906" s="1"/>
-      <c r="P906" s="1"/>
-      <c r="Q906" s="1"/>
-    </row>
-    <row r="907" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M907" s="1"/>
-      <c r="N907" s="1"/>
-      <c r="O907" s="1"/>
-      <c r="P907" s="1"/>
-      <c r="Q907" s="1"/>
-    </row>
-    <row r="908" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M908" s="1"/>
-      <c r="N908" s="1"/>
-      <c r="O908" s="1"/>
-      <c r="P908" s="1"/>
-      <c r="Q908" s="1"/>
-    </row>
-    <row r="909" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M909" s="1"/>
-      <c r="N909" s="1"/>
-      <c r="O909" s="1"/>
-      <c r="P909" s="1"/>
-      <c r="Q909" s="1"/>
-    </row>
-    <row r="910" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M910" s="1"/>
-      <c r="N910" s="1"/>
-      <c r="O910" s="1"/>
-      <c r="P910" s="1"/>
-      <c r="Q910" s="1"/>
-    </row>
-    <row r="911" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M911" s="1"/>
-      <c r="N911" s="1"/>
-      <c r="O911" s="1"/>
-      <c r="P911" s="1"/>
-      <c r="Q911" s="1"/>
-    </row>
-    <row r="912" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M912" s="1"/>
-      <c r="N912" s="1"/>
-      <c r="O912" s="1"/>
-      <c r="P912" s="1"/>
-      <c r="Q912" s="1"/>
-    </row>
-    <row r="913" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M913" s="1"/>
-      <c r="N913" s="1"/>
-      <c r="O913" s="1"/>
-      <c r="P913" s="1"/>
-      <c r="Q913" s="1"/>
-    </row>
-    <row r="914" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M914" s="1"/>
-      <c r="N914" s="1"/>
-      <c r="O914" s="1"/>
-      <c r="P914" s="1"/>
-      <c r="Q914" s="1"/>
-    </row>
-    <row r="915" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M915" s="1"/>
-      <c r="N915" s="1"/>
-      <c r="O915" s="1"/>
-      <c r="P915" s="1"/>
-      <c r="Q915" s="1"/>
-    </row>
-    <row r="916" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M916" s="1"/>
-      <c r="N916" s="1"/>
-      <c r="O916" s="1"/>
-      <c r="P916" s="1"/>
-      <c r="Q916" s="1"/>
-    </row>
-    <row r="917" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M917" s="1"/>
-      <c r="N917" s="1"/>
-      <c r="O917" s="1"/>
-      <c r="P917" s="1"/>
-      <c r="Q917" s="1"/>
-    </row>
-    <row r="918" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M918" s="1"/>
-      <c r="N918" s="1"/>
-      <c r="O918" s="1"/>
-      <c r="P918" s="1"/>
-      <c r="Q918" s="1"/>
-    </row>
-    <row r="919" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M919" s="1"/>
-      <c r="N919" s="1"/>
-      <c r="O919" s="1"/>
-      <c r="P919" s="1"/>
-      <c r="Q919" s="1"/>
-    </row>
-    <row r="920" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M920" s="1"/>
-      <c r="N920" s="1"/>
-      <c r="O920" s="1"/>
-      <c r="P920" s="1"/>
-      <c r="Q920" s="1"/>
-    </row>
-    <row r="921" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M921" s="1"/>
-      <c r="N921" s="1"/>
-      <c r="O921" s="1"/>
-      <c r="P921" s="1"/>
-      <c r="Q921" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>23</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>0</v>
+      </c>
+      <c r="R125" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P68">

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5614E15A-51D3-4063-A081-30362A8DFD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F07D6A-EB2F-46AF-8402-3F9043217DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="705" windowWidth="16995" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="12810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Image</t>
   </si>
@@ -462,6 +462,24 @@
   </si>
   <si>
     <t>250523_CAM1_0</t>
+  </si>
+  <si>
+    <t>250626_KEN1_0</t>
+  </si>
+  <si>
+    <t>250629_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250630_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250630_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250701_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250627_TC1_0</t>
   </si>
 </sst>
 </file>
@@ -806,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127:R127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5175,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:G125" si="5">SUM(E81:F81)</f>
+        <f t="shared" ref="G81:G129" si="5">SUM(E81:F81)</f>
         <v>0</v>
       </c>
       <c r="H81" s="1">
@@ -7663,6 +7681,348 @@
         <v>0</v>
       </c>
       <c r="R125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C126" s="1">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1">
+        <v>26</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>0</v>
+      </c>
+      <c r="R126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C127" s="1">
+        <v>6</v>
+      </c>
+      <c r="D127" s="1">
+        <v>27</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>0</v>
+      </c>
+      <c r="R127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C128" s="1">
+        <v>6</v>
+      </c>
+      <c r="D128" s="1">
+        <v>29</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>3</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>0</v>
+      </c>
+      <c r="R128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1">
+        <v>30</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>0</v>
+      </c>
+      <c r="R129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C130" s="1">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>30</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <f t="shared" ref="G130:G131" si="6">SUM(E130:F130)</f>
+        <v>2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>0</v>
+      </c>
+      <c r="R130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>5</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>0</v>
+      </c>
+      <c r="R131" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F07D6A-EB2F-46AF-8402-3F9043217DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04E976-1F00-4344-B544-74115219B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="12810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19455" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Image</t>
   </si>
@@ -480,6 +480,57 @@
   </si>
   <si>
     <t>250627_TC1_0</t>
+  </si>
+  <si>
+    <t>250706_TC1_0</t>
+  </si>
+  <si>
+    <t>250706_KEN1_0</t>
+  </si>
+  <si>
+    <t>250705_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250704_KEN1_0</t>
+  </si>
+  <si>
+    <t>250704_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250704_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250712_STLTH_0</t>
+  </si>
+  <si>
+    <t>250708_STLTH_0</t>
+  </si>
+  <si>
+    <t>250711_TRLCAM_0</t>
+  </si>
+  <si>
+    <t>250720_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250719_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250714_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250714_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250714_BSHNL_2</t>
+  </si>
+  <si>
+    <t>250707_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250708_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250707_BSHNL_1</t>
   </si>
 </sst>
 </file>
@@ -824,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127:R127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
@@ -6202,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -6259,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
@@ -6316,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -6373,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -6430,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -6487,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
@@ -6544,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -6601,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -6658,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
@@ -6715,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -6772,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -6829,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
@@ -6886,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -6943,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -7000,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
@@ -7057,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
@@ -7114,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -7171,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>133</v>
       </c>
@@ -7228,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
@@ -7285,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -7342,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
@@ -7399,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -7456,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -7513,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -7570,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
@@ -7627,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -7932,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" ref="G130:G131" si="6">SUM(E130:F130)</f>
+        <f t="shared" ref="G130:G148" si="6">SUM(E130:F130)</f>
         <v>2</v>
       </c>
       <c r="H130" s="1">
@@ -8023,6 +8074,975 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C132" s="1">
+        <v>7</v>
+      </c>
+      <c r="D132" s="1">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>0</v>
+      </c>
+      <c r="R132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C133" s="1">
+        <v>7</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>0</v>
+      </c>
+      <c r="P133" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>0</v>
+      </c>
+      <c r="R133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C134" s="1">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+      <c r="P134" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>0</v>
+      </c>
+      <c r="R134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C135" s="1">
+        <v>7</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>0</v>
+      </c>
+      <c r="R135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C136" s="1">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>0</v>
+      </c>
+      <c r="R136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C137" s="1">
+        <v>7</v>
+      </c>
+      <c r="D137" s="1">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>5</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0</v>
+      </c>
+      <c r="P137" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>0</v>
+      </c>
+      <c r="R137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C138" s="1">
+        <v>7</v>
+      </c>
+      <c r="D138" s="1">
+        <v>12</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>0</v>
+      </c>
+      <c r="R138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C139" s="1">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>0</v>
+      </c>
+      <c r="R139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C140" s="1">
+        <v>7</v>
+      </c>
+      <c r="D140" s="1">
+        <v>11</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0</v>
+      </c>
+      <c r="P140" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>0</v>
+      </c>
+      <c r="R140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C141" s="1">
+        <v>7</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>0</v>
+      </c>
+      <c r="R141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C142" s="1">
+        <v>7</v>
+      </c>
+      <c r="D142" s="1">
+        <v>19</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0</v>
+      </c>
+      <c r="P142" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>0</v>
+      </c>
+      <c r="R142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+      <c r="P143" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>0</v>
+      </c>
+      <c r="R143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C144" s="1">
+        <v>7</v>
+      </c>
+      <c r="D144" s="1">
+        <v>14</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>2</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>0</v>
+      </c>
+      <c r="R144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C145" s="1">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1">
+        <v>14</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>2</v>
+      </c>
+      <c r="L145" s="1">
+        <v>0</v>
+      </c>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>0</v>
+      </c>
+      <c r="R145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C146" s="1">
+        <v>7</v>
+      </c>
+      <c r="D146" s="1">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+      <c r="N146" s="1">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>0</v>
+      </c>
+      <c r="R146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C147" s="1">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>0</v>
+      </c>
+      <c r="R147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C148" s="1">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF04E976-1F00-4344-B544-74115219B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5DB788-5363-414A-9BD4-5A85E4662D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19455" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30045" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Image</t>
   </si>
@@ -531,6 +531,24 @@
   </si>
   <si>
     <t>250707_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250721_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250721_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250722_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250708_GENCAM_0</t>
+  </si>
+  <si>
+    <t>250708_GENCAM_1</t>
+  </si>
+  <si>
+    <t>250717_GENCAM_0</t>
   </si>
 </sst>
 </file>
@@ -875,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+      <selection activeCell="P148" sqref="P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7735,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>142</v>
       </c>
@@ -7792,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>147</v>
       </c>
@@ -7849,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -7906,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
@@ -7983,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" ref="G130:G148" si="6">SUM(E130:F130)</f>
+        <f t="shared" ref="G130:G154" si="6">SUM(E130:F130)</f>
         <v>2</v>
       </c>
       <c r="H130" s="1">
@@ -8020,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
@@ -8077,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>148</v>
       </c>
@@ -8134,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>149</v>
       </c>
@@ -8191,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
@@ -8248,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
@@ -8305,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>152</v>
       </c>
@@ -8362,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
@@ -8419,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>154</v>
       </c>
@@ -8476,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>155</v>
       </c>
@@ -8533,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>156</v>
       </c>
@@ -8590,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>157</v>
       </c>
@@ -8647,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>158</v>
       </c>
@@ -8704,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>159</v>
       </c>
@@ -8761,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
@@ -8818,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>161</v>
       </c>
@@ -9043,6 +9061,348 @@
         <v>0</v>
       </c>
       <c r="R148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C149" s="1">
+        <v>7</v>
+      </c>
+      <c r="D149" s="1">
+        <v>21</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>4</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>0</v>
+      </c>
+      <c r="R149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C150" s="1">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1">
+        <v>21</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>0</v>
+      </c>
+      <c r="R150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C151" s="1">
+        <v>7</v>
+      </c>
+      <c r="D151" s="1">
+        <v>22</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0</v>
+      </c>
+      <c r="L151" s="1">
+        <v>0</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>0</v>
+      </c>
+      <c r="R151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C152" s="1">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+      <c r="P152" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>0</v>
+      </c>
+      <c r="R152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C153" s="1">
+        <v>7</v>
+      </c>
+      <c r="D153" s="1">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>0</v>
+      </c>
+      <c r="R153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C154" s="1">
+        <v>7</v>
+      </c>
+      <c r="D154" s="1">
+        <v>17</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>0</v>
+      </c>
+      <c r="M154" s="1">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>0</v>
+      </c>
+      <c r="P154" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>0</v>
+      </c>
+      <c r="R154" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/Truth.xlsx
+++ b/data/Truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\AI Projects\otter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5DB788-5363-414A-9BD4-5A85E4662D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F09D794-6EC6-4B12-985B-9408AE6014D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="2685" windowWidth="18795" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Image</t>
   </si>
@@ -549,6 +552,21 @@
   </si>
   <si>
     <t>250717_GENCAM_0</t>
+  </si>
+  <si>
+    <t>250821_BSHNL_0</t>
+  </si>
+  <si>
+    <t>250821_BSHNL_1</t>
+  </si>
+  <si>
+    <t>250818_KEN1_0</t>
+  </si>
+  <si>
+    <t>250817_KEN1_0</t>
+  </si>
+  <si>
+    <t>250816_BSHNL_0</t>
   </si>
 </sst>
 </file>
@@ -893,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P148" sqref="P148"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8001,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" ref="G130:G154" si="6">SUM(E130:F130)</f>
+        <f t="shared" ref="G130:G159" si="6">SUM(E130:F130)</f>
         <v>2</v>
       </c>
       <c r="H130" s="1">
@@ -9403,6 +9421,291 @@
         <v>0</v>
       </c>
       <c r="R154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C155" s="1">
+        <v>8</v>
+      </c>
+      <c r="D155" s="1">
+        <v>21</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>0</v>
+      </c>
+      <c r="M155" s="1">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1">
+        <v>0</v>
+      </c>
+      <c r="O155" s="1">
+        <v>0</v>
+      </c>
+      <c r="P155" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>0</v>
+      </c>
+      <c r="R155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8</v>
+      </c>
+      <c r="D156" s="1">
+        <v>21</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>2</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>0</v>
+      </c>
+      <c r="R156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C157" s="1">
+        <v>8</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>5</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>0</v>
+      </c>
+      <c r="M157" s="1">
+        <v>0</v>
+      </c>
+      <c r="N157" s="1">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>0</v>
+      </c>
+      <c r="P157" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>0</v>
+      </c>
+      <c r="R157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C158" s="1">
+        <v>8</v>
+      </c>
+      <c r="D158" s="1">
+        <v>17</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>0</v>
+      </c>
+      <c r="R158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C159" s="1">
+        <v>8</v>
+      </c>
+      <c r="D159" s="1">
+        <v>16</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>8</v>
+      </c>
+      <c r="G159" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+      <c r="M159" s="1">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>0</v>
+      </c>
+      <c r="R159" s="1">
         <v>0</v>
       </c>
     </row>
